--- a/data/data-wrangling-intermediate/01b_edited-species8_location-dependent-final-fix.xlsx
+++ b/data/data-wrangling-intermediate/01b_edited-species8_location-dependent-final-fix.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:40009_{0BA8441D-1008-43DB-A010-9C50448DAA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A187BB9-3C82-4CAE-A866-835FC5B2AFD9}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:40009_{0BA8441D-1008-43DB-A010-9C50448DAA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2DB5803-D0BC-466C-BA12-ECD83B8EEB55}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="01b_edited-species9_location-de" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="904">
   <si>
     <t>Region</t>
   </si>
@@ -1798,9 +1798,6 @@
     <t>UNGRS1.SRER</t>
   </si>
   <si>
-    <t>Unknown grass (Patagonia);Unk. grass seedling, bunchy, possible lovegrass?, SRER</t>
-  </si>
-  <si>
     <t>UNGRS2</t>
   </si>
   <si>
@@ -2368,12 +2365,6 @@
     <t>Couple possible little BOCUs (no seed heads, tiller, culms to verify)</t>
   </si>
   <si>
-    <t>ERASPP.SRER</t>
-  </si>
-  <si>
-    <t>Eragrostis spp., ERCU or ERLE, SRER</t>
-  </si>
-  <si>
     <t>GILSPP.SRER</t>
   </si>
   <si>
@@ -2426,6 +2417,321 @@
   </si>
   <si>
     <t>Eragrostis cilianensis, Creosote</t>
+  </si>
+  <si>
+    <t>UnkForb1</t>
+  </si>
+  <si>
+    <t>UnkForb1.Creosote</t>
+  </si>
+  <si>
+    <t>Unknown forb 1, Creosote</t>
+  </si>
+  <si>
+    <t>UNK Fuzzy astr</t>
+  </si>
+  <si>
+    <t>UNK Fuzzy astr.Mesquite</t>
+  </si>
+  <si>
+    <t>Unknown fuzzy aster, Mesquite</t>
+  </si>
+  <si>
+    <t>UnkForb</t>
+  </si>
+  <si>
+    <t>UnkForb.Mesquite</t>
+  </si>
+  <si>
+    <t>Unkaster.Mesquite</t>
+  </si>
+  <si>
+    <t>Unknown aster, Mesquite</t>
+  </si>
+  <si>
+    <t>UNGR.AguaFria</t>
+  </si>
+  <si>
+    <t>Unknown grass, AguaFria</t>
+  </si>
+  <si>
+    <t>UNGR2.AguaFria</t>
+  </si>
+  <si>
+    <t>Unknown grass 2, AguaFria</t>
+  </si>
+  <si>
+    <t>UNGR3.AguaFria</t>
+  </si>
+  <si>
+    <t>Unknown grass 3, AguaFria</t>
+  </si>
+  <si>
+    <t>UNGR4.AguaFria</t>
+  </si>
+  <si>
+    <t>Unknown grass 4, AguaFria</t>
+  </si>
+  <si>
+    <t>UNFO14</t>
+  </si>
+  <si>
+    <t>UNFO14.BarTBar</t>
+  </si>
+  <si>
+    <t>Unknown forb 14, BarTBar</t>
+  </si>
+  <si>
+    <t>UNFO16</t>
+  </si>
+  <si>
+    <t>UNFO16.BarTBar</t>
+  </si>
+  <si>
+    <t>Unknown forb 16, BarTBar</t>
+  </si>
+  <si>
+    <t>UNFO7.BarTBar</t>
+  </si>
+  <si>
+    <t>Unknown forb 7, BarTBar</t>
+  </si>
+  <si>
+    <t>UNFO9.BarTBar</t>
+  </si>
+  <si>
+    <t>Unknown forb 9, BarTBar</t>
+  </si>
+  <si>
+    <t>UNFO.FlyingM</t>
+  </si>
+  <si>
+    <t>Unknown forb, FlyingM</t>
+  </si>
+  <si>
+    <t>UNGR3.MOWE</t>
+  </si>
+  <si>
+    <t>Unknown grass 3, MOWE</t>
+  </si>
+  <si>
+    <t>UCHEN1</t>
+  </si>
+  <si>
+    <t>UCHEN1.PEFO</t>
+  </si>
+  <si>
+    <t>Unknown UCHEN1 (?), PEFO</t>
+  </si>
+  <si>
+    <t>UCHEN2</t>
+  </si>
+  <si>
+    <t>UCHEN2.PEFO</t>
+  </si>
+  <si>
+    <t>Unknown UCHEN2 (?), PEFO</t>
+  </si>
+  <si>
+    <t>UNGR3.PEFO</t>
+  </si>
+  <si>
+    <t>Unknown grass 3, PEFO</t>
+  </si>
+  <si>
+    <t>UNFO2A</t>
+  </si>
+  <si>
+    <t>UNFO2A.AVRCD</t>
+  </si>
+  <si>
+    <t>Unknown forb 2A, AVRCD</t>
+  </si>
+  <si>
+    <t>unk grass 2</t>
+  </si>
+  <si>
+    <t>unk grass 2.Roosevelt</t>
+  </si>
+  <si>
+    <t>Unknown grass 2, Roosevelt</t>
+  </si>
+  <si>
+    <t>UNK brown</t>
+  </si>
+  <si>
+    <t>UNK brown.SCC</t>
+  </si>
+  <si>
+    <t>Unknown brown, SCC</t>
+  </si>
+  <si>
+    <t>CRYSPP 1</t>
+  </si>
+  <si>
+    <t>CRYSPP 1.SRER</t>
+  </si>
+  <si>
+    <t>Cryptantha spp. 1, SRER</t>
+  </si>
+  <si>
+    <t>CRYSPP 2</t>
+  </si>
+  <si>
+    <t>CRYSPP 2.SRER</t>
+  </si>
+  <si>
+    <t>Cryptantha spp. 2, SRER</t>
+  </si>
+  <si>
+    <t>CRYSPP2</t>
+  </si>
+  <si>
+    <t>CRYSPP2.SRER</t>
+  </si>
+  <si>
+    <t>Cryptantha spp. 3, SRER</t>
+  </si>
+  <si>
+    <t>ERIASPP</t>
+  </si>
+  <si>
+    <t>ERIASPP.SRER</t>
+  </si>
+  <si>
+    <t>Eriastrum spp., SRER</t>
+  </si>
+  <si>
+    <t>FESSPP</t>
+  </si>
+  <si>
+    <t>FESSPP.SRER</t>
+  </si>
+  <si>
+    <t>Fescue spp., SRER</t>
+  </si>
+  <si>
+    <t>GILSPP 1</t>
+  </si>
+  <si>
+    <t>GILSPP 1.SRER</t>
+  </si>
+  <si>
+    <t>Gilia spp. 1, SRER</t>
+  </si>
+  <si>
+    <t>GILSPP 2</t>
+  </si>
+  <si>
+    <t>GILSPP 2.SRER</t>
+  </si>
+  <si>
+    <t>Gilia spp. 2, SRER</t>
+  </si>
+  <si>
+    <t>UNFO-5</t>
+  </si>
+  <si>
+    <t>UNFO-5.SRER</t>
+  </si>
+  <si>
+    <t>Unknown forb 5, SRER</t>
+  </si>
+  <si>
+    <t>UNFO5.SRER</t>
+  </si>
+  <si>
+    <t>Unknown forb (SRER); Little carrot with tiny white flowers and thin leaves, SRER</t>
+  </si>
+  <si>
+    <t>UNGRS-1</t>
+  </si>
+  <si>
+    <t>UNGRS-1.SRER</t>
+  </si>
+  <si>
+    <t>Unknown grass 6, SRER</t>
+  </si>
+  <si>
+    <t>Unknown grass (SRER); Small tuft grass, bouteloua like growth, heads as nodes, SRER</t>
+  </si>
+  <si>
+    <t>Unknown grass seedling (SRER), but most likely ERLE, spring 2022, SRER</t>
+  </si>
+  <si>
+    <t>S-UNFO2</t>
+  </si>
+  <si>
+    <t>S-UNFO2.CRC</t>
+  </si>
+  <si>
+    <t>Seeded unknown forb 2, CRC</t>
+  </si>
+  <si>
+    <t>S-UNGR1</t>
+  </si>
+  <si>
+    <t>S-UNGR1.CRC</t>
+  </si>
+  <si>
+    <t>Seeded unknown grass 1, CRC</t>
+  </si>
+  <si>
+    <t>S-UNGR2.CRC</t>
+  </si>
+  <si>
+    <t>Seeded unknown grass 2, CRC</t>
+  </si>
+  <si>
+    <t>S-UNGR3.CRC</t>
+  </si>
+  <si>
+    <t>Seeded unknown grass 3, CRC</t>
+  </si>
+  <si>
+    <t>S-UNGR4.CRC</t>
+  </si>
+  <si>
+    <t>Seeded unknown grass 4, CRC</t>
+  </si>
+  <si>
+    <t>S-UNFO2.Salt_Desert</t>
+  </si>
+  <si>
+    <t>Seeded unknown forb 2, Salt_Desert</t>
+  </si>
+  <si>
+    <t>S-UNGR1.Salt_Desert</t>
+  </si>
+  <si>
+    <t>Seeded unknown grass 1, Salt_Desert</t>
+  </si>
+  <si>
+    <t>S-UNGR2.Salt_Desert</t>
+  </si>
+  <si>
+    <t>Seeded unknown grass 2, Salt_Desert</t>
+  </si>
+  <si>
+    <t>S-UNGR3.Salt_Desert</t>
+  </si>
+  <si>
+    <t>Seeded unknown grass 3, Salt_Desert</t>
+  </si>
+  <si>
+    <t>UNGR4.Salt_Desert</t>
+  </si>
+  <si>
+    <t>Unknown grass 4, Salt_Desert</t>
+  </si>
+  <si>
+    <t>Erigonum spp., UtahPJ</t>
+  </si>
+  <si>
+    <t>Eriogonum sp.</t>
+  </si>
+  <si>
+    <t>Eriogonum sp..UtahPJ</t>
   </si>
 </sst>
 </file>
@@ -2988,7 +3294,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>131444</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3362,11 +3668,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H320"/>
+  <dimension ref="A1:H347"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E288" sqref="E288"/>
+      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3492,19 +3798,19 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>726</v>
+      </c>
+      <c r="D5" t="s">
         <v>727</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>798</v>
+      </c>
+      <c r="F5" t="s">
         <v>728</v>
       </c>
-      <c r="E5" t="s">
-        <v>801</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>729</v>
-      </c>
-      <c r="G5" t="s">
-        <v>730</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
@@ -3570,13 +3876,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>663</v>
+        <v>799</v>
       </c>
       <c r="D8" t="s">
-        <v>664</v>
+        <v>800</v>
       </c>
       <c r="E8" t="s">
-        <v>665</v>
+        <v>801</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -3596,16 +3902,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D9" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E9" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -3622,16 +3928,16 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D10" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E10" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -3648,13 +3954,13 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D11" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E11" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -3674,13 +3980,13 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D12" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="E12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -3700,16 +4006,16 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D13" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E13" t="s">
-        <v>682</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>673</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -3726,22 +4032,22 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="D14" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="E14" t="s">
-        <v>694</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
+        <v>681</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -3752,13 +4058,13 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D15" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E15" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -3778,13 +4084,13 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D16" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E16" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -3804,13 +4110,13 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="D17" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="E17" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -3819,7 +4125,7 @@
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -3830,13 +4136,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D18" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E18" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -3845,7 +4151,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -3853,25 +4159,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>707</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>708</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>724</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -3882,16 +4188,16 @@
         <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -3908,16 +4214,16 @@
         <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>332</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>333</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>731</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
@@ -3934,22 +4240,22 @@
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>624</v>
+        <v>332</v>
       </c>
       <c r="D22" t="s">
-        <v>625</v>
+        <v>333</v>
       </c>
       <c r="E22" t="s">
-        <v>626</v>
+        <v>730</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -3960,22 +4266,22 @@
         <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>653</v>
+        <v>802</v>
       </c>
       <c r="D23" t="s">
-        <v>654</v>
+        <v>803</v>
       </c>
       <c r="E23" t="s">
-        <v>655</v>
+        <v>804</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -3986,13 +4292,13 @@
         <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>672</v>
+        <v>623</v>
       </c>
       <c r="D24" t="s">
-        <v>675</v>
+        <v>624</v>
       </c>
       <c r="E24" t="s">
-        <v>659</v>
+        <v>625</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
@@ -4001,7 +4307,7 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -4012,22 +4318,22 @@
         <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
       <c r="D25" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="E25" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -4038,16 +4344,16 @@
         <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>683</v>
+        <v>805</v>
       </c>
       <c r="D26" t="s">
-        <v>684</v>
+        <v>806</v>
       </c>
       <c r="E26" t="s">
-        <v>685</v>
+        <v>658</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
@@ -4064,13 +4370,13 @@
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="D27" t="s">
-        <v>687</v>
+        <v>807</v>
       </c>
       <c r="E27" t="s">
-        <v>688</v>
+        <v>808</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -4090,16 +4396,16 @@
         <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="D28" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="E28" t="s">
-        <v>691</v>
+        <v>658</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
@@ -4116,22 +4422,22 @@
         <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="D29" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="E29" t="s">
-        <v>626</v>
+        <v>678</v>
       </c>
       <c r="F29" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -4142,13 +4448,13 @@
         <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="D30" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="E30" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -4157,7 +4463,7 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -4168,13 +4474,13 @@
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>708</v>
+        <v>685</v>
       </c>
       <c r="D31" t="s">
-        <v>710</v>
+        <v>686</v>
       </c>
       <c r="E31" t="s">
-        <v>726</v>
+        <v>687</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -4183,7 +4489,7 @@
         <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -4194,39 +4500,39 @@
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>711</v>
+        <v>688</v>
       </c>
       <c r="D32" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
       <c r="E32" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="F32" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>691</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>694</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>625</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
@@ -4240,22 +4546,22 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>701</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>702</v>
       </c>
       <c r="E34" t="s">
-        <v>172</v>
+        <v>703</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
@@ -4266,54 +4572,54 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>221</v>
+        <v>707</v>
       </c>
       <c r="D35" t="s">
-        <v>222</v>
+        <v>709</v>
       </c>
       <c r="E35" t="s">
-        <v>223</v>
+        <v>725</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>299</v>
+        <v>710</v>
       </c>
       <c r="D36" t="s">
-        <v>300</v>
+        <v>711</v>
       </c>
       <c r="E36" t="s">
-        <v>301</v>
+        <v>712</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -4324,22 +4630,22 @@
         <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>347</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>350</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>351</v>
+        <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -4350,22 +4656,22 @@
         <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>388</v>
+        <v>170</v>
       </c>
       <c r="D38" t="s">
-        <v>391</v>
+        <v>171</v>
       </c>
       <c r="E38" t="s">
-        <v>392</v>
+        <v>172</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -4376,16 +4682,16 @@
         <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>409</v>
+        <v>221</v>
       </c>
       <c r="D39" t="s">
-        <v>410</v>
+        <v>222</v>
       </c>
       <c r="E39" t="s">
-        <v>411</v>
+        <v>223</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
@@ -4402,16 +4708,16 @@
         <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>426</v>
+        <v>299</v>
       </c>
       <c r="D40" t="s">
-        <v>427</v>
+        <v>300</v>
       </c>
       <c r="E40" t="s">
-        <v>428</v>
+        <v>301</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
@@ -4428,13 +4734,13 @@
         <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>441</v>
+        <v>347</v>
       </c>
       <c r="D41" t="s">
-        <v>442</v>
+        <v>350</v>
       </c>
       <c r="E41" t="s">
-        <v>443</v>
+        <v>351</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -4454,13 +4760,13 @@
         <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="D42" t="s">
-        <v>455</v>
+        <v>391</v>
       </c>
       <c r="E42" t="s">
-        <v>456</v>
+        <v>392</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -4480,13 +4786,13 @@
         <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>474</v>
+        <v>409</v>
       </c>
       <c r="D43" t="s">
-        <v>475</v>
+        <v>410</v>
       </c>
       <c r="E43" t="s">
-        <v>476</v>
+        <v>411</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -4506,22 +4812,22 @@
         <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>549</v>
+        <v>426</v>
       </c>
       <c r="D44" t="s">
-        <v>550</v>
+        <v>427</v>
       </c>
       <c r="E44" t="s">
-        <v>551</v>
+        <v>428</v>
       </c>
       <c r="F44" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
         <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -4532,13 +4838,13 @@
         <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>583</v>
+        <v>441</v>
       </c>
       <c r="D45" t="s">
-        <v>584</v>
+        <v>442</v>
       </c>
       <c r="E45" t="s">
-        <v>585</v>
+        <v>443</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -4547,7 +4853,7 @@
         <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -4555,19 +4861,19 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>454</v>
       </c>
       <c r="D46" t="s">
-        <v>35</v>
+        <v>455</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>456</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s">
         <v>14</v>
@@ -4581,25 +4887,25 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>474</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>475</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>476</v>
       </c>
       <c r="F47" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -4607,25 +4913,25 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>530</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>809</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>810</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -4633,19 +4939,19 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>549</v>
       </c>
       <c r="D49" t="s">
-        <v>168</v>
+        <v>550</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>551</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
@@ -4659,16 +4965,16 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>170</v>
+        <v>568</v>
       </c>
       <c r="D50" t="s">
-        <v>173</v>
+        <v>811</v>
       </c>
       <c r="E50" t="s">
-        <v>169</v>
+        <v>812</v>
       </c>
       <c r="F50" t="s">
         <v>5</v>
@@ -4685,16 +4991,16 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>575</v>
       </c>
       <c r="D51" t="s">
-        <v>179</v>
+        <v>813</v>
       </c>
       <c r="E51" t="s">
-        <v>732</v>
+        <v>814</v>
       </c>
       <c r="F51" t="s">
         <v>5</v>
@@ -4711,16 +5017,16 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>578</v>
       </c>
       <c r="D52" t="s">
-        <v>205</v>
+        <v>815</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
+        <v>816</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -4729,7 +5035,7 @@
         <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -4737,25 +5043,25 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>583</v>
       </c>
       <c r="D53" t="s">
-        <v>208</v>
+        <v>584</v>
       </c>
       <c r="E53" t="s">
-        <v>209</v>
+        <v>585</v>
       </c>
       <c r="F53" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
         <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -4766,16 +5072,16 @@
         <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="D54" t="s">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="E54" t="s">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
         <v>14</v>
@@ -4792,22 +5098,22 @@
         <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>299</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>302</v>
+        <v>91</v>
       </c>
       <c r="E55" t="s">
-        <v>303</v>
+        <v>92</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G55" t="s">
         <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -4818,22 +5124,22 @@
         <v>33</v>
       </c>
       <c r="C56" t="s">
-        <v>320</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
-        <v>733</v>
+        <v>126</v>
       </c>
       <c r="F56" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
         <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -4844,22 +5150,22 @@
         <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>334</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>335</v>
+        <v>168</v>
       </c>
       <c r="E57" t="s">
-        <v>336</v>
+        <v>169</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
         <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -4870,13 +5176,13 @@
         <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>347</v>
+        <v>170</v>
       </c>
       <c r="D58" t="s">
-        <v>352</v>
+        <v>173</v>
       </c>
       <c r="E58" t="s">
-        <v>353</v>
+        <v>169</v>
       </c>
       <c r="F58" t="s">
         <v>5</v>
@@ -4885,7 +5191,7 @@
         <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -4896,16 +5202,16 @@
         <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>530</v>
+        <v>178</v>
       </c>
       <c r="D59" t="s">
-        <v>531</v>
+        <v>179</v>
       </c>
       <c r="E59" t="s">
-        <v>532</v>
+        <v>731</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G59" t="s">
         <v>14</v>
@@ -4922,22 +5228,22 @@
         <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>549</v>
+        <v>204</v>
       </c>
       <c r="D60" t="s">
-        <v>552</v>
+        <v>205</v>
       </c>
       <c r="E60" t="s">
-        <v>553</v>
+        <v>206</v>
       </c>
       <c r="F60" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
         <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -4948,16 +5254,16 @@
         <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>656</v>
+        <v>207</v>
       </c>
       <c r="D61" t="s">
-        <v>657</v>
+        <v>208</v>
       </c>
       <c r="E61" t="s">
-        <v>658</v>
+        <v>209</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G61" t="s">
         <v>14</v>
@@ -4971,19 +5277,19 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G62" t="s">
         <v>14</v>
@@ -4997,25 +5303,25 @@
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>299</v>
       </c>
       <c r="D63" t="s">
-        <v>52</v>
+        <v>302</v>
       </c>
       <c r="E63" t="s">
-        <v>53</v>
+        <v>303</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -5023,25 +5329,25 @@
         <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>320</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>321</v>
       </c>
       <c r="E64" t="s">
-        <v>67</v>
+        <v>732</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G64" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -5049,25 +5355,25 @@
         <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>334</v>
       </c>
       <c r="D65" t="s">
-        <v>93</v>
+        <v>335</v>
       </c>
       <c r="E65" t="s">
-        <v>721</v>
+        <v>336</v>
       </c>
       <c r="F65" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s">
         <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -5075,16 +5381,16 @@
         <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>347</v>
       </c>
       <c r="D66" t="s">
-        <v>153</v>
+        <v>352</v>
       </c>
       <c r="E66" t="s">
-        <v>154</v>
+        <v>353</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5101,25 +5407,25 @@
         <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>530</v>
       </c>
       <c r="D67" t="s">
-        <v>186</v>
+        <v>531</v>
       </c>
       <c r="E67" t="s">
-        <v>187</v>
+        <v>532</v>
       </c>
       <c r="F67" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G67" t="s">
         <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -5127,16 +5433,16 @@
         <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
+        <v>549</v>
       </c>
       <c r="D68" t="s">
-        <v>191</v>
+        <v>552</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
+        <v>553</v>
       </c>
       <c r="F68" t="s">
         <v>5</v>
@@ -5145,7 +5451,7 @@
         <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -5153,19 +5459,19 @@
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C69" t="s">
-        <v>238</v>
+        <v>655</v>
       </c>
       <c r="D69" t="s">
-        <v>239</v>
+        <v>656</v>
       </c>
       <c r="E69" t="s">
-        <v>240</v>
+        <v>657</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G69" t="s">
         <v>14</v>
@@ -5182,16 +5488,16 @@
         <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>256</v>
+        <v>28</v>
       </c>
       <c r="E70" t="s">
-        <v>257</v>
+        <v>29</v>
       </c>
       <c r="F70" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
         <v>14</v>
@@ -5208,22 +5514,22 @@
         <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>299</v>
+        <v>51</v>
       </c>
       <c r="D71" t="s">
-        <v>304</v>
+        <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>305</v>
+        <v>53</v>
       </c>
       <c r="F71" t="s">
         <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -5234,22 +5540,22 @@
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>347</v>
+        <v>65</v>
       </c>
       <c r="D72" t="s">
-        <v>734</v>
+        <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>735</v>
+        <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -5260,22 +5566,22 @@
         <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>372</v>
+        <v>88</v>
       </c>
       <c r="D73" t="s">
-        <v>373</v>
+        <v>93</v>
       </c>
       <c r="E73" t="s">
-        <v>374</v>
+        <v>720</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G73" t="s">
         <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -5286,16 +5592,16 @@
         <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>375</v>
+        <v>148</v>
       </c>
       <c r="D74" t="s">
-        <v>376</v>
+        <v>153</v>
       </c>
       <c r="E74" t="s">
-        <v>377</v>
+        <v>154</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G74" t="s">
         <v>14</v>
@@ -5312,16 +5618,16 @@
         <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>380</v>
+        <v>185</v>
       </c>
       <c r="D75" t="s">
-        <v>381</v>
+        <v>186</v>
       </c>
       <c r="E75" t="s">
-        <v>382</v>
+        <v>187</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G75" t="s">
         <v>14</v>
@@ -5338,16 +5644,16 @@
         <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>383</v>
+        <v>190</v>
       </c>
       <c r="D76" t="s">
-        <v>384</v>
+        <v>191</v>
       </c>
       <c r="E76" t="s">
-        <v>385</v>
+        <v>187</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G76" t="s">
         <v>14</v>
@@ -5364,16 +5670,16 @@
         <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>388</v>
+        <v>238</v>
       </c>
       <c r="D77" t="s">
-        <v>736</v>
+        <v>239</v>
       </c>
       <c r="E77" t="s">
-        <v>737</v>
+        <v>240</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
         <v>14</v>
@@ -5390,16 +5696,16 @@
         <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>409</v>
+        <v>255</v>
       </c>
       <c r="D78" t="s">
-        <v>412</v>
+        <v>256</v>
       </c>
       <c r="E78" t="s">
-        <v>413</v>
+        <v>257</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G78" t="s">
         <v>14</v>
@@ -5416,16 +5722,16 @@
         <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>426</v>
+        <v>299</v>
       </c>
       <c r="D79" t="s">
-        <v>429</v>
+        <v>304</v>
       </c>
       <c r="E79" t="s">
-        <v>430</v>
+        <v>305</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
         <v>14</v>
@@ -5442,13 +5748,13 @@
         <v>26</v>
       </c>
       <c r="C80" t="s">
-        <v>474</v>
+        <v>347</v>
       </c>
       <c r="D80" t="s">
-        <v>477</v>
+        <v>733</v>
       </c>
       <c r="E80" t="s">
-        <v>478</v>
+        <v>734</v>
       </c>
       <c r="F80" t="s">
         <v>14</v>
@@ -5468,13 +5774,13 @@
         <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>530</v>
+        <v>372</v>
       </c>
       <c r="D81" t="s">
-        <v>533</v>
+        <v>373</v>
       </c>
       <c r="E81" t="s">
-        <v>534</v>
+        <v>374</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -5483,7 +5789,7 @@
         <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -5494,22 +5800,22 @@
         <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>621</v>
+        <v>375</v>
       </c>
       <c r="D82" t="s">
-        <v>622</v>
+        <v>376</v>
       </c>
       <c r="E82" t="s">
-        <v>623</v>
+        <v>377</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -5517,19 +5823,19 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>817</v>
       </c>
       <c r="D83" t="s">
-        <v>31</v>
+        <v>818</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>819</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G83" t="s">
         <v>14</v>
@@ -5543,25 +5849,25 @@
         <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="D84" t="s">
-        <v>68</v>
+        <v>381</v>
       </c>
       <c r="E84" t="s">
-        <v>69</v>
+        <v>382</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -5569,25 +5875,25 @@
         <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>76</v>
+        <v>820</v>
       </c>
       <c r="D85" t="s">
-        <v>77</v>
+        <v>821</v>
       </c>
       <c r="E85" t="s">
-        <v>69</v>
+        <v>822</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -5595,19 +5901,19 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>78</v>
+        <v>383</v>
       </c>
       <c r="D86" t="s">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>385</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
         <v>14</v>
@@ -5621,25 +5927,25 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>88</v>
+        <v>388</v>
       </c>
       <c r="D87" t="s">
-        <v>94</v>
+        <v>735</v>
       </c>
       <c r="E87" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="F87" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G87" t="s">
         <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -5647,25 +5953,25 @@
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C88" t="s">
-        <v>170</v>
+        <v>409</v>
       </c>
       <c r="D88" t="s">
-        <v>174</v>
+        <v>412</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>413</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G88" t="s">
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -5673,19 +5979,19 @@
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>207</v>
+        <v>426</v>
       </c>
       <c r="D89" t="s">
-        <v>210</v>
+        <v>429</v>
       </c>
       <c r="E89" t="s">
-        <v>211</v>
+        <v>430</v>
       </c>
       <c r="F89" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
         <v>14</v>
@@ -5699,19 +6005,19 @@
         <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>255</v>
+        <v>467</v>
       </c>
       <c r="D90" t="s">
-        <v>258</v>
+        <v>823</v>
       </c>
       <c r="E90" t="s">
-        <v>259</v>
+        <v>824</v>
       </c>
       <c r="F90" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G90" t="s">
         <v>14</v>
@@ -5725,16 +6031,16 @@
         <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>281</v>
+        <v>474</v>
       </c>
       <c r="D91" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="E91" t="s">
-        <v>283</v>
+        <v>478</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -5743,7 +6049,7 @@
         <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -5751,16 +6057,16 @@
         <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>293</v>
+        <v>483</v>
       </c>
       <c r="D92" t="s">
-        <v>294</v>
+        <v>825</v>
       </c>
       <c r="E92" t="s">
-        <v>295</v>
+        <v>826</v>
       </c>
       <c r="F92" t="s">
         <v>5</v>
@@ -5777,25 +6083,25 @@
         <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>299</v>
+        <v>530</v>
       </c>
       <c r="D93" t="s">
-        <v>306</v>
+        <v>533</v>
       </c>
       <c r="E93" t="s">
-        <v>307</v>
+        <v>534</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G93" t="s">
         <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -5803,25 +6109,25 @@
         <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>347</v>
+        <v>620</v>
       </c>
       <c r="D94" t="s">
-        <v>354</v>
+        <v>621</v>
       </c>
       <c r="E94" t="s">
-        <v>355</v>
+        <v>622</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -5832,16 +6138,16 @@
         <v>30</v>
       </c>
       <c r="C95" t="s">
-        <v>375</v>
+        <v>27</v>
       </c>
       <c r="D95" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="E95" t="s">
-        <v>379</v>
+        <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
         <v>14</v>
@@ -5858,22 +6164,22 @@
         <v>30</v>
       </c>
       <c r="C96" t="s">
-        <v>388</v>
+        <v>65</v>
       </c>
       <c r="D96" t="s">
-        <v>395</v>
+        <v>68</v>
       </c>
       <c r="E96" t="s">
-        <v>396</v>
+        <v>69</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -5884,22 +6190,22 @@
         <v>30</v>
       </c>
       <c r="C97" t="s">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="D97" t="s">
-        <v>416</v>
+        <v>77</v>
       </c>
       <c r="E97" t="s">
-        <v>417</v>
+        <v>69</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -5910,16 +6216,16 @@
         <v>30</v>
       </c>
       <c r="C98" t="s">
-        <v>426</v>
+        <v>78</v>
       </c>
       <c r="D98" t="s">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="E98" t="s">
-        <v>432</v>
+        <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
         <v>14</v>
@@ -5936,22 +6242,22 @@
         <v>30</v>
       </c>
       <c r="C99" t="s">
-        <v>441</v>
+        <v>88</v>
       </c>
       <c r="D99" t="s">
-        <v>444</v>
+        <v>94</v>
       </c>
       <c r="E99" t="s">
-        <v>445</v>
+        <v>721</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G99" t="s">
         <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -5962,22 +6268,22 @@
         <v>30</v>
       </c>
       <c r="C100" t="s">
-        <v>454</v>
+        <v>170</v>
       </c>
       <c r="D100" t="s">
-        <v>457</v>
+        <v>174</v>
       </c>
       <c r="E100" t="s">
-        <v>458</v>
+        <v>175</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -5988,16 +6294,16 @@
         <v>30</v>
       </c>
       <c r="C101" t="s">
-        <v>467</v>
+        <v>207</v>
       </c>
       <c r="D101" t="s">
-        <v>468</v>
+        <v>210</v>
       </c>
       <c r="E101" t="s">
-        <v>469</v>
+        <v>211</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G101" t="s">
         <v>14</v>
@@ -6014,22 +6320,22 @@
         <v>30</v>
       </c>
       <c r="C102" t="s">
-        <v>530</v>
+        <v>255</v>
       </c>
       <c r="D102" t="s">
-        <v>535</v>
+        <v>258</v>
       </c>
       <c r="E102" t="s">
-        <v>536</v>
+        <v>259</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G102" t="s">
         <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -6040,13 +6346,13 @@
         <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>549</v>
+        <v>281</v>
       </c>
       <c r="D103" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="E103" t="s">
-        <v>555</v>
+        <v>283</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
@@ -6055,7 +6361,7 @@
         <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -6066,22 +6372,22 @@
         <v>30</v>
       </c>
       <c r="C104" t="s">
-        <v>738</v>
+        <v>293</v>
       </c>
       <c r="D104" t="s">
-        <v>739</v>
+        <v>294</v>
       </c>
       <c r="E104" t="s">
-        <v>536</v>
+        <v>295</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G104" t="s">
         <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -6089,25 +6395,25 @@
         <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C105" t="s">
-        <v>88</v>
+        <v>299</v>
       </c>
       <c r="D105" t="s">
-        <v>96</v>
+        <v>306</v>
       </c>
       <c r="E105" t="s">
-        <v>740</v>
+        <v>307</v>
       </c>
       <c r="F105" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
         <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -6115,19 +6421,19 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>344</v>
       </c>
       <c r="D106" t="s">
-        <v>127</v>
+        <v>827</v>
       </c>
       <c r="E106" t="s">
-        <v>128</v>
+        <v>828</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G106" t="s">
         <v>14</v>
@@ -6141,25 +6447,25 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C107" t="s">
-        <v>727</v>
+        <v>347</v>
       </c>
       <c r="D107" t="s">
-        <v>741</v>
+        <v>354</v>
       </c>
       <c r="E107" t="s">
-        <v>742</v>
+        <v>355</v>
       </c>
       <c r="F107" t="s">
-        <v>729</v>
+        <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>730</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -6167,19 +6473,19 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C108" t="s">
-        <v>299</v>
+        <v>375</v>
       </c>
       <c r="D108" t="s">
-        <v>743</v>
+        <v>378</v>
       </c>
       <c r="E108" t="s">
-        <v>744</v>
+        <v>379</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G108" t="s">
         <v>14</v>
@@ -6193,25 +6499,25 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C109" t="s">
-        <v>320</v>
+        <v>388</v>
       </c>
       <c r="D109" t="s">
-        <v>322</v>
+        <v>395</v>
       </c>
       <c r="E109" t="s">
-        <v>323</v>
+        <v>396</v>
       </c>
       <c r="F109" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G109" t="s">
         <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -6219,16 +6525,16 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C110" t="s">
-        <v>347</v>
+        <v>409</v>
       </c>
       <c r="D110" t="s">
-        <v>356</v>
+        <v>416</v>
       </c>
       <c r="E110" t="s">
-        <v>357</v>
+        <v>417</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -6245,16 +6551,16 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C111" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="D111" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="E111" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -6271,16 +6577,16 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C112" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="D112" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="E112" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="F112" t="s">
         <v>14</v>
@@ -6297,16 +6603,16 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C113" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="D113" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="E113" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="F113" t="s">
         <v>14</v>
@@ -6323,16 +6629,16 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C114" t="s">
-        <v>530</v>
+        <v>467</v>
       </c>
       <c r="D114" t="s">
-        <v>537</v>
+        <v>468</v>
       </c>
       <c r="E114" t="s">
-        <v>538</v>
+        <v>469</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
@@ -6341,7 +6647,7 @@
         <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -6349,16 +6655,16 @@
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C115" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="D115" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="E115" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="F115" t="s">
         <v>14</v>
@@ -6375,16 +6681,16 @@
         <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C116" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="D116" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="E116" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="F116" t="s">
         <v>14</v>
@@ -6401,16 +6707,16 @@
         <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C117" t="s">
-        <v>578</v>
+        <v>737</v>
       </c>
       <c r="D117" t="s">
-        <v>579</v>
+        <v>738</v>
       </c>
       <c r="E117" t="s">
-        <v>580</v>
+        <v>536</v>
       </c>
       <c r="F117" t="s">
         <v>14</v>
@@ -6427,25 +6733,25 @@
         <v>21</v>
       </c>
       <c r="B118" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C118" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D118" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E118" t="s">
-        <v>72</v>
+        <v>739</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G118" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -6453,25 +6759,25 @@
         <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C119" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="D119" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="E119" t="s">
-        <v>723</v>
+        <v>128</v>
       </c>
       <c r="F119" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
         <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -6479,25 +6785,25 @@
         <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C120" t="s">
-        <v>124</v>
+        <v>726</v>
       </c>
       <c r="D120" t="s">
-        <v>129</v>
+        <v>740</v>
       </c>
       <c r="E120" t="s">
-        <v>130</v>
+        <v>741</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>728</v>
       </c>
       <c r="G120" t="s">
-        <v>14</v>
+        <v>729</v>
       </c>
       <c r="H120" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -6505,19 +6811,19 @@
         <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C121" t="s">
-        <v>148</v>
+        <v>299</v>
       </c>
       <c r="D121" t="s">
-        <v>155</v>
+        <v>742</v>
       </c>
       <c r="E121" t="s">
-        <v>156</v>
+        <v>743</v>
       </c>
       <c r="F121" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
         <v>14</v>
@@ -6531,19 +6837,19 @@
         <v>21</v>
       </c>
       <c r="B122" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C122" t="s">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="D122" t="s">
-        <v>176</v>
+        <v>322</v>
       </c>
       <c r="E122" t="s">
-        <v>177</v>
+        <v>323</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G122" t="s">
         <v>14</v>
@@ -6557,19 +6863,19 @@
         <v>21</v>
       </c>
       <c r="B123" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C123" t="s">
-        <v>185</v>
+        <v>347</v>
       </c>
       <c r="D123" t="s">
-        <v>188</v>
+        <v>356</v>
       </c>
       <c r="E123" t="s">
-        <v>189</v>
+        <v>357</v>
       </c>
       <c r="F123" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G123" t="s">
         <v>14</v>
@@ -6583,19 +6889,19 @@
         <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C124" t="s">
-        <v>221</v>
+        <v>388</v>
       </c>
       <c r="D124" t="s">
-        <v>224</v>
+        <v>397</v>
       </c>
       <c r="E124" t="s">
-        <v>225</v>
+        <v>398</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G124" t="s">
         <v>14</v>
@@ -6609,19 +6915,19 @@
         <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C125" t="s">
-        <v>229</v>
+        <v>426</v>
       </c>
       <c r="D125" t="s">
-        <v>232</v>
+        <v>433</v>
       </c>
       <c r="E125" t="s">
-        <v>233</v>
+        <v>434</v>
       </c>
       <c r="F125" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G125" t="s">
         <v>14</v>
@@ -6635,19 +6941,19 @@
         <v>21</v>
       </c>
       <c r="B126" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C126" t="s">
-        <v>255</v>
+        <v>441</v>
       </c>
       <c r="D126" t="s">
-        <v>260</v>
+        <v>446</v>
       </c>
       <c r="E126" t="s">
-        <v>261</v>
+        <v>447</v>
       </c>
       <c r="F126" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G126" t="s">
         <v>14</v>
@@ -6661,25 +6967,25 @@
         <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C127" t="s">
-        <v>299</v>
+        <v>530</v>
       </c>
       <c r="D127" t="s">
-        <v>308</v>
+        <v>537</v>
       </c>
       <c r="E127" t="s">
-        <v>309</v>
+        <v>538</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G127" t="s">
         <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -6687,19 +6993,19 @@
         <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C128" t="s">
-        <v>320</v>
+        <v>549</v>
       </c>
       <c r="D128" t="s">
-        <v>324</v>
+        <v>556</v>
       </c>
       <c r="E128" t="s">
-        <v>325</v>
+        <v>557</v>
       </c>
       <c r="F128" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G128" t="s">
         <v>14</v>
@@ -6713,19 +7019,19 @@
         <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C129" t="s">
-        <v>329</v>
+        <v>568</v>
       </c>
       <c r="D129" t="s">
-        <v>330</v>
+        <v>569</v>
       </c>
       <c r="E129" t="s">
-        <v>331</v>
+        <v>570</v>
       </c>
       <c r="F129" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G129" t="s">
         <v>14</v>
@@ -6739,16 +7045,16 @@
         <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C130" t="s">
-        <v>347</v>
+        <v>575</v>
       </c>
       <c r="D130" t="s">
-        <v>358</v>
+        <v>829</v>
       </c>
       <c r="E130" t="s">
-        <v>359</v>
+        <v>830</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -6757,7 +7063,7 @@
         <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -6765,16 +7071,16 @@
         <v>21</v>
       </c>
       <c r="B131" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C131" t="s">
-        <v>388</v>
+        <v>578</v>
       </c>
       <c r="D131" t="s">
-        <v>399</v>
+        <v>579</v>
       </c>
       <c r="E131" t="s">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -6783,7 +7089,7 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -6794,22 +7100,22 @@
         <v>70</v>
       </c>
       <c r="C132" t="s">
-        <v>530</v>
+        <v>65</v>
       </c>
       <c r="D132" t="s">
-        <v>539</v>
+        <v>71</v>
       </c>
       <c r="E132" t="s">
-        <v>540</v>
+        <v>72</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H132" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -6820,13 +7126,13 @@
         <v>70</v>
       </c>
       <c r="C133" t="s">
-        <v>549</v>
+        <v>88</v>
       </c>
       <c r="D133" t="s">
-        <v>558</v>
+        <v>97</v>
       </c>
       <c r="E133" t="s">
-        <v>559</v>
+        <v>722</v>
       </c>
       <c r="F133" t="s">
         <v>5</v>
@@ -6846,22 +7152,22 @@
         <v>70</v>
       </c>
       <c r="C134" t="s">
-        <v>568</v>
+        <v>124</v>
       </c>
       <c r="D134" t="s">
-        <v>571</v>
+        <v>129</v>
       </c>
       <c r="E134" t="s">
-        <v>572</v>
+        <v>130</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
         <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -6872,22 +7178,22 @@
         <v>70</v>
       </c>
       <c r="C135" t="s">
-        <v>745</v>
+        <v>148</v>
       </c>
       <c r="D135" t="s">
-        <v>746</v>
+        <v>155</v>
       </c>
       <c r="E135" t="s">
-        <v>747</v>
+        <v>156</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G135" t="s">
         <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -6898,22 +7204,22 @@
         <v>70</v>
       </c>
       <c r="C136" t="s">
-        <v>660</v>
+        <v>170</v>
       </c>
       <c r="D136" t="s">
-        <v>661</v>
+        <v>176</v>
       </c>
       <c r="E136" t="s">
-        <v>662</v>
+        <v>177</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
         <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -6921,25 +7227,25 @@
         <v>21</v>
       </c>
       <c r="B137" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D137" t="s">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="E137" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G137" t="s">
         <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -6947,25 +7253,25 @@
         <v>21</v>
       </c>
       <c r="B138" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C138" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="D138" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="E138" t="s">
-        <v>724</v>
+        <v>225</v>
       </c>
       <c r="F138" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
         <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -6973,19 +7279,19 @@
         <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C139" t="s">
-        <v>136</v>
+        <v>229</v>
       </c>
       <c r="D139" t="s">
-        <v>137</v>
+        <v>232</v>
       </c>
       <c r="E139" t="s">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G139" t="s">
         <v>14</v>
@@ -6999,25 +7305,25 @@
         <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C140" t="s">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="D140" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="E140" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G140" t="s">
         <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -7025,19 +7331,19 @@
         <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C141" t="s">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="D141" t="s">
-        <v>202</v>
+        <v>308</v>
       </c>
       <c r="E141" t="s">
-        <v>203</v>
+        <v>309</v>
       </c>
       <c r="F141" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
         <v>14</v>
@@ -7051,16 +7357,16 @@
         <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C142" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="D142" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="E142" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="F142" t="s">
         <v>5</v>
@@ -7077,16 +7383,16 @@
         <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C143" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="D143" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="E143" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="F143" t="s">
         <v>5</v>
@@ -7095,7 +7401,7 @@
         <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -7103,25 +7409,25 @@
         <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C144" t="s">
-        <v>320</v>
+        <v>831</v>
       </c>
       <c r="D144" t="s">
-        <v>326</v>
+        <v>832</v>
       </c>
       <c r="E144" t="s">
-        <v>327</v>
+        <v>833</v>
       </c>
       <c r="F144" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G144" t="s">
         <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -7129,16 +7435,16 @@
         <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C145" t="s">
-        <v>344</v>
+        <v>834</v>
       </c>
       <c r="D145" t="s">
-        <v>345</v>
+        <v>835</v>
       </c>
       <c r="E145" t="s">
-        <v>346</v>
+        <v>836</v>
       </c>
       <c r="F145" t="s">
         <v>14</v>
@@ -7147,7 +7453,7 @@
         <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -7155,19 +7461,19 @@
         <v>21</v>
       </c>
       <c r="B146" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C146" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="D146" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="E146" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="F146" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G146" t="s">
         <v>14</v>
@@ -7181,16 +7487,16 @@
         <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C147" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D147" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="E147" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -7207,16 +7513,16 @@
         <v>21</v>
       </c>
       <c r="B148" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C148" t="s">
-        <v>441</v>
+        <v>530</v>
       </c>
       <c r="D148" t="s">
-        <v>450</v>
+        <v>539</v>
       </c>
       <c r="E148" t="s">
-        <v>451</v>
+        <v>540</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -7225,7 +7531,7 @@
         <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -7233,25 +7539,25 @@
         <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C149" t="s">
-        <v>454</v>
+        <v>549</v>
       </c>
       <c r="D149" t="s">
-        <v>463</v>
+        <v>558</v>
       </c>
       <c r="E149" t="s">
-        <v>464</v>
+        <v>559</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G149" t="s">
         <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -7259,16 +7565,16 @@
         <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C150" t="s">
-        <v>467</v>
+        <v>568</v>
       </c>
       <c r="D150" t="s">
-        <v>470</v>
+        <v>571</v>
       </c>
       <c r="E150" t="s">
-        <v>471</v>
+        <v>572</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
@@ -7277,7 +7583,7 @@
         <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -7285,25 +7591,25 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C151" t="s">
-        <v>474</v>
+        <v>575</v>
       </c>
       <c r="D151" t="s">
-        <v>479</v>
+        <v>837</v>
       </c>
       <c r="E151" t="s">
-        <v>480</v>
+        <v>838</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G151" t="s">
         <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -7311,16 +7617,16 @@
         <v>21</v>
       </c>
       <c r="B152" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C152" t="s">
-        <v>483</v>
+        <v>744</v>
       </c>
       <c r="D152" t="s">
-        <v>484</v>
+        <v>745</v>
       </c>
       <c r="E152" t="s">
-        <v>485</v>
+        <v>746</v>
       </c>
       <c r="F152" t="s">
         <v>14</v>
@@ -7329,7 +7635,7 @@
         <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -7337,16 +7643,16 @@
         <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C153" t="s">
-        <v>530</v>
+        <v>659</v>
       </c>
       <c r="D153" t="s">
-        <v>543</v>
+        <v>660</v>
       </c>
       <c r="E153" t="s">
-        <v>544</v>
+        <v>661</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
@@ -7355,7 +7661,7 @@
         <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -7366,13 +7672,13 @@
         <v>22</v>
       </c>
       <c r="C154" t="s">
-        <v>583</v>
+        <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>586</v>
+        <v>24</v>
       </c>
       <c r="E154" t="s">
-        <v>587</v>
+        <v>25</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -7381,7 +7687,7 @@
         <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -7392,22 +7698,22 @@
         <v>22</v>
       </c>
       <c r="C155" t="s">
-        <v>615</v>
+        <v>88</v>
       </c>
       <c r="D155" t="s">
-        <v>616</v>
+        <v>98</v>
       </c>
       <c r="E155" t="s">
-        <v>617</v>
+        <v>723</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G155" t="s">
         <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -7415,25 +7721,25 @@
         <v>21</v>
       </c>
       <c r="B156" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C156" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="D156" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="E156" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="F156" t="s">
         <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -7441,25 +7747,25 @@
         <v>21</v>
       </c>
       <c r="B157" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C157" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D157" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="E157" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G157" t="s">
         <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -7467,16 +7773,16 @@
         <v>21</v>
       </c>
       <c r="B158" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C158" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="D158" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="E158" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F158" t="s">
         <v>5</v>
@@ -7493,25 +7799,25 @@
         <v>21</v>
       </c>
       <c r="B159" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C159" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D159" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G159" t="s">
         <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -7519,16 +7825,16 @@
         <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C160" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D160" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E160" t="s">
-        <v>748</v>
+        <v>319</v>
       </c>
       <c r="F160" t="s">
         <v>5</v>
@@ -7537,7 +7843,7 @@
         <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -7545,25 +7851,25 @@
         <v>21</v>
       </c>
       <c r="B161" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C161" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="D161" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="E161" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G161" t="s">
         <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -7571,16 +7877,16 @@
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C162" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="D162" t="s">
-        <v>405</v>
+        <v>345</v>
       </c>
       <c r="E162" t="s">
-        <v>406</v>
+        <v>346</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -7597,45 +7903,45 @@
         <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C163" t="s">
-        <v>530</v>
+        <v>388</v>
       </c>
       <c r="D163" t="s">
-        <v>545</v>
+        <v>403</v>
       </c>
       <c r="E163" t="s">
-        <v>546</v>
+        <v>404</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G163" t="s">
         <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C164" t="s">
-        <v>121</v>
+        <v>409</v>
       </c>
       <c r="D164" t="s">
-        <v>122</v>
+        <v>422</v>
       </c>
       <c r="E164" t="s">
-        <v>123</v>
+        <v>423</v>
       </c>
       <c r="F164" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G164" t="s">
         <v>14</v>
@@ -7646,22 +7952,22 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C165" t="s">
-        <v>148</v>
+        <v>441</v>
       </c>
       <c r="D165" t="s">
-        <v>149</v>
+        <v>450</v>
       </c>
       <c r="E165" t="s">
-        <v>150</v>
+        <v>451</v>
       </c>
       <c r="F165" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G165" t="s">
         <v>14</v>
@@ -7672,22 +7978,22 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C166" t="s">
-        <v>199</v>
+        <v>454</v>
       </c>
       <c r="D166" t="s">
-        <v>200</v>
+        <v>463</v>
       </c>
       <c r="E166" t="s">
-        <v>201</v>
+        <v>464</v>
       </c>
       <c r="F166" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G166" t="s">
         <v>14</v>
@@ -7698,22 +8004,22 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C167" t="s">
-        <v>212</v>
+        <v>467</v>
       </c>
       <c r="D167" t="s">
-        <v>213</v>
+        <v>470</v>
       </c>
       <c r="E167" t="s">
-        <v>214</v>
+        <v>471</v>
       </c>
       <c r="F167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G167" t="s">
         <v>14</v>
@@ -7724,22 +8030,22 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C168" t="s">
-        <v>229</v>
+        <v>474</v>
       </c>
       <c r="D168" t="s">
-        <v>230</v>
+        <v>479</v>
       </c>
       <c r="E168" t="s">
-        <v>231</v>
+        <v>480</v>
       </c>
       <c r="F168" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G168" t="s">
         <v>14</v>
@@ -7750,22 +8056,22 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B169" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C169" t="s">
-        <v>244</v>
+        <v>483</v>
       </c>
       <c r="D169" t="s">
-        <v>245</v>
+        <v>484</v>
       </c>
       <c r="E169" t="s">
-        <v>246</v>
+        <v>485</v>
       </c>
       <c r="F169" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G169" t="s">
         <v>14</v>
@@ -7776,19 +8082,19 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B170" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C170" t="s">
-        <v>284</v>
+        <v>530</v>
       </c>
       <c r="D170" t="s">
-        <v>285</v>
+        <v>543</v>
       </c>
       <c r="E170" t="s">
-        <v>286</v>
+        <v>544</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
@@ -7797,27 +8103,27 @@
         <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B171" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C171" t="s">
-        <v>314</v>
+        <v>583</v>
       </c>
       <c r="D171" t="s">
-        <v>315</v>
+        <v>586</v>
       </c>
       <c r="E171" t="s">
-        <v>316</v>
+        <v>587</v>
       </c>
       <c r="F171" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G171" t="s">
         <v>14</v>
@@ -7828,19 +8134,19 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C172" t="s">
-        <v>347</v>
+        <v>614</v>
       </c>
       <c r="D172" t="s">
-        <v>348</v>
+        <v>615</v>
       </c>
       <c r="E172" t="s">
-        <v>349</v>
+        <v>616</v>
       </c>
       <c r="F172" t="s">
         <v>14</v>
@@ -7854,48 +8160,48 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B173" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="C173" t="s">
-        <v>388</v>
+        <v>65</v>
       </c>
       <c r="D173" t="s">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="E173" t="s">
-        <v>390</v>
+        <v>75</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H173" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B174" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="C174" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="D174" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E174" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F174" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G174" t="s">
         <v>14</v>
@@ -7906,22 +8212,22 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B175" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="C175" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="D175" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="E175" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="F175" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G175" t="s">
         <v>14</v>
@@ -7932,22 +8238,22 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B176" t="s">
-        <v>627</v>
+        <v>73</v>
       </c>
       <c r="C176" t="s">
-        <v>142</v>
+        <v>299</v>
       </c>
       <c r="D176" t="s">
-        <v>749</v>
+        <v>310</v>
       </c>
       <c r="E176" t="s">
-        <v>750</v>
+        <v>311</v>
       </c>
       <c r="F176" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G176" t="s">
         <v>14</v>
@@ -7958,19 +8264,19 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B177" t="s">
-        <v>627</v>
+        <v>73</v>
       </c>
       <c r="C177" t="s">
-        <v>751</v>
+        <v>320</v>
       </c>
       <c r="D177" t="s">
-        <v>752</v>
+        <v>328</v>
       </c>
       <c r="E177" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F177" t="s">
         <v>5</v>
@@ -7979,27 +8285,27 @@
         <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B178" t="s">
-        <v>627</v>
+        <v>73</v>
       </c>
       <c r="C178" t="s">
-        <v>754</v>
+        <v>347</v>
       </c>
       <c r="D178" t="s">
-        <v>755</v>
+        <v>364</v>
       </c>
       <c r="E178" t="s">
-        <v>756</v>
+        <v>365</v>
       </c>
       <c r="F178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G178" t="s">
         <v>14</v>
@@ -8010,22 +8316,22 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B179" t="s">
-        <v>627</v>
+        <v>73</v>
       </c>
       <c r="C179" t="s">
-        <v>757</v>
+        <v>388</v>
       </c>
       <c r="D179" t="s">
-        <v>758</v>
+        <v>405</v>
       </c>
       <c r="E179" t="s">
-        <v>759</v>
+        <v>406</v>
       </c>
       <c r="F179" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G179" t="s">
         <v>14</v>
@@ -8036,19 +8342,19 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B180" t="s">
-        <v>627</v>
+        <v>73</v>
       </c>
       <c r="C180" t="s">
-        <v>760</v>
+        <v>530</v>
       </c>
       <c r="D180" t="s">
-        <v>761</v>
+        <v>545</v>
       </c>
       <c r="E180" t="s">
-        <v>762</v>
+        <v>546</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
@@ -8057,53 +8363,53 @@
         <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B181" t="s">
-        <v>627</v>
+        <v>120</v>
       </c>
       <c r="C181" t="s">
-        <v>628</v>
+        <v>121</v>
       </c>
       <c r="D181" t="s">
-        <v>629</v>
+        <v>122</v>
       </c>
       <c r="E181" t="s">
-        <v>630</v>
+        <v>123</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G181" t="s">
         <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B182" t="s">
-        <v>627</v>
+        <v>120</v>
       </c>
       <c r="C182" t="s">
-        <v>634</v>
+        <v>148</v>
       </c>
       <c r="D182" t="s">
-        <v>635</v>
+        <v>149</v>
       </c>
       <c r="E182" t="s">
-        <v>636</v>
+        <v>150</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G182" t="s">
         <v>14</v>
@@ -8114,71 +8420,71 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B183" t="s">
-        <v>627</v>
+        <v>120</v>
       </c>
       <c r="C183" t="s">
-        <v>640</v>
+        <v>199</v>
       </c>
       <c r="D183" t="s">
-        <v>641</v>
+        <v>200</v>
       </c>
       <c r="E183" t="s">
-        <v>642</v>
+        <v>201</v>
       </c>
       <c r="F183" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G183" t="s">
         <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B184" t="s">
-        <v>627</v>
+        <v>120</v>
       </c>
       <c r="C184" t="s">
-        <v>648</v>
+        <v>212</v>
       </c>
       <c r="D184" t="s">
-        <v>649</v>
+        <v>213</v>
       </c>
       <c r="E184" t="s">
-        <v>650</v>
+        <v>214</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G184" t="s">
         <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B185" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C185" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="D185" t="s">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="E185" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="F185" t="s">
         <v>5</v>
@@ -8192,45 +8498,45 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B186" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C186" t="s">
-        <v>727</v>
+        <v>244</v>
       </c>
       <c r="D186" t="s">
-        <v>763</v>
+        <v>245</v>
       </c>
       <c r="E186" t="s">
-        <v>764</v>
+        <v>246</v>
       </c>
       <c r="F186" t="s">
-        <v>729</v>
+        <v>5</v>
       </c>
       <c r="G186" t="s">
-        <v>730</v>
+        <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B187" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C187" t="s">
-        <v>609</v>
+        <v>284</v>
       </c>
       <c r="D187" t="s">
-        <v>610</v>
+        <v>285</v>
       </c>
       <c r="E187" t="s">
-        <v>765</v>
+        <v>286</v>
       </c>
       <c r="F187" t="s">
         <v>14</v>
@@ -8239,50 +8545,50 @@
         <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B188" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C188" t="s">
-        <v>631</v>
+        <v>314</v>
       </c>
       <c r="D188" t="s">
-        <v>632</v>
+        <v>315</v>
       </c>
       <c r="E188" t="s">
-        <v>633</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>13</v>
+        <v>316</v>
+      </c>
+      <c r="F188" t="s">
+        <v>5</v>
       </c>
       <c r="G188" t="s">
         <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B189" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C189" t="s">
-        <v>646</v>
+        <v>347</v>
       </c>
       <c r="D189" t="s">
-        <v>647</v>
+        <v>348</v>
       </c>
       <c r="E189" t="s">
-        <v>611</v>
+        <v>349</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
@@ -8296,22 +8602,22 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B190" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C190" t="s">
-        <v>142</v>
+        <v>388</v>
       </c>
       <c r="D190" t="s">
-        <v>146</v>
+        <v>389</v>
       </c>
       <c r="E190" t="s">
-        <v>147</v>
+        <v>390</v>
       </c>
       <c r="F190" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G190" t="s">
         <v>14</v>
@@ -8322,48 +8628,48 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B191" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C191" t="s">
-        <v>637</v>
+        <v>148</v>
       </c>
       <c r="D191" t="s">
-        <v>638</v>
+        <v>151</v>
       </c>
       <c r="E191" t="s">
-        <v>639</v>
+        <v>152</v>
       </c>
       <c r="F191" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G191" t="s">
         <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B192" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C192" t="s">
-        <v>714</v>
+        <v>193</v>
       </c>
       <c r="D192" t="s">
-        <v>715</v>
+        <v>194</v>
       </c>
       <c r="E192" t="s">
-        <v>716</v>
+        <v>195</v>
       </c>
       <c r="F192" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G192" t="s">
         <v>14</v>
@@ -8374,19 +8680,19 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B193" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C193" t="s">
-        <v>717</v>
+        <v>839</v>
       </c>
       <c r="D193" t="s">
-        <v>718</v>
+        <v>840</v>
       </c>
       <c r="E193" t="s">
-        <v>639</v>
+        <v>841</v>
       </c>
       <c r="F193" t="s">
         <v>14</v>
@@ -8395,7 +8701,7 @@
         <v>14</v>
       </c>
       <c r="H193" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -8403,25 +8709,25 @@
         <v>140</v>
       </c>
       <c r="B194" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="C194" t="s">
-        <v>640</v>
+        <v>142</v>
       </c>
       <c r="D194" t="s">
-        <v>643</v>
+        <v>748</v>
       </c>
       <c r="E194" t="s">
-        <v>645</v>
-      </c>
-      <c r="F194" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="F194" t="s">
         <v>5</v>
       </c>
       <c r="G194" t="s">
         <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -8429,25 +8735,25 @@
         <v>140</v>
       </c>
       <c r="B195" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="C195" t="s">
-        <v>648</v>
+        <v>750</v>
       </c>
       <c r="D195" t="s">
-        <v>651</v>
+        <v>751</v>
       </c>
       <c r="E195" t="s">
-        <v>652</v>
+        <v>752</v>
       </c>
       <c r="F195" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G195" t="s">
         <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -8455,42 +8761,42 @@
         <v>140</v>
       </c>
       <c r="B196" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="C196" t="s">
-        <v>719</v>
+        <v>753</v>
       </c>
       <c r="D196" t="s">
-        <v>720</v>
+        <v>754</v>
       </c>
       <c r="E196" t="s">
-        <v>644</v>
+        <v>755</v>
       </c>
       <c r="F196" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G196" t="s">
         <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B197" t="s">
-        <v>40</v>
+        <v>626</v>
       </c>
       <c r="C197" t="s">
-        <v>41</v>
+        <v>756</v>
       </c>
       <c r="D197" t="s">
-        <v>42</v>
+        <v>757</v>
       </c>
       <c r="E197" t="s">
-        <v>43</v>
+        <v>758</v>
       </c>
       <c r="F197" t="s">
         <v>5</v>
@@ -8499,76 +8805,76 @@
         <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B198" t="s">
-        <v>40</v>
+        <v>626</v>
       </c>
       <c r="C198" t="s">
-        <v>102</v>
+        <v>759</v>
       </c>
       <c r="D198" t="s">
-        <v>103</v>
+        <v>760</v>
       </c>
       <c r="E198" t="s">
-        <v>104</v>
+        <v>761</v>
       </c>
       <c r="F198" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G198" t="s">
         <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B199" t="s">
-        <v>40</v>
+        <v>626</v>
       </c>
       <c r="C199" t="s">
-        <v>111</v>
+        <v>627</v>
       </c>
       <c r="D199" t="s">
-        <v>112</v>
+        <v>628</v>
       </c>
       <c r="E199" t="s">
-        <v>113</v>
+        <v>629</v>
       </c>
       <c r="F199" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G199" t="s">
         <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B200" t="s">
-        <v>40</v>
+        <v>626</v>
       </c>
       <c r="C200" t="s">
-        <v>133</v>
+        <v>633</v>
       </c>
       <c r="D200" t="s">
-        <v>134</v>
+        <v>634</v>
       </c>
       <c r="E200" t="s">
-        <v>135</v>
+        <v>635</v>
       </c>
       <c r="F200" t="s">
         <v>14</v>
@@ -8582,22 +8888,22 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B201" t="s">
-        <v>40</v>
+        <v>626</v>
       </c>
       <c r="C201" t="s">
-        <v>180</v>
+        <v>639</v>
       </c>
       <c r="D201" t="s">
-        <v>181</v>
+        <v>640</v>
       </c>
       <c r="E201" t="s">
-        <v>182</v>
+        <v>641</v>
       </c>
       <c r="F201" t="s">
-        <v>729</v>
+        <v>14</v>
       </c>
       <c r="G201" t="s">
         <v>14</v>
@@ -8608,45 +8914,45 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B202" t="s">
-        <v>40</v>
+        <v>626</v>
       </c>
       <c r="C202" t="s">
-        <v>190</v>
+        <v>647</v>
       </c>
       <c r="D202" t="s">
-        <v>192</v>
+        <v>648</v>
       </c>
       <c r="E202" t="s">
-        <v>766</v>
+        <v>649</v>
       </c>
       <c r="F202" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G202" t="s">
         <v>14</v>
       </c>
       <c r="H202" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B203" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C203" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="D203" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="E203" t="s">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="F203" t="s">
         <v>5</v>
@@ -8660,73 +8966,73 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B204" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C204" t="s">
-        <v>255</v>
+        <v>726</v>
       </c>
       <c r="D204" t="s">
-        <v>262</v>
+        <v>762</v>
       </c>
       <c r="E204" t="s">
-        <v>263</v>
+        <v>763</v>
       </c>
       <c r="F204" t="s">
-        <v>5</v>
+        <v>728</v>
       </c>
       <c r="G204" t="s">
-        <v>14</v>
+        <v>729</v>
       </c>
       <c r="H204" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B205" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C205" t="s">
-        <v>767</v>
+        <v>608</v>
       </c>
       <c r="D205" t="s">
-        <v>768</v>
+        <v>609</v>
       </c>
       <c r="E205" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F205" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G205" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H205" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B206" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C206" t="s">
-        <v>290</v>
+        <v>630</v>
       </c>
       <c r="D206" t="s">
-        <v>770</v>
+        <v>631</v>
       </c>
       <c r="E206" t="s">
-        <v>771</v>
-      </c>
-      <c r="F206" t="s">
+        <v>632</v>
+      </c>
+      <c r="F206" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G206" t="s">
@@ -8738,19 +9044,19 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B207" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C207" t="s">
-        <v>772</v>
+        <v>645</v>
       </c>
       <c r="D207" t="s">
-        <v>773</v>
+        <v>646</v>
       </c>
       <c r="E207" t="s">
-        <v>774</v>
+        <v>610</v>
       </c>
       <c r="F207" t="s">
         <v>14</v>
@@ -8764,22 +9070,22 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B208" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="C208" t="s">
-        <v>347</v>
+        <v>142</v>
       </c>
       <c r="D208" t="s">
-        <v>360</v>
+        <v>146</v>
       </c>
       <c r="E208" t="s">
-        <v>361</v>
+        <v>147</v>
       </c>
       <c r="F208" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G208" t="s">
         <v>14</v>
@@ -8790,19 +9096,19 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B209" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="C209" t="s">
-        <v>386</v>
+        <v>636</v>
       </c>
       <c r="D209" t="s">
-        <v>387</v>
+        <v>637</v>
       </c>
       <c r="E209" t="s">
-        <v>775</v>
+        <v>638</v>
       </c>
       <c r="F209" t="s">
         <v>14</v>
@@ -8811,24 +9117,24 @@
         <v>14</v>
       </c>
       <c r="H209" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B210" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="C210" t="s">
-        <v>388</v>
+        <v>713</v>
       </c>
       <c r="D210" t="s">
-        <v>401</v>
+        <v>714</v>
       </c>
       <c r="E210" t="s">
-        <v>402</v>
+        <v>715</v>
       </c>
       <c r="F210" t="s">
         <v>14</v>
@@ -8842,19 +9148,19 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B211" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="C211" t="s">
-        <v>409</v>
+        <v>716</v>
       </c>
       <c r="D211" t="s">
-        <v>418</v>
+        <v>717</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>638</v>
       </c>
       <c r="F211" t="s">
         <v>14</v>
@@ -8863,24 +9169,24 @@
         <v>14</v>
       </c>
       <c r="H211" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B212" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="C212" t="s">
-        <v>441</v>
+        <v>842</v>
       </c>
       <c r="D212" t="s">
-        <v>448</v>
+        <v>843</v>
       </c>
       <c r="E212" t="s">
-        <v>449</v>
+        <v>844</v>
       </c>
       <c r="F212" t="s">
         <v>14</v>
@@ -8889,24 +9195,24 @@
         <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B213" t="s">
-        <v>40</v>
+        <v>607</v>
       </c>
       <c r="C213" t="s">
-        <v>454</v>
+        <v>845</v>
       </c>
       <c r="D213" t="s">
-        <v>459</v>
+        <v>846</v>
       </c>
       <c r="E213" t="s">
-        <v>460</v>
+        <v>847</v>
       </c>
       <c r="F213" t="s">
         <v>14</v>
@@ -8915,76 +9221,76 @@
         <v>14</v>
       </c>
       <c r="H213" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B214" t="s">
-        <v>40</v>
+        <v>607</v>
       </c>
       <c r="C214" t="s">
-        <v>488</v>
+        <v>639</v>
       </c>
       <c r="D214" t="s">
-        <v>489</v>
+        <v>642</v>
       </c>
       <c r="E214" t="s">
-        <v>490</v>
-      </c>
-      <c r="F214" t="s">
-        <v>14</v>
+        <v>644</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G214" t="s">
         <v>14</v>
       </c>
       <c r="H214" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B215" t="s">
-        <v>40</v>
+        <v>607</v>
       </c>
       <c r="C215" t="s">
-        <v>491</v>
+        <v>647</v>
       </c>
       <c r="D215" t="s">
-        <v>492</v>
+        <v>650</v>
       </c>
       <c r="E215" t="s">
-        <v>493</v>
+        <v>651</v>
       </c>
       <c r="F215" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G215" t="s">
         <v>14</v>
       </c>
       <c r="H215" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B216" t="s">
-        <v>40</v>
+        <v>607</v>
       </c>
       <c r="C216" t="s">
-        <v>494</v>
+        <v>718</v>
       </c>
       <c r="D216" t="s">
-        <v>495</v>
+        <v>719</v>
       </c>
       <c r="E216" t="s">
-        <v>496</v>
+        <v>643</v>
       </c>
       <c r="F216" t="s">
         <v>14</v>
@@ -8993,7 +9299,7 @@
         <v>14</v>
       </c>
       <c r="H216" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -9004,22 +9310,22 @@
         <v>40</v>
       </c>
       <c r="C217" t="s">
-        <v>497</v>
+        <v>41</v>
       </c>
       <c r="D217" t="s">
-        <v>498</v>
+        <v>42</v>
       </c>
       <c r="E217" t="s">
-        <v>499</v>
+        <v>43</v>
       </c>
       <c r="F217" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G217" t="s">
         <v>14</v>
       </c>
       <c r="H217" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -9030,22 +9336,22 @@
         <v>40</v>
       </c>
       <c r="C218" t="s">
-        <v>500</v>
+        <v>102</v>
       </c>
       <c r="D218" t="s">
-        <v>501</v>
+        <v>103</v>
       </c>
       <c r="E218" t="s">
-        <v>502</v>
+        <v>104</v>
       </c>
       <c r="F218" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G218" t="s">
         <v>14</v>
       </c>
       <c r="H218" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
@@ -9056,16 +9362,16 @@
         <v>40</v>
       </c>
       <c r="C219" t="s">
-        <v>503</v>
+        <v>111</v>
       </c>
       <c r="D219" t="s">
-        <v>504</v>
+        <v>112</v>
       </c>
       <c r="E219" t="s">
-        <v>505</v>
+        <v>113</v>
       </c>
       <c r="F219" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G219" t="s">
         <v>14</v>
@@ -9082,13 +9388,13 @@
         <v>40</v>
       </c>
       <c r="C220" t="s">
-        <v>506</v>
+        <v>133</v>
       </c>
       <c r="D220" t="s">
-        <v>507</v>
+        <v>134</v>
       </c>
       <c r="E220" t="s">
-        <v>508</v>
+        <v>135</v>
       </c>
       <c r="F220" t="s">
         <v>14</v>
@@ -9108,22 +9414,22 @@
         <v>40</v>
       </c>
       <c r="C221" t="s">
-        <v>524</v>
+        <v>180</v>
       </c>
       <c r="D221" t="s">
-        <v>525</v>
+        <v>181</v>
       </c>
       <c r="E221" t="s">
-        <v>526</v>
+        <v>182</v>
       </c>
       <c r="F221" t="s">
-        <v>14</v>
+        <v>728</v>
       </c>
       <c r="G221" t="s">
         <v>14</v>
       </c>
       <c r="H221" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
@@ -9134,22 +9440,22 @@
         <v>40</v>
       </c>
       <c r="C222" t="s">
-        <v>549</v>
+        <v>190</v>
       </c>
       <c r="D222" t="s">
-        <v>560</v>
+        <v>192</v>
       </c>
       <c r="E222" t="s">
-        <v>561</v>
+        <v>765</v>
       </c>
       <c r="F222" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G222" t="s">
         <v>14</v>
       </c>
       <c r="H222" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
@@ -9160,22 +9466,22 @@
         <v>40</v>
       </c>
       <c r="C223" t="s">
-        <v>588</v>
+        <v>229</v>
       </c>
       <c r="D223" t="s">
-        <v>589</v>
+        <v>234</v>
       </c>
       <c r="E223" t="s">
-        <v>590</v>
+        <v>235</v>
       </c>
       <c r="F223" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G223" t="s">
         <v>14</v>
       </c>
       <c r="H223" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -9186,22 +9492,22 @@
         <v>40</v>
       </c>
       <c r="C224" t="s">
-        <v>593</v>
+        <v>255</v>
       </c>
       <c r="D224" t="s">
-        <v>594</v>
+        <v>262</v>
       </c>
       <c r="E224" t="s">
-        <v>595</v>
+        <v>263</v>
       </c>
       <c r="F224" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G224" t="s">
         <v>14</v>
       </c>
       <c r="H224" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
@@ -9212,22 +9518,22 @@
         <v>40</v>
       </c>
       <c r="C225" t="s">
-        <v>596</v>
+        <v>766</v>
       </c>
       <c r="D225" t="s">
-        <v>597</v>
+        <v>767</v>
       </c>
       <c r="E225" t="s">
-        <v>598</v>
+        <v>768</v>
       </c>
       <c r="F225" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G225" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H225" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -9238,22 +9544,22 @@
         <v>40</v>
       </c>
       <c r="C226" t="s">
-        <v>599</v>
+        <v>290</v>
       </c>
       <c r="D226" t="s">
-        <v>600</v>
+        <v>769</v>
       </c>
       <c r="E226" t="s">
-        <v>601</v>
+        <v>770</v>
       </c>
       <c r="F226" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G226" t="s">
         <v>14</v>
       </c>
       <c r="H226" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -9264,22 +9570,22 @@
         <v>40</v>
       </c>
       <c r="C227" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D227" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="E227" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="F227" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G227" t="s">
         <v>14</v>
       </c>
       <c r="H227" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -9287,19 +9593,19 @@
         <v>8</v>
       </c>
       <c r="B228" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C228" t="s">
-        <v>10</v>
+        <v>347</v>
       </c>
       <c r="D228" t="s">
-        <v>11</v>
+        <v>360</v>
       </c>
       <c r="E228" t="s">
-        <v>12</v>
+        <v>361</v>
       </c>
       <c r="F228" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G228" t="s">
         <v>14</v>
@@ -9313,19 +9619,19 @@
         <v>8</v>
       </c>
       <c r="B229" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C229" t="s">
-        <v>37</v>
+        <v>386</v>
       </c>
       <c r="D229" t="s">
-        <v>38</v>
+        <v>387</v>
       </c>
       <c r="E229" t="s">
-        <v>39</v>
+        <v>774</v>
       </c>
       <c r="F229" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G229" t="s">
         <v>14</v>
@@ -9339,25 +9645,25 @@
         <v>8</v>
       </c>
       <c r="B230" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C230" t="s">
-        <v>41</v>
+        <v>388</v>
       </c>
       <c r="D230" t="s">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="E230" t="s">
-        <v>46</v>
+        <v>402</v>
       </c>
       <c r="F230" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G230" t="s">
         <v>14</v>
       </c>
       <c r="H230" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -9365,25 +9671,25 @@
         <v>8</v>
       </c>
       <c r="B231" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C231" t="s">
-        <v>48</v>
+        <v>409</v>
       </c>
       <c r="D231" t="s">
-        <v>47</v>
+        <v>418</v>
       </c>
       <c r="E231" t="s">
-        <v>46</v>
+        <v>419</v>
       </c>
       <c r="F231" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G231" t="s">
         <v>14</v>
       </c>
       <c r="H231" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -9391,25 +9697,25 @@
         <v>8</v>
       </c>
       <c r="B232" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C232" t="s">
-        <v>49</v>
+        <v>441</v>
       </c>
       <c r="D232" t="s">
-        <v>47</v>
+        <v>448</v>
       </c>
       <c r="E232" t="s">
-        <v>46</v>
+        <v>449</v>
       </c>
       <c r="F232" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G232" t="s">
         <v>14</v>
       </c>
       <c r="H232" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -9417,25 +9723,25 @@
         <v>8</v>
       </c>
       <c r="B233" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C233" t="s">
-        <v>50</v>
+        <v>454</v>
       </c>
       <c r="D233" t="s">
-        <v>47</v>
+        <v>459</v>
       </c>
       <c r="E233" t="s">
-        <v>46</v>
+        <v>460</v>
       </c>
       <c r="F233" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G233" t="s">
         <v>14</v>
       </c>
       <c r="H233" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -9443,19 +9749,19 @@
         <v>8</v>
       </c>
       <c r="B234" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C234" t="s">
-        <v>62</v>
+        <v>488</v>
       </c>
       <c r="D234" t="s">
-        <v>63</v>
+        <v>489</v>
       </c>
       <c r="E234" t="s">
-        <v>64</v>
+        <v>490</v>
       </c>
       <c r="F234" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G234" t="s">
         <v>14</v>
@@ -9469,25 +9775,25 @@
         <v>8</v>
       </c>
       <c r="B235" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C235" t="s">
-        <v>80</v>
+        <v>491</v>
       </c>
       <c r="D235" t="s">
-        <v>81</v>
+        <v>492</v>
       </c>
       <c r="E235" t="s">
-        <v>82</v>
+        <v>493</v>
       </c>
       <c r="F235" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G235" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H235" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -9495,25 +9801,25 @@
         <v>8</v>
       </c>
       <c r="B236" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C236" t="s">
-        <v>83</v>
+        <v>494</v>
       </c>
       <c r="D236" t="s">
-        <v>84</v>
+        <v>495</v>
       </c>
       <c r="E236" t="s">
-        <v>85</v>
+        <v>496</v>
       </c>
       <c r="F236" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G236" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H236" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -9521,25 +9827,25 @@
         <v>8</v>
       </c>
       <c r="B237" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C237" t="s">
-        <v>86</v>
+        <v>497</v>
       </c>
       <c r="D237" t="s">
-        <v>84</v>
+        <v>498</v>
       </c>
       <c r="E237" t="s">
-        <v>85</v>
+        <v>499</v>
       </c>
       <c r="F237" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G237" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H237" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -9547,25 +9853,25 @@
         <v>8</v>
       </c>
       <c r="B238" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C238" t="s">
-        <v>779</v>
+        <v>500</v>
       </c>
       <c r="D238" t="s">
-        <v>780</v>
+        <v>501</v>
       </c>
       <c r="E238" t="s">
-        <v>101</v>
+        <v>502</v>
       </c>
       <c r="F238" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G238" t="s">
         <v>14</v>
       </c>
       <c r="H238" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -9573,25 +9879,25 @@
         <v>8</v>
       </c>
       <c r="B239" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C239" t="s">
-        <v>781</v>
+        <v>503</v>
       </c>
       <c r="D239" t="s">
-        <v>780</v>
+        <v>504</v>
       </c>
       <c r="E239" t="s">
-        <v>101</v>
+        <v>505</v>
       </c>
       <c r="F239" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G239" t="s">
         <v>14</v>
       </c>
       <c r="H239" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
@@ -9599,25 +9905,25 @@
         <v>8</v>
       </c>
       <c r="B240" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C240" t="s">
-        <v>99</v>
+        <v>506</v>
       </c>
       <c r="D240" t="s">
-        <v>100</v>
+        <v>507</v>
       </c>
       <c r="E240" t="s">
-        <v>101</v>
+        <v>508</v>
       </c>
       <c r="F240" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G240" t="s">
         <v>14</v>
       </c>
       <c r="H240" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -9625,25 +9931,25 @@
         <v>8</v>
       </c>
       <c r="B241" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C241" t="s">
-        <v>105</v>
+        <v>524</v>
       </c>
       <c r="D241" t="s">
-        <v>106</v>
+        <v>525</v>
       </c>
       <c r="E241" t="s">
-        <v>101</v>
+        <v>526</v>
       </c>
       <c r="F241" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G241" t="s">
         <v>14</v>
       </c>
       <c r="H241" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -9651,19 +9957,19 @@
         <v>8</v>
       </c>
       <c r="B242" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C242" t="s">
-        <v>107</v>
+        <v>549</v>
       </c>
       <c r="D242" t="s">
-        <v>106</v>
+        <v>560</v>
       </c>
       <c r="E242" t="s">
-        <v>101</v>
+        <v>561</v>
       </c>
       <c r="F242" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G242" t="s">
         <v>14</v>
@@ -9677,19 +9983,19 @@
         <v>8</v>
       </c>
       <c r="B243" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C243" t="s">
-        <v>50</v>
+        <v>588</v>
       </c>
       <c r="D243" t="s">
-        <v>106</v>
+        <v>589</v>
       </c>
       <c r="E243" t="s">
-        <v>101</v>
+        <v>590</v>
       </c>
       <c r="F243" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G243" t="s">
         <v>14</v>
@@ -9703,19 +10009,19 @@
         <v>8</v>
       </c>
       <c r="B244" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C244" t="s">
-        <v>786</v>
+        <v>592</v>
       </c>
       <c r="D244" t="s">
-        <v>106</v>
+        <v>593</v>
       </c>
       <c r="E244" t="s">
-        <v>101</v>
+        <v>594</v>
       </c>
       <c r="F244" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G244" t="s">
         <v>14</v>
@@ -9729,25 +10035,25 @@
         <v>8</v>
       </c>
       <c r="B245" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C245" t="s">
-        <v>108</v>
+        <v>595</v>
       </c>
       <c r="D245" t="s">
-        <v>109</v>
+        <v>596</v>
       </c>
       <c r="E245" t="s">
-        <v>110</v>
+        <v>597</v>
       </c>
       <c r="F245" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G245" t="s">
         <v>14</v>
       </c>
       <c r="H245" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
@@ -9755,16 +10061,16 @@
         <v>8</v>
       </c>
       <c r="B246" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C246" t="s">
-        <v>148</v>
+        <v>598</v>
       </c>
       <c r="D246" t="s">
-        <v>157</v>
+        <v>599</v>
       </c>
       <c r="E246" t="s">
-        <v>158</v>
+        <v>600</v>
       </c>
       <c r="F246" t="s">
         <v>5</v>
@@ -9773,7 +10079,7 @@
         <v>14</v>
       </c>
       <c r="H246" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
@@ -9781,25 +10087,25 @@
         <v>8</v>
       </c>
       <c r="B247" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C247" t="s">
-        <v>180</v>
+        <v>775</v>
       </c>
       <c r="D247" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E247" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F247" t="s">
-        <v>729</v>
+        <v>5</v>
       </c>
       <c r="G247" t="s">
         <v>14</v>
       </c>
       <c r="H247" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -9810,16 +10116,16 @@
         <v>9</v>
       </c>
       <c r="C248" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="D248" t="s">
-        <v>784</v>
+        <v>11</v>
       </c>
       <c r="E248" t="s">
-        <v>785</v>
+        <v>12</v>
       </c>
       <c r="F248" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G248" t="s">
         <v>14</v>
@@ -9836,16 +10142,16 @@
         <v>9</v>
       </c>
       <c r="C249" t="s">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="D249" t="s">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="E249" t="s">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="F249" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G249" t="s">
         <v>14</v>
@@ -9862,13 +10168,13 @@
         <v>9</v>
       </c>
       <c r="C250" t="s">
-        <v>229</v>
+        <v>41</v>
       </c>
       <c r="D250" t="s">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="E250" t="s">
-        <v>237</v>
+        <v>46</v>
       </c>
       <c r="F250" t="s">
         <v>5</v>
@@ -9877,7 +10183,7 @@
         <v>14</v>
       </c>
       <c r="H250" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
@@ -9888,13 +10194,13 @@
         <v>9</v>
       </c>
       <c r="C251" t="s">
-        <v>241</v>
+        <v>48</v>
       </c>
       <c r="D251" t="s">
-        <v>242</v>
+        <v>47</v>
       </c>
       <c r="E251" t="s">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="F251" t="s">
         <v>5</v>
@@ -9914,22 +10220,22 @@
         <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>250</v>
+        <v>49</v>
       </c>
       <c r="D252" t="s">
-        <v>251</v>
+        <v>47</v>
       </c>
       <c r="E252" t="s">
-        <v>252</v>
+        <v>46</v>
       </c>
       <c r="F252" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G252" t="s">
         <v>14</v>
       </c>
       <c r="H252" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
@@ -9940,19 +10246,19 @@
         <v>9</v>
       </c>
       <c r="C253" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D253" t="s">
-        <v>253</v>
+        <v>47</v>
       </c>
       <c r="E253" t="s">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c r="F253" t="s">
         <v>5</v>
       </c>
       <c r="G253" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H253" t="s">
         <v>44</v>
@@ -9966,13 +10272,13 @@
         <v>9</v>
       </c>
       <c r="C254" t="s">
-        <v>290</v>
+        <v>62</v>
       </c>
       <c r="D254" t="s">
-        <v>291</v>
+        <v>63</v>
       </c>
       <c r="E254" t="s">
-        <v>292</v>
+        <v>64</v>
       </c>
       <c r="F254" t="s">
         <v>13</v>
@@ -9992,22 +10298,22 @@
         <v>9</v>
       </c>
       <c r="C255" t="s">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="D255" t="s">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="E255" t="s">
-        <v>339</v>
+        <v>82</v>
       </c>
       <c r="F255" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G255" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H255" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -10018,22 +10324,22 @@
         <v>9</v>
       </c>
       <c r="C256" t="s">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="D256" t="s">
-        <v>341</v>
+        <v>84</v>
       </c>
       <c r="E256" t="s">
-        <v>342</v>
+        <v>85</v>
       </c>
       <c r="F256" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G256" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H256" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
@@ -10044,22 +10350,22 @@
         <v>9</v>
       </c>
       <c r="C257" t="s">
-        <v>772</v>
+        <v>86</v>
       </c>
       <c r="D257" t="s">
-        <v>787</v>
+        <v>84</v>
       </c>
       <c r="E257" t="s">
-        <v>788</v>
+        <v>85</v>
       </c>
       <c r="F257" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G257" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H257" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -10070,22 +10376,22 @@
         <v>9</v>
       </c>
       <c r="C258" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="D258" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="E258" t="s">
-        <v>791</v>
+        <v>101</v>
       </c>
       <c r="F258" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G258" t="s">
         <v>14</v>
       </c>
       <c r="H258" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
@@ -10096,22 +10402,22 @@
         <v>9</v>
       </c>
       <c r="C259" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="D259" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="E259" t="s">
-        <v>794</v>
+        <v>101</v>
       </c>
       <c r="F259" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G259" t="s">
         <v>14</v>
       </c>
       <c r="H259" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
@@ -10122,22 +10428,22 @@
         <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>795</v>
+        <v>99</v>
       </c>
       <c r="D260" t="s">
-        <v>796</v>
+        <v>100</v>
       </c>
       <c r="E260" t="s">
-        <v>797</v>
+        <v>101</v>
       </c>
       <c r="F260" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G260" t="s">
         <v>14</v>
       </c>
       <c r="H260" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
@@ -10148,22 +10454,22 @@
         <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>347</v>
+        <v>105</v>
       </c>
       <c r="D261" t="s">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="E261" t="s">
-        <v>363</v>
+        <v>101</v>
       </c>
       <c r="F261" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G261" t="s">
         <v>14</v>
       </c>
       <c r="H261" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
@@ -10174,22 +10480,22 @@
         <v>9</v>
       </c>
       <c r="C262" t="s">
-        <v>409</v>
+        <v>107</v>
       </c>
       <c r="D262" t="s">
-        <v>420</v>
+        <v>106</v>
       </c>
       <c r="E262" t="s">
-        <v>421</v>
+        <v>101</v>
       </c>
       <c r="F262" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G262" t="s">
         <v>14</v>
       </c>
       <c r="H262" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
@@ -10200,22 +10506,22 @@
         <v>9</v>
       </c>
       <c r="C263" t="s">
-        <v>426</v>
+        <v>50</v>
       </c>
       <c r="D263" t="s">
-        <v>435</v>
+        <v>106</v>
       </c>
       <c r="E263" t="s">
-        <v>436</v>
+        <v>101</v>
       </c>
       <c r="F263" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G263" t="s">
         <v>14</v>
       </c>
       <c r="H263" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
@@ -10226,22 +10532,22 @@
         <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>454</v>
+        <v>783</v>
       </c>
       <c r="D264" t="s">
-        <v>461</v>
+        <v>106</v>
       </c>
       <c r="E264" t="s">
-        <v>462</v>
+        <v>101</v>
       </c>
       <c r="F264" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G264" t="s">
         <v>14</v>
       </c>
       <c r="H264" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
@@ -10252,16 +10558,16 @@
         <v>9</v>
       </c>
       <c r="C265" t="s">
-        <v>509</v>
+        <v>108</v>
       </c>
       <c r="D265" t="s">
-        <v>510</v>
+        <v>109</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>110</v>
       </c>
       <c r="F265" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G265" t="s">
         <v>14</v>
@@ -10278,16 +10584,16 @@
         <v>9</v>
       </c>
       <c r="C266" t="s">
-        <v>512</v>
+        <v>848</v>
       </c>
       <c r="D266" t="s">
-        <v>513</v>
+        <v>849</v>
       </c>
       <c r="E266" t="s">
-        <v>514</v>
+        <v>850</v>
       </c>
       <c r="F266" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G266" t="s">
         <v>14</v>
@@ -10304,16 +10610,16 @@
         <v>9</v>
       </c>
       <c r="C267" t="s">
-        <v>515</v>
+        <v>851</v>
       </c>
       <c r="D267" t="s">
-        <v>516</v>
+        <v>852</v>
       </c>
       <c r="E267" t="s">
-        <v>517</v>
+        <v>853</v>
       </c>
       <c r="F267" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G267" t="s">
         <v>14</v>
@@ -10330,16 +10636,16 @@
         <v>9</v>
       </c>
       <c r="C268" t="s">
-        <v>518</v>
+        <v>148</v>
       </c>
       <c r="D268" t="s">
-        <v>519</v>
+        <v>157</v>
       </c>
       <c r="E268" t="s">
-        <v>520</v>
+        <v>158</v>
       </c>
       <c r="F268" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G268" t="s">
         <v>14</v>
@@ -10356,16 +10662,16 @@
         <v>9</v>
       </c>
       <c r="C269" t="s">
-        <v>521</v>
+        <v>854</v>
       </c>
       <c r="D269" t="s">
-        <v>522</v>
+        <v>855</v>
       </c>
       <c r="E269" t="s">
-        <v>523</v>
+        <v>856</v>
       </c>
       <c r="F269" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G269" t="s">
         <v>14</v>
@@ -10382,22 +10688,22 @@
         <v>9</v>
       </c>
       <c r="C270" t="s">
-        <v>527</v>
+        <v>857</v>
       </c>
       <c r="D270" t="s">
-        <v>528</v>
+        <v>858</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>859</v>
       </c>
       <c r="F270" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G270" t="s">
         <v>14</v>
       </c>
       <c r="H270" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
@@ -10408,16 +10714,16 @@
         <v>9</v>
       </c>
       <c r="C271" t="s">
-        <v>530</v>
+        <v>860</v>
       </c>
       <c r="D271" t="s">
-        <v>541</v>
+        <v>861</v>
       </c>
       <c r="E271" t="s">
-        <v>542</v>
+        <v>862</v>
       </c>
       <c r="F271" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G271" t="s">
         <v>14</v>
@@ -10434,13 +10740,13 @@
         <v>9</v>
       </c>
       <c r="C272" t="s">
-        <v>549</v>
+        <v>863</v>
       </c>
       <c r="D272" t="s">
-        <v>562</v>
+        <v>864</v>
       </c>
       <c r="E272" t="s">
-        <v>563</v>
+        <v>865</v>
       </c>
       <c r="F272" t="s">
         <v>5</v>
@@ -10449,7 +10755,7 @@
         <v>14</v>
       </c>
       <c r="H272" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
@@ -10460,22 +10766,22 @@
         <v>9</v>
       </c>
       <c r="C273" t="s">
-        <v>588</v>
+        <v>866</v>
       </c>
       <c r="D273" t="s">
-        <v>591</v>
+        <v>867</v>
       </c>
       <c r="E273" t="s">
-        <v>592</v>
+        <v>868</v>
       </c>
       <c r="F273" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G273" t="s">
         <v>14</v>
       </c>
       <c r="H273" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
@@ -10486,22 +10792,22 @@
         <v>9</v>
       </c>
       <c r="C274" t="s">
-        <v>602</v>
+        <v>199</v>
       </c>
       <c r="D274" t="s">
-        <v>603</v>
+        <v>781</v>
       </c>
       <c r="E274" t="s">
-        <v>604</v>
+        <v>782</v>
       </c>
       <c r="F274" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G274" t="s">
         <v>14</v>
       </c>
       <c r="H274" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
@@ -10512,22 +10818,22 @@
         <v>9</v>
       </c>
       <c r="C275" t="s">
-        <v>605</v>
+        <v>218</v>
       </c>
       <c r="D275" t="s">
-        <v>606</v>
+        <v>219</v>
       </c>
       <c r="E275" t="s">
-        <v>607</v>
+        <v>220</v>
       </c>
       <c r="F275" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G275" t="s">
         <v>14</v>
       </c>
       <c r="H275" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
@@ -10538,16 +10844,16 @@
         <v>9</v>
       </c>
       <c r="C276" t="s">
-        <v>618</v>
+        <v>229</v>
       </c>
       <c r="D276" t="s">
-        <v>619</v>
+        <v>236</v>
       </c>
       <c r="E276" t="s">
-        <v>620</v>
+        <v>237</v>
       </c>
       <c r="F276" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G276" t="s">
         <v>14</v>
@@ -10558,45 +10864,45 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B277" t="s">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="C277" t="s">
-        <v>388</v>
+        <v>241</v>
       </c>
       <c r="D277" t="s">
-        <v>393</v>
+        <v>242</v>
       </c>
       <c r="E277" t="s">
-        <v>394</v>
+        <v>243</v>
       </c>
       <c r="F277" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G277" t="s">
         <v>14</v>
       </c>
       <c r="H277" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B278" t="s">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="C278" t="s">
-        <v>409</v>
+        <v>250</v>
       </c>
       <c r="D278" t="s">
-        <v>414</v>
+        <v>251</v>
       </c>
       <c r="E278" t="s">
-        <v>415</v>
+        <v>252</v>
       </c>
       <c r="F278" t="s">
         <v>14</v>
@@ -10610,25 +10916,25 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B279" t="s">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="C279" t="s">
-        <v>612</v>
+        <v>80</v>
       </c>
       <c r="D279" t="s">
-        <v>613</v>
+        <v>253</v>
       </c>
       <c r="E279" t="s">
-        <v>614</v>
+        <v>254</v>
       </c>
       <c r="F279" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G279" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H279" t="s">
         <v>44</v>
@@ -10636,22 +10942,22 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B280" t="s">
-        <v>268</v>
+        <v>9</v>
       </c>
       <c r="C280" t="s">
-        <v>798</v>
+        <v>290</v>
       </c>
       <c r="D280" t="s">
-        <v>799</v>
+        <v>291</v>
       </c>
       <c r="E280" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="F280" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G280" t="s">
         <v>14</v>
@@ -10662,19 +10968,19 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B281" t="s">
-        <v>268</v>
+        <v>9</v>
       </c>
       <c r="C281" t="s">
-        <v>426</v>
+        <v>337</v>
       </c>
       <c r="D281" t="s">
-        <v>437</v>
+        <v>338</v>
       </c>
       <c r="E281" t="s">
-        <v>438</v>
+        <v>339</v>
       </c>
       <c r="F281" t="s">
         <v>14</v>
@@ -10688,19 +10994,19 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B282" t="s">
-        <v>268</v>
+        <v>9</v>
       </c>
       <c r="C282" t="s">
-        <v>549</v>
+        <v>340</v>
       </c>
       <c r="D282" t="s">
-        <v>564</v>
+        <v>341</v>
       </c>
       <c r="E282" t="s">
-        <v>565</v>
+        <v>342</v>
       </c>
       <c r="F282" t="s">
         <v>14</v>
@@ -10709,27 +11015,27 @@
         <v>14</v>
       </c>
       <c r="H282" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B283" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C283" t="s">
-        <v>164</v>
+        <v>771</v>
       </c>
       <c r="D283" t="s">
-        <v>165</v>
+        <v>784</v>
       </c>
       <c r="E283" t="s">
-        <v>166</v>
+        <v>785</v>
       </c>
       <c r="F283" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G283" t="s">
         <v>14</v>
@@ -10740,22 +11046,22 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B284" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C284" t="s">
-        <v>183</v>
+        <v>786</v>
       </c>
       <c r="D284" t="s">
-        <v>184</v>
+        <v>787</v>
       </c>
       <c r="E284" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="F284" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G284" t="s">
         <v>14</v>
@@ -10766,19 +11072,19 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B285" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C285" t="s">
-        <v>264</v>
+        <v>789</v>
       </c>
       <c r="D285" t="s">
-        <v>265</v>
+        <v>790</v>
       </c>
       <c r="E285" t="s">
-        <v>266</v>
+        <v>791</v>
       </c>
       <c r="F285" t="s">
         <v>14</v>
@@ -10787,53 +11093,53 @@
         <v>14</v>
       </c>
       <c r="H285" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B286" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C286" t="s">
-        <v>287</v>
+        <v>792</v>
       </c>
       <c r="D286" t="s">
-        <v>288</v>
+        <v>793</v>
       </c>
       <c r="E286" t="s">
-        <v>289</v>
+        <v>794</v>
       </c>
       <c r="F286" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G286" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H286" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B287" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C287" t="s">
-        <v>299</v>
+        <v>869</v>
       </c>
       <c r="D287" t="s">
-        <v>312</v>
+        <v>870</v>
       </c>
       <c r="E287" t="s">
-        <v>313</v>
+        <v>871</v>
       </c>
       <c r="F287" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G287" t="s">
         <v>14</v>
@@ -10844,19 +11150,19 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B288" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="D288" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="E288" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="F288" t="s">
         <v>14</v>
@@ -10870,19 +11176,19 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B289" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C289" t="s">
         <v>409</v>
       </c>
       <c r="D289" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E289" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F289" t="s">
         <v>14</v>
@@ -10896,19 +11202,19 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B290" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C290" t="s">
         <v>426</v>
       </c>
       <c r="D290" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E290" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F290" t="s">
         <v>14</v>
@@ -10922,19 +11228,19 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B291" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C291" t="s">
         <v>441</v>
       </c>
       <c r="D291" t="s">
-        <v>452</v>
+        <v>872</v>
       </c>
       <c r="E291" t="s">
-        <v>453</v>
+        <v>873</v>
       </c>
       <c r="F291" t="s">
         <v>14</v>
@@ -10948,19 +11254,19 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B292" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C292" t="s">
         <v>454</v>
       </c>
       <c r="D292" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E292" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F292" t="s">
         <v>14</v>
@@ -10974,19 +11280,19 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B293" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C293" t="s">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="D293" t="s">
-        <v>566</v>
+        <v>510</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>511</v>
       </c>
       <c r="F293" t="s">
         <v>14</v>
@@ -10995,53 +11301,53 @@
         <v>14</v>
       </c>
       <c r="H293" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B294" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C294" t="s">
-        <v>568</v>
+        <v>512</v>
       </c>
       <c r="D294" t="s">
-        <v>573</v>
+        <v>513</v>
       </c>
       <c r="E294" t="s">
-        <v>574</v>
+        <v>514</v>
       </c>
       <c r="F294" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G294" t="s">
         <v>14</v>
       </c>
       <c r="H294" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B295" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>409</v>
+        <v>515</v>
       </c>
       <c r="D295" t="s">
-        <v>424</v>
+        <v>516</v>
       </c>
       <c r="E295" t="s">
-        <v>425</v>
+        <v>517</v>
       </c>
       <c r="F295" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G295" t="s">
         <v>14</v>
@@ -11052,19 +11358,19 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B296" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C296" t="s">
-        <v>426</v>
+        <v>518</v>
       </c>
       <c r="D296" t="s">
-        <v>439</v>
+        <v>519</v>
       </c>
       <c r="E296" t="s">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="F296" t="s">
         <v>14</v>
@@ -11078,22 +11384,22 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B297" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C297" t="s">
-        <v>441</v>
+        <v>521</v>
       </c>
       <c r="D297" t="s">
-        <v>452</v>
+        <v>522</v>
       </c>
       <c r="E297" t="s">
-        <v>453</v>
+        <v>523</v>
       </c>
       <c r="F297" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G297" t="s">
         <v>14</v>
@@ -11104,45 +11410,45 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B298" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C298" t="s">
-        <v>454</v>
+        <v>527</v>
       </c>
       <c r="D298" t="s">
-        <v>465</v>
+        <v>528</v>
       </c>
       <c r="E298" t="s">
-        <v>466</v>
+        <v>529</v>
       </c>
       <c r="F298" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G298" t="s">
         <v>14</v>
       </c>
       <c r="H298" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B299" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C299" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="D299" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="E299" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="F299" t="s">
         <v>14</v>
@@ -11156,22 +11462,22 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B300" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C300" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="D300" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="E300" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="F300" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G300" t="s">
         <v>14</v>
@@ -11182,48 +11488,48 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B301" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C301" t="s">
-        <v>299</v>
+        <v>874</v>
       </c>
       <c r="D301" t="s">
-        <v>312</v>
+        <v>875</v>
       </c>
       <c r="E301" t="s">
-        <v>313</v>
+        <v>876</v>
       </c>
       <c r="F301" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G301" t="s">
         <v>14</v>
       </c>
       <c r="H301" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B302" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C302" t="s">
-        <v>269</v>
+        <v>588</v>
       </c>
       <c r="D302" t="s">
-        <v>270</v>
+        <v>591</v>
       </c>
       <c r="E302" t="s">
-        <v>271</v>
+        <v>877</v>
       </c>
       <c r="F302" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G302" t="s">
         <v>14</v>
@@ -11234,22 +11540,22 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B303" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C303" t="s">
-        <v>272</v>
+        <v>588</v>
       </c>
       <c r="D303" t="s">
-        <v>273</v>
+        <v>591</v>
       </c>
       <c r="E303" t="s">
-        <v>274</v>
+        <v>878</v>
       </c>
       <c r="F303" t="s">
-        <v>5</v>
+        <v>728</v>
       </c>
       <c r="G303" t="s">
         <v>14</v>
@@ -11260,22 +11566,22 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B304" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C304" t="s">
-        <v>275</v>
+        <v>601</v>
       </c>
       <c r="D304" t="s">
-        <v>276</v>
+        <v>602</v>
       </c>
       <c r="E304" t="s">
-        <v>277</v>
+        <v>603</v>
       </c>
       <c r="F304" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G304" t="s">
         <v>14</v>
@@ -11286,19 +11592,19 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B305" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C305" t="s">
-        <v>278</v>
+        <v>604</v>
       </c>
       <c r="D305" t="s">
-        <v>279</v>
+        <v>605</v>
       </c>
       <c r="E305" t="s">
-        <v>280</v>
+        <v>606</v>
       </c>
       <c r="F305" t="s">
         <v>5</v>
@@ -11312,19 +11618,19 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B306" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C306" t="s">
-        <v>366</v>
+        <v>617</v>
       </c>
       <c r="D306" t="s">
-        <v>367</v>
+        <v>618</v>
       </c>
       <c r="E306" t="s">
-        <v>368</v>
+        <v>619</v>
       </c>
       <c r="F306" t="s">
         <v>14</v>
@@ -11341,19 +11647,19 @@
         <v>162</v>
       </c>
       <c r="B307" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="C307" t="s">
-        <v>369</v>
+        <v>879</v>
       </c>
       <c r="D307" t="s">
-        <v>370</v>
+        <v>880</v>
       </c>
       <c r="E307" t="s">
-        <v>371</v>
+        <v>881</v>
       </c>
       <c r="F307" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G307" t="s">
         <v>14</v>
@@ -11367,25 +11673,25 @@
         <v>162</v>
       </c>
       <c r="B308" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="C308" t="s">
-        <v>388</v>
+        <v>882</v>
       </c>
       <c r="D308" t="s">
-        <v>407</v>
+        <v>883</v>
       </c>
       <c r="E308" t="s">
-        <v>408</v>
+        <v>884</v>
       </c>
       <c r="F308" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G308" t="s">
         <v>14</v>
       </c>
       <c r="H308" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
@@ -11393,25 +11699,25 @@
         <v>162</v>
       </c>
       <c r="B309" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="C309" t="s">
-        <v>409</v>
+        <v>269</v>
       </c>
       <c r="D309" t="s">
-        <v>424</v>
+        <v>885</v>
       </c>
       <c r="E309" t="s">
-        <v>425</v>
+        <v>886</v>
       </c>
       <c r="F309" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G309" t="s">
         <v>14</v>
       </c>
       <c r="H309" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
@@ -11419,25 +11725,25 @@
         <v>162</v>
       </c>
       <c r="B310" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="C310" t="s">
-        <v>426</v>
+        <v>272</v>
       </c>
       <c r="D310" t="s">
-        <v>439</v>
+        <v>887</v>
       </c>
       <c r="E310" t="s">
-        <v>440</v>
+        <v>888</v>
       </c>
       <c r="F310" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G310" t="s">
         <v>14</v>
       </c>
       <c r="H310" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
@@ -11445,25 +11751,25 @@
         <v>162</v>
       </c>
       <c r="B311" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="C311" t="s">
-        <v>441</v>
+        <v>275</v>
       </c>
       <c r="D311" t="s">
-        <v>452</v>
+        <v>889</v>
       </c>
       <c r="E311" t="s">
-        <v>453</v>
+        <v>890</v>
       </c>
       <c r="F311" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G311" t="s">
         <v>14</v>
       </c>
       <c r="H311" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -11471,16 +11777,16 @@
         <v>162</v>
       </c>
       <c r="B312" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="C312" t="s">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="D312" t="s">
-        <v>465</v>
+        <v>393</v>
       </c>
       <c r="E312" t="s">
-        <v>466</v>
+        <v>394</v>
       </c>
       <c r="F312" t="s">
         <v>14</v>
@@ -11497,16 +11803,16 @@
         <v>162</v>
       </c>
       <c r="B313" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="C313" t="s">
-        <v>467</v>
+        <v>409</v>
       </c>
       <c r="D313" t="s">
-        <v>472</v>
+        <v>414</v>
       </c>
       <c r="E313" t="s">
-        <v>473</v>
+        <v>415</v>
       </c>
       <c r="F313" t="s">
         <v>14</v>
@@ -11523,25 +11829,25 @@
         <v>162</v>
       </c>
       <c r="B314" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="C314" t="s">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D314" t="s">
-        <v>481</v>
+        <v>612</v>
       </c>
       <c r="E314" t="s">
-        <v>482</v>
+        <v>613</v>
       </c>
       <c r="F314" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G314" t="s">
         <v>14</v>
       </c>
       <c r="H314" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
@@ -11549,19 +11855,19 @@
         <v>162</v>
       </c>
       <c r="B315" t="s">
-        <v>163</v>
+        <v>268</v>
       </c>
       <c r="C315" t="s">
-        <v>483</v>
+        <v>879</v>
       </c>
       <c r="D315" t="s">
-        <v>486</v>
+        <v>891</v>
       </c>
       <c r="E315" t="s">
-        <v>487</v>
+        <v>892</v>
       </c>
       <c r="F315" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G315" t="s">
         <v>14</v>
@@ -11575,19 +11881,19 @@
         <v>162</v>
       </c>
       <c r="B316" t="s">
-        <v>163</v>
+        <v>268</v>
       </c>
       <c r="C316" t="s">
-        <v>530</v>
+        <v>882</v>
       </c>
       <c r="D316" t="s">
-        <v>547</v>
+        <v>893</v>
       </c>
       <c r="E316" t="s">
-        <v>548</v>
+        <v>894</v>
       </c>
       <c r="F316" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G316" t="s">
         <v>14</v>
@@ -11601,19 +11907,19 @@
         <v>162</v>
       </c>
       <c r="B317" t="s">
-        <v>163</v>
+        <v>268</v>
       </c>
       <c r="C317" t="s">
-        <v>549</v>
+        <v>269</v>
       </c>
       <c r="D317" t="s">
-        <v>566</v>
+        <v>895</v>
       </c>
       <c r="E317" t="s">
-        <v>567</v>
+        <v>896</v>
       </c>
       <c r="F317" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G317" t="s">
         <v>14</v>
@@ -11627,19 +11933,19 @@
         <v>162</v>
       </c>
       <c r="B318" t="s">
-        <v>163</v>
+        <v>268</v>
       </c>
       <c r="C318" t="s">
-        <v>568</v>
+        <v>272</v>
       </c>
       <c r="D318" t="s">
-        <v>573</v>
+        <v>897</v>
       </c>
       <c r="E318" t="s">
-        <v>574</v>
+        <v>898</v>
       </c>
       <c r="F318" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G318" t="s">
         <v>14</v>
@@ -11653,16 +11959,16 @@
         <v>162</v>
       </c>
       <c r="B319" t="s">
-        <v>163</v>
+        <v>268</v>
       </c>
       <c r="C319" t="s">
-        <v>575</v>
+        <v>795</v>
       </c>
       <c r="D319" t="s">
-        <v>576</v>
+        <v>796</v>
       </c>
       <c r="E319" t="s">
-        <v>577</v>
+        <v>343</v>
       </c>
       <c r="F319" t="s">
         <v>14</v>
@@ -11671,7 +11977,7 @@
         <v>14</v>
       </c>
       <c r="H319" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
@@ -11679,30 +11985,732 @@
         <v>162</v>
       </c>
       <c r="B320" t="s">
+        <v>268</v>
+      </c>
+      <c r="C320" t="s">
+        <v>426</v>
+      </c>
+      <c r="D320" t="s">
+        <v>437</v>
+      </c>
+      <c r="E320" t="s">
+        <v>438</v>
+      </c>
+      <c r="F320" t="s">
+        <v>14</v>
+      </c>
+      <c r="G320" t="s">
+        <v>14</v>
+      </c>
+      <c r="H320" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>162</v>
+      </c>
+      <c r="B321" t="s">
+        <v>268</v>
+      </c>
+      <c r="C321" t="s">
+        <v>549</v>
+      </c>
+      <c r="D321" t="s">
+        <v>564</v>
+      </c>
+      <c r="E321" t="s">
+        <v>565</v>
+      </c>
+      <c r="F321" t="s">
+        <v>14</v>
+      </c>
+      <c r="G321" t="s">
+        <v>14</v>
+      </c>
+      <c r="H321" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>162</v>
+      </c>
+      <c r="B322" t="s">
+        <v>268</v>
+      </c>
+      <c r="C322" t="s">
+        <v>578</v>
+      </c>
+      <c r="D322" t="s">
+        <v>899</v>
+      </c>
+      <c r="E322" t="s">
+        <v>900</v>
+      </c>
+      <c r="F322" t="s">
+        <v>14</v>
+      </c>
+      <c r="G322" t="s">
+        <v>14</v>
+      </c>
+      <c r="H322" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>162</v>
+      </c>
+      <c r="B323" t="s">
         <v>163</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C323" t="s">
+        <v>164</v>
+      </c>
+      <c r="D323" t="s">
+        <v>165</v>
+      </c>
+      <c r="E323" t="s">
+        <v>166</v>
+      </c>
+      <c r="F323" t="s">
+        <v>13</v>
+      </c>
+      <c r="G323" t="s">
+        <v>14</v>
+      </c>
+      <c r="H323" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>162</v>
+      </c>
+      <c r="B324" t="s">
+        <v>163</v>
+      </c>
+      <c r="C324" t="s">
+        <v>183</v>
+      </c>
+      <c r="D324" t="s">
+        <v>184</v>
+      </c>
+      <c r="E324" t="s">
+        <v>797</v>
+      </c>
+      <c r="F324" t="s">
+        <v>5</v>
+      </c>
+      <c r="G324" t="s">
+        <v>14</v>
+      </c>
+      <c r="H324" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>162</v>
+      </c>
+      <c r="B325" t="s">
+        <v>163</v>
+      </c>
+      <c r="C325" t="s">
+        <v>902</v>
+      </c>
+      <c r="D325" t="s">
+        <v>903</v>
+      </c>
+      <c r="E325" t="s">
+        <v>901</v>
+      </c>
+      <c r="F325" t="s">
+        <v>5</v>
+      </c>
+      <c r="G325" t="s">
+        <v>14</v>
+      </c>
+      <c r="H325" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>162</v>
+      </c>
+      <c r="B326" t="s">
+        <v>163</v>
+      </c>
+      <c r="C326" t="s">
+        <v>264</v>
+      </c>
+      <c r="D326" t="s">
+        <v>265</v>
+      </c>
+      <c r="E326" t="s">
+        <v>266</v>
+      </c>
+      <c r="F326" t="s">
+        <v>14</v>
+      </c>
+      <c r="G326" t="s">
+        <v>14</v>
+      </c>
+      <c r="H326" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>162</v>
+      </c>
+      <c r="B327" t="s">
+        <v>163</v>
+      </c>
+      <c r="C327" t="s">
+        <v>269</v>
+      </c>
+      <c r="D327" t="s">
+        <v>270</v>
+      </c>
+      <c r="E327" t="s">
+        <v>271</v>
+      </c>
+      <c r="F327" t="s">
+        <v>5</v>
+      </c>
+      <c r="G327" t="s">
+        <v>14</v>
+      </c>
+      <c r="H327" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>162</v>
+      </c>
+      <c r="B328" t="s">
+        <v>163</v>
+      </c>
+      <c r="C328" t="s">
+        <v>272</v>
+      </c>
+      <c r="D328" t="s">
+        <v>273</v>
+      </c>
+      <c r="E328" t="s">
+        <v>274</v>
+      </c>
+      <c r="F328" t="s">
+        <v>5</v>
+      </c>
+      <c r="G328" t="s">
+        <v>14</v>
+      </c>
+      <c r="H328" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>162</v>
+      </c>
+      <c r="B329" t="s">
+        <v>163</v>
+      </c>
+      <c r="C329" t="s">
+        <v>275</v>
+      </c>
+      <c r="D329" t="s">
+        <v>276</v>
+      </c>
+      <c r="E329" t="s">
+        <v>277</v>
+      </c>
+      <c r="F329" t="s">
+        <v>5</v>
+      </c>
+      <c r="G329" t="s">
+        <v>14</v>
+      </c>
+      <c r="H329" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>162</v>
+      </c>
+      <c r="B330" t="s">
+        <v>163</v>
+      </c>
+      <c r="C330" t="s">
+        <v>278</v>
+      </c>
+      <c r="D330" t="s">
+        <v>279</v>
+      </c>
+      <c r="E330" t="s">
+        <v>280</v>
+      </c>
+      <c r="F330" t="s">
+        <v>5</v>
+      </c>
+      <c r="G330" t="s">
+        <v>14</v>
+      </c>
+      <c r="H330" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>162</v>
+      </c>
+      <c r="B331" t="s">
+        <v>163</v>
+      </c>
+      <c r="C331" t="s">
+        <v>287</v>
+      </c>
+      <c r="D331" t="s">
+        <v>288</v>
+      </c>
+      <c r="E331" t="s">
+        <v>289</v>
+      </c>
+      <c r="F331" t="s">
+        <v>13</v>
+      </c>
+      <c r="G331" t="s">
+        <v>54</v>
+      </c>
+      <c r="H331" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>162</v>
+      </c>
+      <c r="B332" t="s">
+        <v>163</v>
+      </c>
+      <c r="C332" t="s">
+        <v>299</v>
+      </c>
+      <c r="D332" t="s">
+        <v>312</v>
+      </c>
+      <c r="E332" t="s">
+        <v>313</v>
+      </c>
+      <c r="F332" t="s">
+        <v>13</v>
+      </c>
+      <c r="G332" t="s">
+        <v>14</v>
+      </c>
+      <c r="H332" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>162</v>
+      </c>
+      <c r="B333" t="s">
+        <v>163</v>
+      </c>
+      <c r="C333" t="s">
+        <v>366</v>
+      </c>
+      <c r="D333" t="s">
+        <v>367</v>
+      </c>
+      <c r="E333" t="s">
+        <v>368</v>
+      </c>
+      <c r="F333" t="s">
+        <v>14</v>
+      </c>
+      <c r="G333" t="s">
+        <v>14</v>
+      </c>
+      <c r="H333" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>162</v>
+      </c>
+      <c r="B334" t="s">
+        <v>163</v>
+      </c>
+      <c r="C334" t="s">
+        <v>369</v>
+      </c>
+      <c r="D334" t="s">
+        <v>370</v>
+      </c>
+      <c r="E334" t="s">
+        <v>371</v>
+      </c>
+      <c r="F334" t="s">
+        <v>14</v>
+      </c>
+      <c r="G334" t="s">
+        <v>14</v>
+      </c>
+      <c r="H334" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>162</v>
+      </c>
+      <c r="B335" t="s">
+        <v>163</v>
+      </c>
+      <c r="C335" t="s">
+        <v>388</v>
+      </c>
+      <c r="D335" t="s">
+        <v>407</v>
+      </c>
+      <c r="E335" t="s">
+        <v>408</v>
+      </c>
+      <c r="F335" t="s">
+        <v>14</v>
+      </c>
+      <c r="G335" t="s">
+        <v>14</v>
+      </c>
+      <c r="H335" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>162</v>
+      </c>
+      <c r="B336" t="s">
+        <v>163</v>
+      </c>
+      <c r="C336" t="s">
+        <v>409</v>
+      </c>
+      <c r="D336" t="s">
+        <v>424</v>
+      </c>
+      <c r="E336" t="s">
+        <v>425</v>
+      </c>
+      <c r="F336" t="s">
+        <v>14</v>
+      </c>
+      <c r="G336" t="s">
+        <v>14</v>
+      </c>
+      <c r="H336" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>162</v>
+      </c>
+      <c r="B337" t="s">
+        <v>163</v>
+      </c>
+      <c r="C337" t="s">
+        <v>426</v>
+      </c>
+      <c r="D337" t="s">
+        <v>439</v>
+      </c>
+      <c r="E337" t="s">
+        <v>440</v>
+      </c>
+      <c r="F337" t="s">
+        <v>14</v>
+      </c>
+      <c r="G337" t="s">
+        <v>14</v>
+      </c>
+      <c r="H337" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>162</v>
+      </c>
+      <c r="B338" t="s">
+        <v>163</v>
+      </c>
+      <c r="C338" t="s">
+        <v>441</v>
+      </c>
+      <c r="D338" t="s">
+        <v>452</v>
+      </c>
+      <c r="E338" t="s">
+        <v>453</v>
+      </c>
+      <c r="F338" t="s">
+        <v>14</v>
+      </c>
+      <c r="G338" t="s">
+        <v>14</v>
+      </c>
+      <c r="H338" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>162</v>
+      </c>
+      <c r="B339" t="s">
+        <v>163</v>
+      </c>
+      <c r="C339" t="s">
+        <v>454</v>
+      </c>
+      <c r="D339" t="s">
+        <v>465</v>
+      </c>
+      <c r="E339" t="s">
+        <v>466</v>
+      </c>
+      <c r="F339" t="s">
+        <v>14</v>
+      </c>
+      <c r="G339" t="s">
+        <v>14</v>
+      </c>
+      <c r="H339" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>162</v>
+      </c>
+      <c r="B340" t="s">
+        <v>163</v>
+      </c>
+      <c r="C340" t="s">
+        <v>467</v>
+      </c>
+      <c r="D340" t="s">
+        <v>472</v>
+      </c>
+      <c r="E340" t="s">
+        <v>473</v>
+      </c>
+      <c r="F340" t="s">
+        <v>14</v>
+      </c>
+      <c r="G340" t="s">
+        <v>14</v>
+      </c>
+      <c r="H340" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>162</v>
+      </c>
+      <c r="B341" t="s">
+        <v>163</v>
+      </c>
+      <c r="C341" t="s">
+        <v>474</v>
+      </c>
+      <c r="D341" t="s">
+        <v>481</v>
+      </c>
+      <c r="E341" t="s">
+        <v>482</v>
+      </c>
+      <c r="F341" t="s">
+        <v>14</v>
+      </c>
+      <c r="G341" t="s">
+        <v>14</v>
+      </c>
+      <c r="H341" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>162</v>
+      </c>
+      <c r="B342" t="s">
+        <v>163</v>
+      </c>
+      <c r="C342" t="s">
+        <v>483</v>
+      </c>
+      <c r="D342" t="s">
+        <v>486</v>
+      </c>
+      <c r="E342" t="s">
+        <v>487</v>
+      </c>
+      <c r="F342" t="s">
+        <v>14</v>
+      </c>
+      <c r="G342" t="s">
+        <v>14</v>
+      </c>
+      <c r="H342" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>162</v>
+      </c>
+      <c r="B343" t="s">
+        <v>163</v>
+      </c>
+      <c r="C343" t="s">
+        <v>530</v>
+      </c>
+      <c r="D343" t="s">
+        <v>547</v>
+      </c>
+      <c r="E343" t="s">
+        <v>548</v>
+      </c>
+      <c r="F343" t="s">
+        <v>14</v>
+      </c>
+      <c r="G343" t="s">
+        <v>14</v>
+      </c>
+      <c r="H343" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>162</v>
+      </c>
+      <c r="B344" t="s">
+        <v>163</v>
+      </c>
+      <c r="C344" t="s">
+        <v>549</v>
+      </c>
+      <c r="D344" t="s">
+        <v>566</v>
+      </c>
+      <c r="E344" t="s">
+        <v>567</v>
+      </c>
+      <c r="F344" t="s">
+        <v>14</v>
+      </c>
+      <c r="G344" t="s">
+        <v>14</v>
+      </c>
+      <c r="H344" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>162</v>
+      </c>
+      <c r="B345" t="s">
+        <v>163</v>
+      </c>
+      <c r="C345" t="s">
+        <v>568</v>
+      </c>
+      <c r="D345" t="s">
+        <v>573</v>
+      </c>
+      <c r="E345" t="s">
+        <v>574</v>
+      </c>
+      <c r="F345" t="s">
+        <v>14</v>
+      </c>
+      <c r="G345" t="s">
+        <v>14</v>
+      </c>
+      <c r="H345" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>162</v>
+      </c>
+      <c r="B346" t="s">
+        <v>163</v>
+      </c>
+      <c r="C346" t="s">
+        <v>575</v>
+      </c>
+      <c r="D346" t="s">
+        <v>576</v>
+      </c>
+      <c r="E346" t="s">
+        <v>577</v>
+      </c>
+      <c r="F346" t="s">
+        <v>14</v>
+      </c>
+      <c r="G346" t="s">
+        <v>14</v>
+      </c>
+      <c r="H346" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>162</v>
+      </c>
+      <c r="B347" t="s">
+        <v>163</v>
+      </c>
+      <c r="C347" t="s">
         <v>578</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D347" t="s">
         <v>581</v>
       </c>
-      <c r="E320" t="s">
+      <c r="E347" t="s">
         <v>582</v>
       </c>
-      <c r="F320" t="s">
-        <v>14</v>
-      </c>
-      <c r="G320" t="s">
-        <v>14</v>
-      </c>
-      <c r="H320" t="s">
+      <c r="F347" t="s">
+        <v>14</v>
+      </c>
+      <c r="G347" t="s">
+        <v>14</v>
+      </c>
+      <c r="H347" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H320">
-    <sortCondition ref="A2:A320"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H378">
+    <sortCondition ref="A2:A378"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/data/data-wrangling-intermediate/01b_edited-species8_location-dependent-final-fix.xlsx
+++ b/data/data-wrangling-intermediate/01b_edited-species8_location-dependent-final-fix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:40009_{0BA8441D-1008-43DB-A010-9C50448DAA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2DB5803-D0BC-466C-BA12-ECD83B8EEB55}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="13_ncr:40009_{0BA8441D-1008-43DB-A010-9C50448DAA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A2B9B70-8F0C-41C5-A33F-E2FD05A5E8A3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41295" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="905">
   <si>
     <t>Region</t>
   </si>
@@ -2650,9 +2650,6 @@
     <t>UNGRS-1.SRER</t>
   </si>
   <si>
-    <t>Unknown grass 6, SRER</t>
-  </si>
-  <si>
     <t>Unknown grass (SRER); Small tuft grass, bouteloua like growth, heads as nodes, SRER</t>
   </si>
   <si>
@@ -2732,6 +2729,12 @@
   </si>
   <si>
     <t>Eriogonum sp..UtahPJ</t>
+  </si>
+  <si>
+    <t>LUSP</t>
+  </si>
+  <si>
+    <t>LUSP.AguaFria</t>
   </si>
 </sst>
 </file>
@@ -3671,8 +3674,8 @@
   <dimension ref="A1:H347"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A304" sqref="A304:XFD304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4682,10 +4685,10 @@
         <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>221</v>
+        <v>903</v>
       </c>
       <c r="D39" t="s">
-        <v>222</v>
+        <v>904</v>
       </c>
       <c r="E39" t="s">
         <v>223</v>
@@ -4708,13 +4711,13 @@
         <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c r="D40" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="E40" t="s">
-        <v>301</v>
+        <v>223</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
@@ -4734,16 +4737,16 @@
         <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="D41" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="E41" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
         <v>14</v>
@@ -4760,13 +4763,13 @@
         <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="D42" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="E42" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -4786,13 +4789,13 @@
         <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D43" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="E43" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -4812,13 +4815,13 @@
         <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="D44" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="E44" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
@@ -4838,13 +4841,13 @@
         <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="D45" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="E45" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -4864,13 +4867,13 @@
         <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D46" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="E46" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -4890,13 +4893,13 @@
         <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="D47" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="E47" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
@@ -4916,22 +4919,22 @@
         <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="D48" t="s">
-        <v>809</v>
+        <v>475</v>
       </c>
       <c r="E48" t="s">
-        <v>810</v>
+        <v>476</v>
       </c>
       <c r="F48" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -4942,13 +4945,13 @@
         <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="D49" t="s">
-        <v>550</v>
+        <v>809</v>
       </c>
       <c r="E49" t="s">
-        <v>551</v>
+        <v>810</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -4968,13 +4971,13 @@
         <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="D50" t="s">
-        <v>811</v>
+        <v>550</v>
       </c>
       <c r="E50" t="s">
-        <v>812</v>
+        <v>551</v>
       </c>
       <c r="F50" t="s">
         <v>5</v>
@@ -4994,13 +4997,13 @@
         <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="D51" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E51" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F51" t="s">
         <v>5</v>
@@ -5020,16 +5023,16 @@
         <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D52" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E52" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G52" t="s">
         <v>14</v>
@@ -5046,13 +5049,13 @@
         <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D53" t="s">
-        <v>584</v>
+        <v>815</v>
       </c>
       <c r="E53" t="s">
-        <v>585</v>
+        <v>816</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
@@ -5069,25 +5072,25 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>583</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>584</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>585</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
         <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -5098,22 +5101,22 @@
         <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="D55" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
         <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -5124,22 +5127,22 @@
         <v>33</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="E56" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G56" t="s">
         <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -5150,13 +5153,13 @@
         <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="E57" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
@@ -5165,7 +5168,7 @@
         <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -5176,16 +5179,16 @@
         <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E58" t="s">
         <v>169</v>
       </c>
       <c r="F58" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
         <v>14</v>
@@ -5202,13 +5205,13 @@
         <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D59" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E59" t="s">
-        <v>731</v>
+        <v>169</v>
       </c>
       <c r="F59" t="s">
         <v>5</v>
@@ -5228,22 +5231,22 @@
         <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="D60" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="E60" t="s">
-        <v>206</v>
+        <v>731</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G60" t="s">
         <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -5254,22 +5257,22 @@
         <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D61" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E61" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F61" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
         <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -5280,13 +5283,13 @@
         <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="D62" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="E62" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="F62" t="s">
         <v>5</v>
@@ -5306,16 +5309,16 @@
         <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="D63" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="E63" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G63" t="s">
         <v>14</v>
@@ -5332,22 +5335,22 @@
         <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="D64" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="E64" t="s">
-        <v>732</v>
+        <v>303</v>
       </c>
       <c r="F64" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -5358,22 +5361,22 @@
         <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="D65" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="E65" t="s">
-        <v>336</v>
+        <v>732</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G65" t="s">
         <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -5384,22 +5387,22 @@
         <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D66" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E66" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="F66" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
         <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -5410,22 +5413,22 @@
         <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>530</v>
+        <v>347</v>
       </c>
       <c r="D67" t="s">
-        <v>531</v>
+        <v>352</v>
       </c>
       <c r="E67" t="s">
-        <v>532</v>
+        <v>353</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G67" t="s">
         <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -5436,16 +5439,16 @@
         <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="D68" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="E68" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="F68" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G68" t="s">
         <v>14</v>
@@ -5462,22 +5465,22 @@
         <v>33</v>
       </c>
       <c r="C69" t="s">
-        <v>655</v>
+        <v>549</v>
       </c>
       <c r="D69" t="s">
-        <v>656</v>
+        <v>552</v>
       </c>
       <c r="E69" t="s">
-        <v>657</v>
+        <v>553</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G69" t="s">
         <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -5485,19 +5488,19 @@
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>655</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>656</v>
       </c>
       <c r="E70" t="s">
-        <v>29</v>
+        <v>657</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G70" t="s">
         <v>14</v>
@@ -5514,22 +5517,22 @@
         <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E71" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F71" t="s">
         <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -5540,13 +5543,13 @@
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F72" t="s">
         <v>13</v>
@@ -5566,22 +5569,22 @@
         <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D73" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E73" t="s">
-        <v>720</v>
+        <v>67</v>
       </c>
       <c r="F73" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H73" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -5592,13 +5595,13 @@
         <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="D74" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="E74" t="s">
-        <v>154</v>
+        <v>720</v>
       </c>
       <c r="F74" t="s">
         <v>5</v>
@@ -5607,7 +5610,7 @@
         <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -5618,13 +5621,13 @@
         <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D75" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="E75" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5644,10 +5647,10 @@
         <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D76" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E76" t="s">
         <v>187</v>
@@ -5670,16 +5673,16 @@
         <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="D77" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="E77" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G77" t="s">
         <v>14</v>
@@ -5696,16 +5699,16 @@
         <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="D78" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="E78" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="F78" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
         <v>14</v>
@@ -5722,16 +5725,16 @@
         <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="D79" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="E79" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G79" t="s">
         <v>14</v>
@@ -5748,16 +5751,16 @@
         <v>26</v>
       </c>
       <c r="C80" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="D80" t="s">
-        <v>733</v>
+        <v>304</v>
       </c>
       <c r="E80" t="s">
-        <v>734</v>
+        <v>305</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
         <v>14</v>
@@ -5774,13 +5777,13 @@
         <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="D81" t="s">
-        <v>373</v>
+        <v>733</v>
       </c>
       <c r="E81" t="s">
-        <v>374</v>
+        <v>734</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -5800,13 +5803,13 @@
         <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D82" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E82" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
@@ -5826,13 +5829,13 @@
         <v>26</v>
       </c>
       <c r="C83" t="s">
-        <v>817</v>
+        <v>375</v>
       </c>
       <c r="D83" t="s">
-        <v>818</v>
+        <v>376</v>
       </c>
       <c r="E83" t="s">
-        <v>819</v>
+        <v>377</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
@@ -5852,13 +5855,13 @@
         <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>380</v>
+        <v>817</v>
       </c>
       <c r="D84" t="s">
-        <v>381</v>
+        <v>818</v>
       </c>
       <c r="E84" t="s">
-        <v>382</v>
+        <v>819</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -5878,13 +5881,13 @@
         <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>820</v>
+        <v>380</v>
       </c>
       <c r="D85" t="s">
-        <v>821</v>
+        <v>381</v>
       </c>
       <c r="E85" t="s">
-        <v>822</v>
+        <v>382</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -5904,13 +5907,13 @@
         <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>383</v>
+        <v>820</v>
       </c>
       <c r="D86" t="s">
-        <v>384</v>
+        <v>821</v>
       </c>
       <c r="E86" t="s">
-        <v>385</v>
+        <v>822</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
@@ -5930,13 +5933,13 @@
         <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D87" t="s">
-        <v>735</v>
+        <v>384</v>
       </c>
       <c r="E87" t="s">
-        <v>736</v>
+        <v>385</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
@@ -5956,13 +5959,13 @@
         <v>26</v>
       </c>
       <c r="C88" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D88" t="s">
-        <v>412</v>
+        <v>735</v>
       </c>
       <c r="E88" t="s">
-        <v>413</v>
+        <v>736</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -5982,13 +5985,13 @@
         <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="D89" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="E89" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -6008,13 +6011,13 @@
         <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="D90" t="s">
-        <v>823</v>
+        <v>429</v>
       </c>
       <c r="E90" t="s">
-        <v>824</v>
+        <v>430</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
@@ -6034,13 +6037,13 @@
         <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D91" t="s">
-        <v>477</v>
+        <v>823</v>
       </c>
       <c r="E91" t="s">
-        <v>478</v>
+        <v>824</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -6060,16 +6063,16 @@
         <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D92" t="s">
-        <v>825</v>
+        <v>477</v>
       </c>
       <c r="E92" t="s">
-        <v>826</v>
+        <v>478</v>
       </c>
       <c r="F92" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G92" t="s">
         <v>14</v>
@@ -6086,22 +6089,22 @@
         <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>530</v>
+        <v>483</v>
       </c>
       <c r="D93" t="s">
-        <v>533</v>
+        <v>825</v>
       </c>
       <c r="E93" t="s">
-        <v>534</v>
+        <v>826</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G93" t="s">
         <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -6112,22 +6115,22 @@
         <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>620</v>
+        <v>530</v>
       </c>
       <c r="D94" t="s">
-        <v>621</v>
+        <v>533</v>
       </c>
       <c r="E94" t="s">
-        <v>622</v>
+        <v>534</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -6135,25 +6138,25 @@
         <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>620</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>621</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>622</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H95" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -6164,22 +6167,22 @@
         <v>30</v>
       </c>
       <c r="C96" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="E96" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
         <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -6190,10 +6193,10 @@
         <v>30</v>
       </c>
       <c r="C97" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D97" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E97" t="s">
         <v>69</v>
@@ -6216,22 +6219,22 @@
         <v>30</v>
       </c>
       <c r="C98" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D98" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="F98" t="s">
         <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H98" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -6242,22 +6245,22 @@
         <v>30</v>
       </c>
       <c r="C99" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D99" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E99" t="s">
-        <v>721</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
         <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -6268,16 +6271,16 @@
         <v>30</v>
       </c>
       <c r="C100" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="D100" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="E100" t="s">
-        <v>175</v>
+        <v>721</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G100" t="s">
         <v>14</v>
@@ -6294,22 +6297,22 @@
         <v>30</v>
       </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="D101" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="E101" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="F101" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
         <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -6320,13 +6323,13 @@
         <v>30</v>
       </c>
       <c r="C102" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="D102" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="E102" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="F102" t="s">
         <v>5</v>
@@ -6346,22 +6349,22 @@
         <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="D103" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="E103" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G103" t="s">
         <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -6372,22 +6375,22 @@
         <v>30</v>
       </c>
       <c r="C104" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D104" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E104" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F104" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
         <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -6398,16 +6401,16 @@
         <v>30</v>
       </c>
       <c r="C105" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D105" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E105" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G105" t="s">
         <v>14</v>
@@ -6424,16 +6427,16 @@
         <v>30</v>
       </c>
       <c r="C106" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="D106" t="s">
-        <v>827</v>
+        <v>306</v>
       </c>
       <c r="E106" t="s">
-        <v>828</v>
+        <v>307</v>
       </c>
       <c r="F106" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
         <v>14</v>
@@ -6450,16 +6453,16 @@
         <v>30</v>
       </c>
       <c r="C107" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D107" t="s">
-        <v>354</v>
+        <v>827</v>
       </c>
       <c r="E107" t="s">
-        <v>355</v>
+        <v>828</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G107" t="s">
         <v>14</v>
@@ -6476,13 +6479,13 @@
         <v>30</v>
       </c>
       <c r="C108" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="D108" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="E108" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -6502,13 +6505,13 @@
         <v>30</v>
       </c>
       <c r="C109" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="D109" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="E109" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -6528,13 +6531,13 @@
         <v>30</v>
       </c>
       <c r="C110" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D110" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="E110" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -6554,13 +6557,13 @@
         <v>30</v>
       </c>
       <c r="C111" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="D111" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="E111" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -6580,13 +6583,13 @@
         <v>30</v>
       </c>
       <c r="C112" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="D112" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="E112" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="F112" t="s">
         <v>14</v>
@@ -6606,13 +6609,13 @@
         <v>30</v>
       </c>
       <c r="C113" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D113" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="E113" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="F113" t="s">
         <v>14</v>
@@ -6632,13 +6635,13 @@
         <v>30</v>
       </c>
       <c r="C114" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D114" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="E114" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
@@ -6658,13 +6661,13 @@
         <v>30</v>
       </c>
       <c r="C115" t="s">
-        <v>530</v>
+        <v>467</v>
       </c>
       <c r="D115" t="s">
-        <v>535</v>
+        <v>468</v>
       </c>
       <c r="E115" t="s">
-        <v>536</v>
+        <v>469</v>
       </c>
       <c r="F115" t="s">
         <v>14</v>
@@ -6673,7 +6676,7 @@
         <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -6684,13 +6687,13 @@
         <v>30</v>
       </c>
       <c r="C116" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="D116" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="E116" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="F116" t="s">
         <v>14</v>
@@ -6710,13 +6713,13 @@
         <v>30</v>
       </c>
       <c r="C117" t="s">
-        <v>737</v>
+        <v>549</v>
       </c>
       <c r="D117" t="s">
-        <v>738</v>
+        <v>554</v>
       </c>
       <c r="E117" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="F117" t="s">
         <v>14</v>
@@ -6733,19 +6736,19 @@
         <v>21</v>
       </c>
       <c r="B118" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C118" t="s">
-        <v>88</v>
+        <v>737</v>
       </c>
       <c r="D118" t="s">
-        <v>96</v>
+        <v>738</v>
       </c>
       <c r="E118" t="s">
-        <v>739</v>
+        <v>536</v>
       </c>
       <c r="F118" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G118" t="s">
         <v>14</v>
@@ -6762,22 +6765,22 @@
         <v>95</v>
       </c>
       <c r="C119" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="D119" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="E119" t="s">
-        <v>128</v>
+        <v>739</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G119" t="s">
         <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -6788,22 +6791,22 @@
         <v>95</v>
       </c>
       <c r="C120" t="s">
-        <v>726</v>
+        <v>124</v>
       </c>
       <c r="D120" t="s">
-        <v>740</v>
+        <v>127</v>
       </c>
       <c r="E120" t="s">
-        <v>741</v>
+        <v>128</v>
       </c>
       <c r="F120" t="s">
-        <v>728</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>729</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -6814,22 +6817,22 @@
         <v>95</v>
       </c>
       <c r="C121" t="s">
-        <v>299</v>
+        <v>726</v>
       </c>
       <c r="D121" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E121" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>728</v>
       </c>
       <c r="G121" t="s">
-        <v>14</v>
+        <v>729</v>
       </c>
       <c r="H121" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -6840,22 +6843,22 @@
         <v>95</v>
       </c>
       <c r="C122" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="D122" t="s">
-        <v>322</v>
+        <v>742</v>
       </c>
       <c r="E122" t="s">
-        <v>323</v>
+        <v>743</v>
       </c>
       <c r="F122" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
         <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -6866,22 +6869,22 @@
         <v>95</v>
       </c>
       <c r="C123" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="D123" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="E123" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G123" t="s">
         <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -6892,13 +6895,13 @@
         <v>95</v>
       </c>
       <c r="C124" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="D124" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="E124" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
@@ -6918,13 +6921,13 @@
         <v>95</v>
       </c>
       <c r="C125" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="D125" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="E125" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="F125" t="s">
         <v>14</v>
@@ -6944,13 +6947,13 @@
         <v>95</v>
       </c>
       <c r="C126" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="D126" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="E126" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
@@ -6970,13 +6973,13 @@
         <v>95</v>
       </c>
       <c r="C127" t="s">
-        <v>530</v>
+        <v>441</v>
       </c>
       <c r="D127" t="s">
-        <v>537</v>
+        <v>446</v>
       </c>
       <c r="E127" t="s">
-        <v>538</v>
+        <v>447</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
@@ -6985,7 +6988,7 @@
         <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -6996,13 +6999,13 @@
         <v>95</v>
       </c>
       <c r="C128" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="D128" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="E128" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
@@ -7022,13 +7025,13 @@
         <v>95</v>
       </c>
       <c r="C129" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="D129" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="E129" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
@@ -7048,13 +7051,13 @@
         <v>95</v>
       </c>
       <c r="C130" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="D130" t="s">
-        <v>829</v>
+        <v>569</v>
       </c>
       <c r="E130" t="s">
-        <v>830</v>
+        <v>570</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -7074,13 +7077,13 @@
         <v>95</v>
       </c>
       <c r="C131" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D131" t="s">
-        <v>579</v>
+        <v>829</v>
       </c>
       <c r="E131" t="s">
-        <v>580</v>
+        <v>830</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -7097,25 +7100,25 @@
         <v>21</v>
       </c>
       <c r="B132" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C132" t="s">
-        <v>65</v>
+        <v>578</v>
       </c>
       <c r="D132" t="s">
-        <v>71</v>
+        <v>579</v>
       </c>
       <c r="E132" t="s">
-        <v>72</v>
+        <v>580</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G132" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -7126,22 +7129,22 @@
         <v>70</v>
       </c>
       <c r="C133" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D133" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E133" t="s">
-        <v>722</v>
+        <v>72</v>
       </c>
       <c r="F133" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H133" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -7152,22 +7155,22 @@
         <v>70</v>
       </c>
       <c r="C134" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="D134" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E134" t="s">
-        <v>130</v>
+        <v>722</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G134" t="s">
         <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -7178,16 +7181,16 @@
         <v>70</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="D135" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="E135" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="F135" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
         <v>14</v>
@@ -7204,22 +7207,22 @@
         <v>70</v>
       </c>
       <c r="C136" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="D136" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="E136" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G136" t="s">
         <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -7230,22 +7233,22 @@
         <v>70</v>
       </c>
       <c r="C137" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D137" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E137" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F137" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
         <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -7256,16 +7259,16 @@
         <v>70</v>
       </c>
       <c r="C138" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="D138" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="E138" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G138" t="s">
         <v>14</v>
@@ -7282,16 +7285,16 @@
         <v>70</v>
       </c>
       <c r="C139" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D139" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E139" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F139" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
         <v>14</v>
@@ -7308,13 +7311,13 @@
         <v>70</v>
       </c>
       <c r="C140" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="D140" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="E140" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="F140" t="s">
         <v>5</v>
@@ -7334,16 +7337,16 @@
         <v>70</v>
       </c>
       <c r="C141" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="D141" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="E141" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G141" t="s">
         <v>14</v>
@@ -7360,22 +7363,22 @@
         <v>70</v>
       </c>
       <c r="C142" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="D142" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E142" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="F142" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
         <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -7386,13 +7389,13 @@
         <v>70</v>
       </c>
       <c r="C143" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D143" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E143" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F143" t="s">
         <v>5</v>
@@ -7412,22 +7415,22 @@
         <v>70</v>
       </c>
       <c r="C144" t="s">
-        <v>831</v>
+        <v>329</v>
       </c>
       <c r="D144" t="s">
-        <v>832</v>
+        <v>330</v>
       </c>
       <c r="E144" t="s">
-        <v>833</v>
+        <v>331</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G144" t="s">
         <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -7438,13 +7441,13 @@
         <v>70</v>
       </c>
       <c r="C145" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D145" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E145" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="F145" t="s">
         <v>14</v>
@@ -7464,13 +7467,13 @@
         <v>70</v>
       </c>
       <c r="C146" t="s">
-        <v>347</v>
+        <v>834</v>
       </c>
       <c r="D146" t="s">
-        <v>358</v>
+        <v>835</v>
       </c>
       <c r="E146" t="s">
-        <v>359</v>
+        <v>836</v>
       </c>
       <c r="F146" t="s">
         <v>14</v>
@@ -7479,7 +7482,7 @@
         <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -7490,13 +7493,13 @@
         <v>70</v>
       </c>
       <c r="C147" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="D147" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="E147" t="s">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -7516,13 +7519,13 @@
         <v>70</v>
       </c>
       <c r="C148" t="s">
-        <v>530</v>
+        <v>388</v>
       </c>
       <c r="D148" t="s">
-        <v>539</v>
+        <v>399</v>
       </c>
       <c r="E148" t="s">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -7531,7 +7534,7 @@
         <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -7542,16 +7545,16 @@
         <v>70</v>
       </c>
       <c r="C149" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="D149" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="E149" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="F149" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G149" t="s">
         <v>14</v>
@@ -7568,16 +7571,16 @@
         <v>70</v>
       </c>
       <c r="C150" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="D150" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="E150" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G150" t="s">
         <v>14</v>
@@ -7594,16 +7597,16 @@
         <v>70</v>
       </c>
       <c r="C151" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="D151" t="s">
-        <v>837</v>
+        <v>571</v>
       </c>
       <c r="E151" t="s">
-        <v>838</v>
+        <v>572</v>
       </c>
       <c r="F151" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G151" t="s">
         <v>14</v>
@@ -7620,22 +7623,22 @@
         <v>70</v>
       </c>
       <c r="C152" t="s">
-        <v>744</v>
+        <v>575</v>
       </c>
       <c r="D152" t="s">
-        <v>745</v>
+        <v>837</v>
       </c>
       <c r="E152" t="s">
-        <v>746</v>
+        <v>838</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G152" t="s">
         <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -7646,13 +7649,13 @@
         <v>70</v>
       </c>
       <c r="C153" t="s">
-        <v>659</v>
+        <v>744</v>
       </c>
       <c r="D153" t="s">
-        <v>660</v>
+        <v>745</v>
       </c>
       <c r="E153" t="s">
-        <v>661</v>
+        <v>746</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
@@ -7661,7 +7664,7 @@
         <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -7669,16 +7672,16 @@
         <v>21</v>
       </c>
       <c r="B154" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C154" t="s">
-        <v>23</v>
+        <v>659</v>
       </c>
       <c r="D154" t="s">
-        <v>24</v>
+        <v>660</v>
       </c>
       <c r="E154" t="s">
-        <v>25</v>
+        <v>661</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -7687,7 +7690,7 @@
         <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -7698,22 +7701,22 @@
         <v>22</v>
       </c>
       <c r="C155" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="E155" t="s">
-        <v>723</v>
+        <v>25</v>
       </c>
       <c r="F155" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G155" t="s">
         <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -7724,22 +7727,22 @@
         <v>22</v>
       </c>
       <c r="C156" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="D156" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="E156" t="s">
-        <v>138</v>
+        <v>723</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G156" t="s">
         <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -7750,22 +7753,22 @@
         <v>22</v>
       </c>
       <c r="C157" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="D157" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E157" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
         <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -7776,22 +7779,22 @@
         <v>22</v>
       </c>
       <c r="C158" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="D158" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="E158" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="F158" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G158" t="s">
         <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -7802,13 +7805,13 @@
         <v>22</v>
       </c>
       <c r="C159" t="s">
-        <v>296</v>
+        <v>199</v>
       </c>
       <c r="D159" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c r="E159" t="s">
-        <v>298</v>
+        <v>203</v>
       </c>
       <c r="F159" t="s">
         <v>5</v>
@@ -7817,7 +7820,7 @@
         <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -7828,13 +7831,13 @@
         <v>22</v>
       </c>
       <c r="C160" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="D160" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="E160" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="F160" t="s">
         <v>5</v>
@@ -7843,7 +7846,7 @@
         <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -7854,13 +7857,13 @@
         <v>22</v>
       </c>
       <c r="C161" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D161" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E161" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F161" t="s">
         <v>5</v>
@@ -7869,7 +7872,7 @@
         <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -7880,22 +7883,22 @@
         <v>22</v>
       </c>
       <c r="C162" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="D162" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="E162" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G162" t="s">
         <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -7906,16 +7909,16 @@
         <v>22</v>
       </c>
       <c r="C163" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="D163" t="s">
-        <v>403</v>
+        <v>345</v>
       </c>
       <c r="E163" t="s">
-        <v>404</v>
+        <v>346</v>
       </c>
       <c r="F163" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G163" t="s">
         <v>14</v>
@@ -7932,16 +7935,16 @@
         <v>22</v>
       </c>
       <c r="C164" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D164" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="E164" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G164" t="s">
         <v>14</v>
@@ -7958,13 +7961,13 @@
         <v>22</v>
       </c>
       <c r="C165" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="D165" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="E165" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="F165" t="s">
         <v>14</v>
@@ -7984,13 +7987,13 @@
         <v>22</v>
       </c>
       <c r="C166" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D166" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="E166" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="F166" t="s">
         <v>14</v>
@@ -8010,13 +8013,13 @@
         <v>22</v>
       </c>
       <c r="C167" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D167" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E167" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F167" t="s">
         <v>14</v>
@@ -8036,13 +8039,13 @@
         <v>22</v>
       </c>
       <c r="C168" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D168" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E168" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="F168" t="s">
         <v>14</v>
@@ -8062,13 +8065,13 @@
         <v>22</v>
       </c>
       <c r="C169" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D169" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E169" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
@@ -8088,13 +8091,13 @@
         <v>22</v>
       </c>
       <c r="C170" t="s">
-        <v>530</v>
+        <v>483</v>
       </c>
       <c r="D170" t="s">
-        <v>543</v>
+        <v>484</v>
       </c>
       <c r="E170" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
@@ -8103,7 +8106,7 @@
         <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -8114,13 +8117,13 @@
         <v>22</v>
       </c>
       <c r="C171" t="s">
-        <v>583</v>
+        <v>530</v>
       </c>
       <c r="D171" t="s">
-        <v>586</v>
+        <v>543</v>
       </c>
       <c r="E171" t="s">
-        <v>587</v>
+        <v>544</v>
       </c>
       <c r="F171" t="s">
         <v>14</v>
@@ -8140,13 +8143,13 @@
         <v>22</v>
       </c>
       <c r="C172" t="s">
-        <v>614</v>
+        <v>583</v>
       </c>
       <c r="D172" t="s">
-        <v>615</v>
+        <v>586</v>
       </c>
       <c r="E172" t="s">
-        <v>616</v>
+        <v>587</v>
       </c>
       <c r="F172" t="s">
         <v>14</v>
@@ -8155,7 +8158,7 @@
         <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -8163,25 +8166,25 @@
         <v>21</v>
       </c>
       <c r="B173" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C173" t="s">
-        <v>65</v>
+        <v>614</v>
       </c>
       <c r="D173" t="s">
-        <v>74</v>
+        <v>615</v>
       </c>
       <c r="E173" t="s">
-        <v>75</v>
+        <v>616</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G173" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -8192,22 +8195,22 @@
         <v>73</v>
       </c>
       <c r="C174" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D174" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E174" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="F174" t="s">
         <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H174" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -8218,16 +8221,16 @@
         <v>73</v>
       </c>
       <c r="C175" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="D175" t="s">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="E175" t="s">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="F175" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G175" t="s">
         <v>14</v>
@@ -8244,16 +8247,16 @@
         <v>73</v>
       </c>
       <c r="C176" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="D176" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="E176" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G176" t="s">
         <v>14</v>
@@ -8270,22 +8273,22 @@
         <v>73</v>
       </c>
       <c r="C177" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="D177" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="E177" t="s">
-        <v>747</v>
+        <v>311</v>
       </c>
       <c r="F177" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G177" t="s">
         <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -8296,22 +8299,22 @@
         <v>73</v>
       </c>
       <c r="C178" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="D178" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="E178" t="s">
-        <v>365</v>
+        <v>747</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G178" t="s">
         <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -8322,13 +8325,13 @@
         <v>73</v>
       </c>
       <c r="C179" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="D179" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="E179" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
@@ -8348,13 +8351,13 @@
         <v>73</v>
       </c>
       <c r="C180" t="s">
-        <v>530</v>
+        <v>388</v>
       </c>
       <c r="D180" t="s">
-        <v>545</v>
+        <v>405</v>
       </c>
       <c r="E180" t="s">
-        <v>546</v>
+        <v>406</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
@@ -8363,33 +8366,33 @@
         <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B181" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="C181" t="s">
-        <v>121</v>
+        <v>530</v>
       </c>
       <c r="D181" t="s">
-        <v>122</v>
+        <v>545</v>
       </c>
       <c r="E181" t="s">
-        <v>123</v>
+        <v>546</v>
       </c>
       <c r="F181" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G181" t="s">
         <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -8400,13 +8403,13 @@
         <v>120</v>
       </c>
       <c r="C182" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D182" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E182" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="F182" t="s">
         <v>5</v>
@@ -8426,13 +8429,13 @@
         <v>120</v>
       </c>
       <c r="C183" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="D183" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="E183" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="F183" t="s">
         <v>5</v>
@@ -8452,16 +8455,16 @@
         <v>120</v>
       </c>
       <c r="C184" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D184" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E184" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G184" t="s">
         <v>14</v>
@@ -8478,16 +8481,16 @@
         <v>120</v>
       </c>
       <c r="C185" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="D185" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="E185" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="F185" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G185" t="s">
         <v>14</v>
@@ -8504,13 +8507,13 @@
         <v>120</v>
       </c>
       <c r="C186" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D186" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E186" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F186" t="s">
         <v>5</v>
@@ -8530,22 +8533,22 @@
         <v>120</v>
       </c>
       <c r="C187" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="D187" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="E187" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="F187" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G187" t="s">
         <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -8556,22 +8559,22 @@
         <v>120</v>
       </c>
       <c r="C188" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="D188" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="E188" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="F188" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G188" t="s">
         <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -8582,22 +8585,22 @@
         <v>120</v>
       </c>
       <c r="C189" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="D189" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="E189" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G189" t="s">
         <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -8608,13 +8611,13 @@
         <v>120</v>
       </c>
       <c r="C190" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="D190" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="E190" t="s">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="F190" t="s">
         <v>14</v>
@@ -8631,19 +8634,19 @@
         <v>119</v>
       </c>
       <c r="B191" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C191" t="s">
-        <v>148</v>
+        <v>388</v>
       </c>
       <c r="D191" t="s">
-        <v>151</v>
+        <v>389</v>
       </c>
       <c r="E191" t="s">
-        <v>152</v>
+        <v>390</v>
       </c>
       <c r="F191" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G191" t="s">
         <v>14</v>
@@ -8660,16 +8663,16 @@
         <v>139</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="D192" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="E192" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="F192" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G192" t="s">
         <v>14</v>
@@ -8686,16 +8689,16 @@
         <v>139</v>
       </c>
       <c r="C193" t="s">
-        <v>839</v>
+        <v>193</v>
       </c>
       <c r="D193" t="s">
-        <v>840</v>
+        <v>194</v>
       </c>
       <c r="E193" t="s">
-        <v>841</v>
+        <v>195</v>
       </c>
       <c r="F193" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G193" t="s">
         <v>14</v>
@@ -8706,22 +8709,22 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B194" t="s">
-        <v>626</v>
+        <v>139</v>
       </c>
       <c r="C194" t="s">
-        <v>142</v>
+        <v>839</v>
       </c>
       <c r="D194" t="s">
-        <v>748</v>
+        <v>840</v>
       </c>
       <c r="E194" t="s">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="F194" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G194" t="s">
         <v>14</v>
@@ -8738,13 +8741,13 @@
         <v>626</v>
       </c>
       <c r="C195" t="s">
-        <v>750</v>
+        <v>142</v>
       </c>
       <c r="D195" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E195" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="F195" t="s">
         <v>5</v>
@@ -8764,16 +8767,16 @@
         <v>626</v>
       </c>
       <c r="C196" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D196" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E196" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F196" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G196" t="s">
         <v>14</v>
@@ -8790,16 +8793,16 @@
         <v>626</v>
       </c>
       <c r="C197" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D197" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E197" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F197" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G197" t="s">
         <v>14</v>
@@ -8816,16 +8819,16 @@
         <v>626</v>
       </c>
       <c r="C198" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D198" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E198" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F198" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G198" t="s">
         <v>14</v>
@@ -8842,13 +8845,13 @@
         <v>626</v>
       </c>
       <c r="C199" t="s">
-        <v>627</v>
+        <v>759</v>
       </c>
       <c r="D199" t="s">
-        <v>628</v>
+        <v>760</v>
       </c>
       <c r="E199" t="s">
-        <v>629</v>
+        <v>761</v>
       </c>
       <c r="F199" t="s">
         <v>14</v>
@@ -8857,7 +8860,7 @@
         <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -8868,13 +8871,13 @@
         <v>626</v>
       </c>
       <c r="C200" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D200" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E200" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F200" t="s">
         <v>14</v>
@@ -8883,7 +8886,7 @@
         <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
@@ -8894,13 +8897,13 @@
         <v>626</v>
       </c>
       <c r="C201" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D201" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E201" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F201" t="s">
         <v>14</v>
@@ -8909,7 +8912,7 @@
         <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -8920,13 +8923,13 @@
         <v>626</v>
       </c>
       <c r="C202" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D202" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E202" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F202" t="s">
         <v>14</v>
@@ -8935,7 +8938,7 @@
         <v>14</v>
       </c>
       <c r="H202" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -8943,25 +8946,25 @@
         <v>140</v>
       </c>
       <c r="B203" t="s">
-        <v>141</v>
+        <v>626</v>
       </c>
       <c r="C203" t="s">
-        <v>142</v>
+        <v>647</v>
       </c>
       <c r="D203" t="s">
-        <v>143</v>
+        <v>648</v>
       </c>
       <c r="E203" t="s">
-        <v>144</v>
+        <v>649</v>
       </c>
       <c r="F203" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G203" t="s">
         <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -8972,22 +8975,22 @@
         <v>141</v>
       </c>
       <c r="C204" t="s">
-        <v>726</v>
+        <v>142</v>
       </c>
       <c r="D204" t="s">
-        <v>762</v>
+        <v>143</v>
       </c>
       <c r="E204" t="s">
-        <v>763</v>
+        <v>144</v>
       </c>
       <c r="F204" t="s">
-        <v>728</v>
+        <v>5</v>
       </c>
       <c r="G204" t="s">
-        <v>729</v>
+        <v>14</v>
       </c>
       <c r="H204" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -8998,22 +9001,22 @@
         <v>141</v>
       </c>
       <c r="C205" t="s">
-        <v>608</v>
+        <v>726</v>
       </c>
       <c r="D205" t="s">
-        <v>609</v>
+        <v>762</v>
       </c>
       <c r="E205" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F205" t="s">
-        <v>14</v>
+        <v>728</v>
       </c>
       <c r="G205" t="s">
-        <v>14</v>
+        <v>729</v>
       </c>
       <c r="H205" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -9024,16 +9027,16 @@
         <v>141</v>
       </c>
       <c r="C206" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="D206" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="E206" t="s">
-        <v>632</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>13</v>
+        <v>764</v>
+      </c>
+      <c r="F206" t="s">
+        <v>14</v>
       </c>
       <c r="G206" t="s">
         <v>14</v>
@@ -9050,16 +9053,16 @@
         <v>141</v>
       </c>
       <c r="C207" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="D207" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="E207" t="s">
-        <v>610</v>
-      </c>
-      <c r="F207" t="s">
-        <v>14</v>
+        <v>632</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G207" t="s">
         <v>14</v>
@@ -9073,19 +9076,19 @@
         <v>140</v>
       </c>
       <c r="B208" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C208" t="s">
-        <v>142</v>
+        <v>645</v>
       </c>
       <c r="D208" t="s">
-        <v>146</v>
+        <v>646</v>
       </c>
       <c r="E208" t="s">
-        <v>147</v>
+        <v>610</v>
       </c>
       <c r="F208" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G208" t="s">
         <v>14</v>
@@ -9102,22 +9105,22 @@
         <v>145</v>
       </c>
       <c r="C209" t="s">
-        <v>636</v>
+        <v>142</v>
       </c>
       <c r="D209" t="s">
-        <v>637</v>
+        <v>146</v>
       </c>
       <c r="E209" t="s">
-        <v>638</v>
+        <v>147</v>
       </c>
       <c r="F209" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G209" t="s">
         <v>14</v>
       </c>
       <c r="H209" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -9128,13 +9131,13 @@
         <v>145</v>
       </c>
       <c r="C210" t="s">
-        <v>713</v>
+        <v>636</v>
       </c>
       <c r="D210" t="s">
-        <v>714</v>
+        <v>637</v>
       </c>
       <c r="E210" t="s">
-        <v>715</v>
+        <v>638</v>
       </c>
       <c r="F210" t="s">
         <v>14</v>
@@ -9143,7 +9146,7 @@
         <v>14</v>
       </c>
       <c r="H210" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -9154,13 +9157,13 @@
         <v>145</v>
       </c>
       <c r="C211" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D211" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E211" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="F211" t="s">
         <v>14</v>
@@ -9169,7 +9172,7 @@
         <v>14</v>
       </c>
       <c r="H211" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
@@ -9180,13 +9183,13 @@
         <v>145</v>
       </c>
       <c r="C212" t="s">
-        <v>842</v>
+        <v>716</v>
       </c>
       <c r="D212" t="s">
-        <v>843</v>
+        <v>717</v>
       </c>
       <c r="E212" t="s">
-        <v>844</v>
+        <v>638</v>
       </c>
       <c r="F212" t="s">
         <v>14</v>
@@ -9203,16 +9206,16 @@
         <v>140</v>
       </c>
       <c r="B213" t="s">
-        <v>607</v>
+        <v>145</v>
       </c>
       <c r="C213" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D213" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E213" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F213" t="s">
         <v>14</v>
@@ -9221,7 +9224,7 @@
         <v>14</v>
       </c>
       <c r="H213" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
@@ -9232,22 +9235,22 @@
         <v>607</v>
       </c>
       <c r="C214" t="s">
-        <v>639</v>
+        <v>845</v>
       </c>
       <c r="D214" t="s">
-        <v>642</v>
+        <v>846</v>
       </c>
       <c r="E214" t="s">
-        <v>644</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>5</v>
+        <v>847</v>
+      </c>
+      <c r="F214" t="s">
+        <v>14</v>
       </c>
       <c r="G214" t="s">
         <v>14</v>
       </c>
       <c r="H214" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -9258,22 +9261,22 @@
         <v>607</v>
       </c>
       <c r="C215" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D215" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="E215" t="s">
-        <v>651</v>
-      </c>
-      <c r="F215" t="s">
-        <v>14</v>
+        <v>644</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G215" t="s">
         <v>14</v>
       </c>
       <c r="H215" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -9284,13 +9287,13 @@
         <v>607</v>
       </c>
       <c r="C216" t="s">
-        <v>718</v>
+        <v>647</v>
       </c>
       <c r="D216" t="s">
-        <v>719</v>
+        <v>650</v>
       </c>
       <c r="E216" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="F216" t="s">
         <v>14</v>
@@ -9299,27 +9302,27 @@
         <v>14</v>
       </c>
       <c r="H216" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B217" t="s">
-        <v>40</v>
+        <v>607</v>
       </c>
       <c r="C217" t="s">
-        <v>41</v>
+        <v>718</v>
       </c>
       <c r="D217" t="s">
-        <v>42</v>
+        <v>719</v>
       </c>
       <c r="E217" t="s">
-        <v>43</v>
+        <v>643</v>
       </c>
       <c r="F217" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G217" t="s">
         <v>14</v>
@@ -9336,13 +9339,13 @@
         <v>40</v>
       </c>
       <c r="C218" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="D218" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="E218" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="F218" t="s">
         <v>5</v>
@@ -9362,13 +9365,13 @@
         <v>40</v>
       </c>
       <c r="C219" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D219" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E219" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F219" t="s">
         <v>5</v>
@@ -9377,7 +9380,7 @@
         <v>14</v>
       </c>
       <c r="H219" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
@@ -9388,16 +9391,16 @@
         <v>40</v>
       </c>
       <c r="C220" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D220" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E220" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="F220" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G220" t="s">
         <v>14</v>
@@ -9414,22 +9417,22 @@
         <v>40</v>
       </c>
       <c r="C221" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="D221" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="E221" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="F221" t="s">
-        <v>728</v>
+        <v>14</v>
       </c>
       <c r="G221" t="s">
         <v>14</v>
       </c>
       <c r="H221" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
@@ -9440,22 +9443,22 @@
         <v>40</v>
       </c>
       <c r="C222" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D222" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E222" t="s">
-        <v>765</v>
+        <v>182</v>
       </c>
       <c r="F222" t="s">
-        <v>5</v>
+        <v>728</v>
       </c>
       <c r="G222" t="s">
         <v>14</v>
       </c>
       <c r="H222" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
@@ -9466,13 +9469,13 @@
         <v>40</v>
       </c>
       <c r="C223" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="D223" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="E223" t="s">
-        <v>235</v>
+        <v>765</v>
       </c>
       <c r="F223" t="s">
         <v>5</v>
@@ -9492,13 +9495,13 @@
         <v>40</v>
       </c>
       <c r="C224" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="D224" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="E224" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="F224" t="s">
         <v>5</v>
@@ -9518,22 +9521,22 @@
         <v>40</v>
       </c>
       <c r="C225" t="s">
-        <v>766</v>
+        <v>255</v>
       </c>
       <c r="D225" t="s">
-        <v>767</v>
+        <v>262</v>
       </c>
       <c r="E225" t="s">
-        <v>768</v>
+        <v>263</v>
       </c>
       <c r="F225" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G225" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H225" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -9544,22 +9547,22 @@
         <v>40</v>
       </c>
       <c r="C226" t="s">
-        <v>290</v>
+        <v>766</v>
       </c>
       <c r="D226" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E226" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F226" t="s">
         <v>13</v>
       </c>
       <c r="G226" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H226" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -9570,16 +9573,16 @@
         <v>40</v>
       </c>
       <c r="C227" t="s">
-        <v>771</v>
+        <v>290</v>
       </c>
       <c r="D227" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E227" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F227" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G227" t="s">
         <v>14</v>
@@ -9596,13 +9599,13 @@
         <v>40</v>
       </c>
       <c r="C228" t="s">
-        <v>347</v>
+        <v>771</v>
       </c>
       <c r="D228" t="s">
-        <v>360</v>
+        <v>772</v>
       </c>
       <c r="E228" t="s">
-        <v>361</v>
+        <v>773</v>
       </c>
       <c r="F228" t="s">
         <v>14</v>
@@ -9622,13 +9625,13 @@
         <v>40</v>
       </c>
       <c r="C229" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="D229" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="E229" t="s">
-        <v>774</v>
+        <v>361</v>
       </c>
       <c r="F229" t="s">
         <v>14</v>
@@ -9648,13 +9651,13 @@
         <v>40</v>
       </c>
       <c r="C230" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D230" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="E230" t="s">
-        <v>402</v>
+        <v>774</v>
       </c>
       <c r="F230" t="s">
         <v>14</v>
@@ -9674,13 +9677,13 @@
         <v>40</v>
       </c>
       <c r="C231" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D231" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="E231" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="F231" t="s">
         <v>14</v>
@@ -9700,13 +9703,13 @@
         <v>40</v>
       </c>
       <c r="C232" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="D232" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="E232" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="F232" t="s">
         <v>14</v>
@@ -9726,13 +9729,13 @@
         <v>40</v>
       </c>
       <c r="C233" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D233" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E233" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="F233" t="s">
         <v>14</v>
@@ -9752,13 +9755,13 @@
         <v>40</v>
       </c>
       <c r="C234" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="D234" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="E234" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="F234" t="s">
         <v>14</v>
@@ -9778,16 +9781,16 @@
         <v>40</v>
       </c>
       <c r="C235" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D235" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E235" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F235" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G235" t="s">
         <v>14</v>
@@ -9804,16 +9807,16 @@
         <v>40</v>
       </c>
       <c r="C236" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D236" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E236" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F236" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G236" t="s">
         <v>14</v>
@@ -9830,16 +9833,16 @@
         <v>40</v>
       </c>
       <c r="C237" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D237" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E237" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F237" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G237" t="s">
         <v>14</v>
@@ -9856,13 +9859,13 @@
         <v>40</v>
       </c>
       <c r="C238" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D238" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E238" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F238" t="s">
         <v>13</v>
@@ -9882,16 +9885,16 @@
         <v>40</v>
       </c>
       <c r="C239" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D239" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E239" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F239" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G239" t="s">
         <v>14</v>
@@ -9908,13 +9911,13 @@
         <v>40</v>
       </c>
       <c r="C240" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D240" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E240" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F240" t="s">
         <v>14</v>
@@ -9934,13 +9937,13 @@
         <v>40</v>
       </c>
       <c r="C241" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="D241" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="E241" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="F241" t="s">
         <v>14</v>
@@ -9960,13 +9963,13 @@
         <v>40</v>
       </c>
       <c r="C242" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="D242" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="E242" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="F242" t="s">
         <v>14</v>
@@ -9975,7 +9978,7 @@
         <v>14</v>
       </c>
       <c r="H242" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -9986,16 +9989,16 @@
         <v>40</v>
       </c>
       <c r="C243" t="s">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="D243" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="E243" t="s">
-        <v>590</v>
+        <v>561</v>
       </c>
       <c r="F243" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G243" t="s">
         <v>14</v>
@@ -10012,16 +10015,16 @@
         <v>40</v>
       </c>
       <c r="C244" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D244" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E244" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F244" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G244" t="s">
         <v>14</v>
@@ -10038,16 +10041,16 @@
         <v>40</v>
       </c>
       <c r="C245" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D245" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E245" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F245" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G245" t="s">
         <v>14</v>
@@ -10064,13 +10067,13 @@
         <v>40</v>
       </c>
       <c r="C246" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D246" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E246" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F246" t="s">
         <v>5</v>
@@ -10090,13 +10093,13 @@
         <v>40</v>
       </c>
       <c r="C247" t="s">
-        <v>775</v>
+        <v>598</v>
       </c>
       <c r="D247" t="s">
-        <v>776</v>
+        <v>599</v>
       </c>
       <c r="E247" t="s">
-        <v>777</v>
+        <v>600</v>
       </c>
       <c r="F247" t="s">
         <v>5</v>
@@ -10105,7 +10108,7 @@
         <v>14</v>
       </c>
       <c r="H247" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -10113,25 +10116,25 @@
         <v>8</v>
       </c>
       <c r="B248" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C248" t="s">
-        <v>10</v>
+        <v>775</v>
       </c>
       <c r="D248" t="s">
-        <v>11</v>
+        <v>776</v>
       </c>
       <c r="E248" t="s">
-        <v>12</v>
+        <v>777</v>
       </c>
       <c r="F248" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G248" t="s">
         <v>14</v>
       </c>
       <c r="H248" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -10142,16 +10145,16 @@
         <v>9</v>
       </c>
       <c r="C249" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D249" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E249" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F249" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G249" t="s">
         <v>14</v>
@@ -10168,13 +10171,13 @@
         <v>9</v>
       </c>
       <c r="C250" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D250" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E250" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F250" t="s">
         <v>5</v>
@@ -10183,7 +10186,7 @@
         <v>14</v>
       </c>
       <c r="H250" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
@@ -10194,10 +10197,10 @@
         <v>9</v>
       </c>
       <c r="C251" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D251" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E251" t="s">
         <v>46</v>
@@ -10220,7 +10223,7 @@
         <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D252" t="s">
         <v>47</v>
@@ -10246,7 +10249,7 @@
         <v>9</v>
       </c>
       <c r="C253" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D253" t="s">
         <v>47</v>
@@ -10272,22 +10275,22 @@
         <v>9</v>
       </c>
       <c r="C254" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D254" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E254" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F254" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G254" t="s">
         <v>14</v>
       </c>
       <c r="H254" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -10298,22 +10301,22 @@
         <v>9</v>
       </c>
       <c r="C255" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D255" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E255" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F255" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G255" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H255" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -10324,13 +10327,13 @@
         <v>9</v>
       </c>
       <c r="C256" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D256" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E256" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F256" t="s">
         <v>5</v>
@@ -10350,7 +10353,7 @@
         <v>9</v>
       </c>
       <c r="C257" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D257" t="s">
         <v>84</v>
@@ -10376,19 +10379,19 @@
         <v>9</v>
       </c>
       <c r="C258" t="s">
-        <v>778</v>
+        <v>86</v>
       </c>
       <c r="D258" t="s">
-        <v>779</v>
+        <v>84</v>
       </c>
       <c r="E258" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F258" t="s">
         <v>5</v>
       </c>
       <c r="G258" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H258" t="s">
         <v>44</v>
@@ -10402,7 +10405,7 @@
         <v>9</v>
       </c>
       <c r="C259" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D259" t="s">
         <v>779</v>
@@ -10428,10 +10431,10 @@
         <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>99</v>
+        <v>780</v>
       </c>
       <c r="D260" t="s">
-        <v>100</v>
+        <v>779</v>
       </c>
       <c r="E260" t="s">
         <v>101</v>
@@ -10454,10 +10457,10 @@
         <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D261" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E261" t="s">
         <v>101</v>
@@ -10480,7 +10483,7 @@
         <v>9</v>
       </c>
       <c r="C262" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D262" t="s">
         <v>106</v>
@@ -10506,7 +10509,7 @@
         <v>9</v>
       </c>
       <c r="C263" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="D263" t="s">
         <v>106</v>
@@ -10532,7 +10535,7 @@
         <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>783</v>
+        <v>50</v>
       </c>
       <c r="D264" t="s">
         <v>106</v>
@@ -10558,22 +10561,22 @@
         <v>9</v>
       </c>
       <c r="C265" t="s">
-        <v>108</v>
+        <v>783</v>
       </c>
       <c r="D265" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E265" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F265" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G265" t="s">
         <v>14</v>
       </c>
       <c r="H265" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
@@ -10584,16 +10587,16 @@
         <v>9</v>
       </c>
       <c r="C266" t="s">
-        <v>848</v>
+        <v>108</v>
       </c>
       <c r="D266" t="s">
-        <v>849</v>
+        <v>109</v>
       </c>
       <c r="E266" t="s">
-        <v>850</v>
+        <v>110</v>
       </c>
       <c r="F266" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G266" t="s">
         <v>14</v>
@@ -10610,13 +10613,13 @@
         <v>9</v>
       </c>
       <c r="C267" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D267" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E267" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F267" t="s">
         <v>5</v>
@@ -10636,13 +10639,13 @@
         <v>9</v>
       </c>
       <c r="C268" t="s">
-        <v>148</v>
+        <v>851</v>
       </c>
       <c r="D268" t="s">
-        <v>157</v>
+        <v>852</v>
       </c>
       <c r="E268" t="s">
-        <v>158</v>
+        <v>853</v>
       </c>
       <c r="F268" t="s">
         <v>5</v>
@@ -10662,13 +10665,13 @@
         <v>9</v>
       </c>
       <c r="C269" t="s">
-        <v>854</v>
+        <v>148</v>
       </c>
       <c r="D269" t="s">
-        <v>855</v>
+        <v>157</v>
       </c>
       <c r="E269" t="s">
-        <v>856</v>
+        <v>158</v>
       </c>
       <c r="F269" t="s">
         <v>5</v>
@@ -10688,13 +10691,13 @@
         <v>9</v>
       </c>
       <c r="C270" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D270" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E270" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F270" t="s">
         <v>5</v>
@@ -10714,13 +10717,13 @@
         <v>9</v>
       </c>
       <c r="C271" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D271" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E271" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="F271" t="s">
         <v>5</v>
@@ -10729,7 +10732,7 @@
         <v>14</v>
       </c>
       <c r="H271" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -10740,13 +10743,13 @@
         <v>9</v>
       </c>
       <c r="C272" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D272" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E272" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F272" t="s">
         <v>5</v>
@@ -10755,7 +10758,7 @@
         <v>14</v>
       </c>
       <c r="H272" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
@@ -10766,13 +10769,13 @@
         <v>9</v>
       </c>
       <c r="C273" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D273" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E273" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="F273" t="s">
         <v>5</v>
@@ -10792,13 +10795,13 @@
         <v>9</v>
       </c>
       <c r="C274" t="s">
-        <v>199</v>
+        <v>866</v>
       </c>
       <c r="D274" t="s">
-        <v>781</v>
+        <v>867</v>
       </c>
       <c r="E274" t="s">
-        <v>782</v>
+        <v>868</v>
       </c>
       <c r="F274" t="s">
         <v>5</v>
@@ -10818,16 +10821,16 @@
         <v>9</v>
       </c>
       <c r="C275" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D275" t="s">
-        <v>219</v>
+        <v>781</v>
       </c>
       <c r="E275" t="s">
-        <v>220</v>
+        <v>782</v>
       </c>
       <c r="F275" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G275" t="s">
         <v>14</v>
@@ -10844,16 +10847,16 @@
         <v>9</v>
       </c>
       <c r="C276" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D276" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="E276" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="F276" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G276" t="s">
         <v>14</v>
@@ -10870,13 +10873,13 @@
         <v>9</v>
       </c>
       <c r="C277" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D277" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E277" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F277" t="s">
         <v>5</v>
@@ -10885,7 +10888,7 @@
         <v>14</v>
       </c>
       <c r="H277" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
@@ -10896,22 +10899,22 @@
         <v>9</v>
       </c>
       <c r="C278" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D278" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E278" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F278" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G278" t="s">
         <v>14</v>
       </c>
       <c r="H278" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
@@ -10922,22 +10925,22 @@
         <v>9</v>
       </c>
       <c r="C279" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="D279" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E279" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F279" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G279" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H279" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
@@ -10948,22 +10951,22 @@
         <v>9</v>
       </c>
       <c r="C280" t="s">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="D280" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="E280" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="F280" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G280" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H280" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
@@ -10974,16 +10977,16 @@
         <v>9</v>
       </c>
       <c r="C281" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="D281" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="E281" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="F281" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G281" t="s">
         <v>14</v>
@@ -11000,13 +11003,13 @@
         <v>9</v>
       </c>
       <c r="C282" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D282" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E282" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F282" t="s">
         <v>14</v>
@@ -11026,13 +11029,13 @@
         <v>9</v>
       </c>
       <c r="C283" t="s">
-        <v>771</v>
+        <v>340</v>
       </c>
       <c r="D283" t="s">
-        <v>784</v>
+        <v>341</v>
       </c>
       <c r="E283" t="s">
-        <v>785</v>
+        <v>342</v>
       </c>
       <c r="F283" t="s">
         <v>14</v>
@@ -11052,13 +11055,13 @@
         <v>9</v>
       </c>
       <c r="C284" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="D284" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E284" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F284" t="s">
         <v>14</v>
@@ -11078,13 +11081,13 @@
         <v>9</v>
       </c>
       <c r="C285" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D285" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E285" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F285" t="s">
         <v>14</v>
@@ -11104,13 +11107,13 @@
         <v>9</v>
       </c>
       <c r="C286" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D286" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E286" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F286" t="s">
         <v>14</v>
@@ -11130,13 +11133,13 @@
         <v>9</v>
       </c>
       <c r="C287" t="s">
-        <v>869</v>
+        <v>792</v>
       </c>
       <c r="D287" t="s">
-        <v>870</v>
+        <v>793</v>
       </c>
       <c r="E287" t="s">
-        <v>871</v>
+        <v>794</v>
       </c>
       <c r="F287" t="s">
         <v>14</v>
@@ -11156,13 +11159,13 @@
         <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>347</v>
+        <v>869</v>
       </c>
       <c r="D288" t="s">
-        <v>362</v>
+        <v>870</v>
       </c>
       <c r="E288" t="s">
-        <v>363</v>
+        <v>871</v>
       </c>
       <c r="F288" t="s">
         <v>14</v>
@@ -11182,13 +11185,13 @@
         <v>9</v>
       </c>
       <c r="C289" t="s">
-        <v>409</v>
+        <v>347</v>
       </c>
       <c r="D289" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="E289" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="F289" t="s">
         <v>14</v>
@@ -11208,13 +11211,13 @@
         <v>9</v>
       </c>
       <c r="C290" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="D290" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="E290" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="F290" t="s">
         <v>14</v>
@@ -11234,13 +11237,13 @@
         <v>9</v>
       </c>
       <c r="C291" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="D291" t="s">
-        <v>872</v>
+        <v>435</v>
       </c>
       <c r="E291" t="s">
-        <v>873</v>
+        <v>436</v>
       </c>
       <c r="F291" t="s">
         <v>14</v>
@@ -11260,13 +11263,13 @@
         <v>9</v>
       </c>
       <c r="C292" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D292" t="s">
-        <v>461</v>
+        <v>872</v>
       </c>
       <c r="E292" t="s">
-        <v>462</v>
+        <v>873</v>
       </c>
       <c r="F292" t="s">
         <v>14</v>
@@ -11286,13 +11289,13 @@
         <v>9</v>
       </c>
       <c r="C293" t="s">
-        <v>509</v>
+        <v>454</v>
       </c>
       <c r="D293" t="s">
-        <v>510</v>
+        <v>461</v>
       </c>
       <c r="E293" t="s">
-        <v>511</v>
+        <v>462</v>
       </c>
       <c r="F293" t="s">
         <v>14</v>
@@ -11312,16 +11315,16 @@
         <v>9</v>
       </c>
       <c r="C294" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D294" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E294" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F294" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G294" t="s">
         <v>14</v>
@@ -11338,13 +11341,13 @@
         <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D295" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E295" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F295" t="s">
         <v>13</v>
@@ -11364,16 +11367,16 @@
         <v>9</v>
       </c>
       <c r="C296" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D296" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E296" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F296" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G296" t="s">
         <v>14</v>
@@ -11390,16 +11393,16 @@
         <v>9</v>
       </c>
       <c r="C297" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D297" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E297" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F297" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G297" t="s">
         <v>14</v>
@@ -11416,13 +11419,13 @@
         <v>9</v>
       </c>
       <c r="C298" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D298" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E298" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F298" t="s">
         <v>13</v>
@@ -11431,7 +11434,7 @@
         <v>14</v>
       </c>
       <c r="H298" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
@@ -11442,16 +11445,16 @@
         <v>9</v>
       </c>
       <c r="C299" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D299" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="E299" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="F299" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G299" t="s">
         <v>14</v>
@@ -11468,16 +11471,16 @@
         <v>9</v>
       </c>
       <c r="C300" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="D300" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="E300" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="F300" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G300" t="s">
         <v>14</v>
@@ -11494,16 +11497,16 @@
         <v>9</v>
       </c>
       <c r="C301" t="s">
-        <v>874</v>
+        <v>549</v>
       </c>
       <c r="D301" t="s">
-        <v>875</v>
+        <v>562</v>
       </c>
       <c r="E301" t="s">
-        <v>876</v>
+        <v>563</v>
       </c>
       <c r="F301" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G301" t="s">
         <v>14</v>
@@ -11520,16 +11523,16 @@
         <v>9</v>
       </c>
       <c r="C302" t="s">
-        <v>588</v>
+        <v>874</v>
       </c>
       <c r="D302" t="s">
-        <v>591</v>
+        <v>875</v>
       </c>
       <c r="E302" t="s">
         <v>877</v>
       </c>
       <c r="F302" t="s">
-        <v>13</v>
+        <v>728</v>
       </c>
       <c r="G302" t="s">
         <v>14</v>
@@ -11552,10 +11555,10 @@
         <v>591</v>
       </c>
       <c r="E303" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F303" t="s">
-        <v>728</v>
+        <v>13</v>
       </c>
       <c r="G303" t="s">
         <v>14</v>
@@ -11650,13 +11653,13 @@
         <v>267</v>
       </c>
       <c r="C307" t="s">
+        <v>878</v>
+      </c>
+      <c r="D307" t="s">
         <v>879</v>
       </c>
-      <c r="D307" t="s">
+      <c r="E307" t="s">
         <v>880</v>
-      </c>
-      <c r="E307" t="s">
-        <v>881</v>
       </c>
       <c r="F307" t="s">
         <v>5</v>
@@ -11676,13 +11679,13 @@
         <v>267</v>
       </c>
       <c r="C308" t="s">
+        <v>881</v>
+      </c>
+      <c r="D308" t="s">
         <v>882</v>
       </c>
-      <c r="D308" t="s">
+      <c r="E308" t="s">
         <v>883</v>
-      </c>
-      <c r="E308" t="s">
-        <v>884</v>
       </c>
       <c r="F308" t="s">
         <v>5</v>
@@ -11705,10 +11708,10 @@
         <v>269</v>
       </c>
       <c r="D309" t="s">
+        <v>884</v>
+      </c>
+      <c r="E309" t="s">
         <v>885</v>
-      </c>
-      <c r="E309" t="s">
-        <v>886</v>
       </c>
       <c r="F309" t="s">
         <v>5</v>
@@ -11731,10 +11734,10 @@
         <v>272</v>
       </c>
       <c r="D310" t="s">
+        <v>886</v>
+      </c>
+      <c r="E310" t="s">
         <v>887</v>
-      </c>
-      <c r="E310" t="s">
-        <v>888</v>
       </c>
       <c r="F310" t="s">
         <v>5</v>
@@ -11757,10 +11760,10 @@
         <v>275</v>
       </c>
       <c r="D311" t="s">
+        <v>888</v>
+      </c>
+      <c r="E311" t="s">
         <v>889</v>
-      </c>
-      <c r="E311" t="s">
-        <v>890</v>
       </c>
       <c r="F311" t="s">
         <v>5</v>
@@ -11858,13 +11861,13 @@
         <v>268</v>
       </c>
       <c r="C315" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D315" t="s">
+        <v>890</v>
+      </c>
+      <c r="E315" t="s">
         <v>891</v>
-      </c>
-      <c r="E315" t="s">
-        <v>892</v>
       </c>
       <c r="F315" t="s">
         <v>5</v>
@@ -11884,13 +11887,13 @@
         <v>268</v>
       </c>
       <c r="C316" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D316" t="s">
+        <v>892</v>
+      </c>
+      <c r="E316" t="s">
         <v>893</v>
-      </c>
-      <c r="E316" t="s">
-        <v>894</v>
       </c>
       <c r="F316" t="s">
         <v>5</v>
@@ -11913,10 +11916,10 @@
         <v>269</v>
       </c>
       <c r="D317" t="s">
+        <v>894</v>
+      </c>
+      <c r="E317" t="s">
         <v>895</v>
-      </c>
-      <c r="E317" t="s">
-        <v>896</v>
       </c>
       <c r="F317" t="s">
         <v>5</v>
@@ -11939,10 +11942,10 @@
         <v>272</v>
       </c>
       <c r="D318" t="s">
+        <v>896</v>
+      </c>
+      <c r="E318" t="s">
         <v>897</v>
-      </c>
-      <c r="E318" t="s">
-        <v>898</v>
       </c>
       <c r="F318" t="s">
         <v>5</v>
@@ -12043,10 +12046,10 @@
         <v>578</v>
       </c>
       <c r="D322" t="s">
+        <v>898</v>
+      </c>
+      <c r="E322" t="s">
         <v>899</v>
-      </c>
-      <c r="E322" t="s">
-        <v>900</v>
       </c>
       <c r="F322" t="s">
         <v>14</v>
@@ -12118,13 +12121,13 @@
         <v>163</v>
       </c>
       <c r="C325" t="s">
+        <v>901</v>
+      </c>
+      <c r="D325" t="s">
         <v>902</v>
       </c>
-      <c r="D325" t="s">
-        <v>903</v>
-      </c>
       <c r="E325" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F325" t="s">
         <v>5</v>

--- a/data/data-wrangling-intermediate/01b_edited-species8_location-dependent-final-fix.xlsx
+++ b/data/data-wrangling-intermediate/01b_edited-species8_location-dependent-final-fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="13_ncr:40009_{0BA8441D-1008-43DB-A010-9C50448DAA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A2B9B70-8F0C-41C5-A33F-E2FD05A5E8A3}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:40009_{0BA8441D-1008-43DB-A010-9C50448DAA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFE80E7D-CD63-4774-B964-6B4FEB52B542}"/>
   <bookViews>
     <workbookView xWindow="41295" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1348,12 +1348,6 @@
     <t>UNFO5</t>
   </si>
   <si>
-    <t>UNFO5.AguaFria</t>
-  </si>
-  <si>
-    <t>Unknown forb 5, AguaFria</t>
-  </si>
-  <si>
     <t>UNFO5.FlyingM</t>
   </si>
   <si>
@@ -2735,6 +2729,12 @@
   </si>
   <si>
     <t>LUSP.AguaFria</t>
+  </si>
+  <si>
+    <t>UNFO7.AguaFria</t>
+  </si>
+  <si>
+    <t>Unknown forb 7, AguaFria</t>
   </si>
 </sst>
 </file>
@@ -3674,8 +3674,8 @@
   <dimension ref="A1:H347"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A304" sqref="A304:XFD304"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3801,19 +3801,19 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D5" t="s">
+        <v>725</v>
+      </c>
+      <c r="E5" t="s">
+        <v>796</v>
+      </c>
+      <c r="F5" t="s">
         <v>726</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>727</v>
-      </c>
-      <c r="E5" t="s">
-        <v>798</v>
-      </c>
-      <c r="F5" t="s">
-        <v>728</v>
-      </c>
-      <c r="G5" t="s">
-        <v>729</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
@@ -3879,13 +3879,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
+        <v>797</v>
+      </c>
+      <c r="D8" t="s">
+        <v>798</v>
+      </c>
+      <c r="E8" t="s">
         <v>799</v>
-      </c>
-      <c r="D8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E8" t="s">
-        <v>801</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -3905,13 +3905,13 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
+        <v>660</v>
+      </c>
+      <c r="D9" t="s">
+        <v>661</v>
+      </c>
+      <c r="E9" t="s">
         <v>662</v>
-      </c>
-      <c r="D9" t="s">
-        <v>663</v>
-      </c>
-      <c r="E9" t="s">
-        <v>664</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -3931,13 +3931,13 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
+        <v>663</v>
+      </c>
+      <c r="D10" t="s">
+        <v>664</v>
+      </c>
+      <c r="E10" t="s">
         <v>665</v>
-      </c>
-      <c r="D10" t="s">
-        <v>666</v>
-      </c>
-      <c r="E10" t="s">
-        <v>667</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -3957,13 +3957,13 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
+        <v>666</v>
+      </c>
+      <c r="D11" t="s">
+        <v>667</v>
+      </c>
+      <c r="E11" t="s">
         <v>668</v>
-      </c>
-      <c r="D11" t="s">
-        <v>669</v>
-      </c>
-      <c r="E11" t="s">
-        <v>670</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -3983,13 +3983,13 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
+        <v>669</v>
+      </c>
+      <c r="D12" t="s">
+        <v>670</v>
+      </c>
+      <c r="E12" t="s">
         <v>671</v>
-      </c>
-      <c r="D12" t="s">
-        <v>672</v>
-      </c>
-      <c r="E12" t="s">
-        <v>673</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -4009,13 +4009,13 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D13" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E13" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -4035,13 +4035,13 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
+        <v>677</v>
+      </c>
+      <c r="D14" t="s">
+        <v>678</v>
+      </c>
+      <c r="E14" t="s">
         <v>679</v>
-      </c>
-      <c r="D14" t="s">
-        <v>680</v>
-      </c>
-      <c r="E14" t="s">
-        <v>681</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -4061,13 +4061,13 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
+        <v>689</v>
+      </c>
+      <c r="D15" t="s">
+        <v>690</v>
+      </c>
+      <c r="E15" t="s">
         <v>691</v>
-      </c>
-      <c r="D15" t="s">
-        <v>692</v>
-      </c>
-      <c r="E15" t="s">
-        <v>693</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -4087,13 +4087,13 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
+        <v>693</v>
+      </c>
+      <c r="D16" t="s">
+        <v>694</v>
+      </c>
+      <c r="E16" t="s">
         <v>695</v>
-      </c>
-      <c r="D16" t="s">
-        <v>696</v>
-      </c>
-      <c r="E16" t="s">
-        <v>697</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -4113,13 +4113,13 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
+        <v>696</v>
+      </c>
+      <c r="D17" t="s">
+        <v>697</v>
+      </c>
+      <c r="E17" t="s">
         <v>698</v>
-      </c>
-      <c r="D17" t="s">
-        <v>699</v>
-      </c>
-      <c r="E17" t="s">
-        <v>700</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -4139,13 +4139,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
+        <v>702</v>
+      </c>
+      <c r="D18" t="s">
+        <v>703</v>
+      </c>
+      <c r="E18" t="s">
         <v>704</v>
-      </c>
-      <c r="D18" t="s">
-        <v>705</v>
-      </c>
-      <c r="E18" t="s">
-        <v>706</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -4165,13 +4165,13 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D19" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E19" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -4249,7 +4249,7 @@
         <v>333</v>
       </c>
       <c r="E22" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -4269,13 +4269,13 @@
         <v>59</v>
       </c>
       <c r="C23" t="s">
+        <v>800</v>
+      </c>
+      <c r="D23" t="s">
+        <v>801</v>
+      </c>
+      <c r="E23" t="s">
         <v>802</v>
-      </c>
-      <c r="D23" t="s">
-        <v>803</v>
-      </c>
-      <c r="E23" t="s">
-        <v>804</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -4295,13 +4295,13 @@
         <v>59</v>
       </c>
       <c r="C24" t="s">
+        <v>621</v>
+      </c>
+      <c r="D24" t="s">
+        <v>622</v>
+      </c>
+      <c r="E24" t="s">
         <v>623</v>
-      </c>
-      <c r="D24" t="s">
-        <v>624</v>
-      </c>
-      <c r="E24" t="s">
-        <v>625</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
@@ -4321,13 +4321,13 @@
         <v>59</v>
       </c>
       <c r="C25" t="s">
+        <v>650</v>
+      </c>
+      <c r="D25" t="s">
+        <v>651</v>
+      </c>
+      <c r="E25" t="s">
         <v>652</v>
-      </c>
-      <c r="D25" t="s">
-        <v>653</v>
-      </c>
-      <c r="E25" t="s">
-        <v>654</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
@@ -4347,13 +4347,13 @@
         <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D26" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E26" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
@@ -4373,13 +4373,13 @@
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D27" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E27" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -4399,13 +4399,13 @@
         <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D28" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E28" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
@@ -4425,13 +4425,13 @@
         <v>59</v>
       </c>
       <c r="C29" t="s">
+        <v>673</v>
+      </c>
+      <c r="D29" t="s">
         <v>675</v>
       </c>
-      <c r="D29" t="s">
-        <v>677</v>
-      </c>
       <c r="E29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -4451,13 +4451,13 @@
         <v>59</v>
       </c>
       <c r="C30" t="s">
+        <v>680</v>
+      </c>
+      <c r="D30" t="s">
+        <v>681</v>
+      </c>
+      <c r="E30" t="s">
         <v>682</v>
-      </c>
-      <c r="D30" t="s">
-        <v>683</v>
-      </c>
-      <c r="E30" t="s">
-        <v>684</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -4477,13 +4477,13 @@
         <v>59</v>
       </c>
       <c r="C31" t="s">
+        <v>683</v>
+      </c>
+      <c r="D31" t="s">
+        <v>684</v>
+      </c>
+      <c r="E31" t="s">
         <v>685</v>
-      </c>
-      <c r="D31" t="s">
-        <v>686</v>
-      </c>
-      <c r="E31" t="s">
-        <v>687</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -4503,13 +4503,13 @@
         <v>59</v>
       </c>
       <c r="C32" t="s">
+        <v>686</v>
+      </c>
+      <c r="D32" t="s">
+        <v>687</v>
+      </c>
+      <c r="E32" t="s">
         <v>688</v>
-      </c>
-      <c r="D32" t="s">
-        <v>689</v>
-      </c>
-      <c r="E32" t="s">
-        <v>690</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -4529,13 +4529,13 @@
         <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D33" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E33" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
@@ -4555,13 +4555,13 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
+        <v>699</v>
+      </c>
+      <c r="D34" t="s">
+        <v>700</v>
+      </c>
+      <c r="E34" t="s">
         <v>701</v>
-      </c>
-      <c r="D34" t="s">
-        <v>702</v>
-      </c>
-      <c r="E34" t="s">
-        <v>703</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -4581,13 +4581,13 @@
         <v>59</v>
       </c>
       <c r="C35" t="s">
+        <v>705</v>
+      </c>
+      <c r="D35" t="s">
         <v>707</v>
       </c>
-      <c r="D35" t="s">
-        <v>709</v>
-      </c>
       <c r="E35" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -4607,13 +4607,13 @@
         <v>59</v>
       </c>
       <c r="C36" t="s">
+        <v>708</v>
+      </c>
+      <c r="D36" t="s">
+        <v>709</v>
+      </c>
+      <c r="E36" t="s">
         <v>710</v>
-      </c>
-      <c r="D36" t="s">
-        <v>711</v>
-      </c>
-      <c r="E36" t="s">
-        <v>712</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
@@ -4685,10 +4685,10 @@
         <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D39" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E39" t="s">
         <v>223</v>
@@ -4867,13 +4867,13 @@
         <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="D46" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="E46" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -4893,13 +4893,13 @@
         <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="D47" t="s">
-        <v>455</v>
+        <v>903</v>
       </c>
       <c r="E47" t="s">
-        <v>456</v>
+        <v>904</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
@@ -4919,13 +4919,13 @@
         <v>87</v>
       </c>
       <c r="C48" t="s">
+        <v>472</v>
+      </c>
+      <c r="D48" t="s">
+        <v>473</v>
+      </c>
+      <c r="E48" t="s">
         <v>474</v>
-      </c>
-      <c r="D48" t="s">
-        <v>475</v>
-      </c>
-      <c r="E48" t="s">
-        <v>476</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -4945,13 +4945,13 @@
         <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D49" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E49" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -4971,13 +4971,13 @@
         <v>87</v>
       </c>
       <c r="C50" t="s">
+        <v>547</v>
+      </c>
+      <c r="D50" t="s">
+        <v>548</v>
+      </c>
+      <c r="E50" t="s">
         <v>549</v>
-      </c>
-      <c r="D50" t="s">
-        <v>550</v>
-      </c>
-      <c r="E50" t="s">
-        <v>551</v>
       </c>
       <c r="F50" t="s">
         <v>5</v>
@@ -4997,13 +4997,13 @@
         <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D51" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E51" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F51" t="s">
         <v>5</v>
@@ -5023,13 +5023,13 @@
         <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D52" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E52" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F52" t="s">
         <v>5</v>
@@ -5049,13 +5049,13 @@
         <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D53" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E53" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
@@ -5075,13 +5075,13 @@
         <v>87</v>
       </c>
       <c r="C54" t="s">
+        <v>581</v>
+      </c>
+      <c r="D54" t="s">
+        <v>582</v>
+      </c>
+      <c r="E54" t="s">
         <v>583</v>
-      </c>
-      <c r="D54" t="s">
-        <v>584</v>
-      </c>
-      <c r="E54" t="s">
-        <v>585</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -5237,7 +5237,7 @@
         <v>179</v>
       </c>
       <c r="E60" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5367,7 +5367,7 @@
         <v>321</v>
       </c>
       <c r="E65" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F65" t="s">
         <v>5</v>
@@ -5439,13 +5439,13 @@
         <v>33</v>
       </c>
       <c r="C68" t="s">
+        <v>528</v>
+      </c>
+      <c r="D68" t="s">
+        <v>529</v>
+      </c>
+      <c r="E68" t="s">
         <v>530</v>
-      </c>
-      <c r="D68" t="s">
-        <v>531</v>
-      </c>
-      <c r="E68" t="s">
-        <v>532</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -5465,13 +5465,13 @@
         <v>33</v>
       </c>
       <c r="C69" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D69" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E69" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -5491,13 +5491,13 @@
         <v>33</v>
       </c>
       <c r="C70" t="s">
+        <v>653</v>
+      </c>
+      <c r="D70" t="s">
+        <v>654</v>
+      </c>
+      <c r="E70" t="s">
         <v>655</v>
-      </c>
-      <c r="D70" t="s">
-        <v>656</v>
-      </c>
-      <c r="E70" t="s">
-        <v>657</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -5601,7 +5601,7 @@
         <v>93</v>
       </c>
       <c r="E74" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F74" t="s">
         <v>5</v>
@@ -5780,10 +5780,10 @@
         <v>347</v>
       </c>
       <c r="D81" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E81" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -5855,13 +5855,13 @@
         <v>26</v>
       </c>
       <c r="C84" t="s">
+        <v>815</v>
+      </c>
+      <c r="D84" t="s">
+        <v>816</v>
+      </c>
+      <c r="E84" t="s">
         <v>817</v>
-      </c>
-      <c r="D84" t="s">
-        <v>818</v>
-      </c>
-      <c r="E84" t="s">
-        <v>819</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -5907,13 +5907,13 @@
         <v>26</v>
       </c>
       <c r="C86" t="s">
+        <v>818</v>
+      </c>
+      <c r="D86" t="s">
+        <v>819</v>
+      </c>
+      <c r="E86" t="s">
         <v>820</v>
-      </c>
-      <c r="D86" t="s">
-        <v>821</v>
-      </c>
-      <c r="E86" t="s">
-        <v>822</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
@@ -5962,10 +5962,10 @@
         <v>388</v>
       </c>
       <c r="D88" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E88" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -6037,13 +6037,13 @@
         <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D91" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E91" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -6063,13 +6063,13 @@
         <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D92" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E92" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -6089,13 +6089,13 @@
         <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D93" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E93" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -6115,13 +6115,13 @@
         <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D94" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E94" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -6141,13 +6141,13 @@
         <v>26</v>
       </c>
       <c r="C95" t="s">
+        <v>618</v>
+      </c>
+      <c r="D95" t="s">
+        <v>619</v>
+      </c>
+      <c r="E95" t="s">
         <v>620</v>
-      </c>
-      <c r="D95" t="s">
-        <v>621</v>
-      </c>
-      <c r="E95" t="s">
-        <v>622</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -6277,7 +6277,7 @@
         <v>94</v>
       </c>
       <c r="E100" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6456,10 +6456,10 @@
         <v>344</v>
       </c>
       <c r="D107" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E107" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F107" t="s">
         <v>5</v>
@@ -6612,10 +6612,10 @@
         <v>441</v>
       </c>
       <c r="D113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E113" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F113" t="s">
         <v>14</v>
@@ -6635,13 +6635,13 @@
         <v>30</v>
       </c>
       <c r="C114" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D114" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E114" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
@@ -6661,13 +6661,13 @@
         <v>30</v>
       </c>
       <c r="C115" t="s">
+        <v>465</v>
+      </c>
+      <c r="D115" t="s">
+        <v>466</v>
+      </c>
+      <c r="E115" t="s">
         <v>467</v>
-      </c>
-      <c r="D115" t="s">
-        <v>468</v>
-      </c>
-      <c r="E115" t="s">
-        <v>469</v>
       </c>
       <c r="F115" t="s">
         <v>14</v>
@@ -6687,13 +6687,13 @@
         <v>30</v>
       </c>
       <c r="C116" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D116" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E116" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F116" t="s">
         <v>14</v>
@@ -6713,13 +6713,13 @@
         <v>30</v>
       </c>
       <c r="C117" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D117" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E117" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F117" t="s">
         <v>14</v>
@@ -6739,13 +6739,13 @@
         <v>30</v>
       </c>
       <c r="C118" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D118" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E118" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F118" t="s">
         <v>14</v>
@@ -6771,7 +6771,7 @@
         <v>96</v>
       </c>
       <c r="E119" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -6817,19 +6817,19 @@
         <v>95</v>
       </c>
       <c r="C121" t="s">
+        <v>724</v>
+      </c>
+      <c r="D121" t="s">
+        <v>738</v>
+      </c>
+      <c r="E121" t="s">
+        <v>739</v>
+      </c>
+      <c r="F121" t="s">
         <v>726</v>
       </c>
-      <c r="D121" t="s">
-        <v>740</v>
-      </c>
-      <c r="E121" t="s">
-        <v>741</v>
-      </c>
-      <c r="F121" t="s">
-        <v>728</v>
-      </c>
       <c r="G121" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H121" t="s">
         <v>44</v>
@@ -6846,10 +6846,10 @@
         <v>299</v>
       </c>
       <c r="D122" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E122" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F122" t="s">
         <v>13</v>
@@ -6976,10 +6976,10 @@
         <v>441</v>
       </c>
       <c r="D127" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E127" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
@@ -6999,13 +6999,13 @@
         <v>95</v>
       </c>
       <c r="C128" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D128" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E128" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
@@ -7025,13 +7025,13 @@
         <v>95</v>
       </c>
       <c r="C129" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D129" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E129" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
@@ -7051,13 +7051,13 @@
         <v>95</v>
       </c>
       <c r="C130" t="s">
+        <v>566</v>
+      </c>
+      <c r="D130" t="s">
+        <v>567</v>
+      </c>
+      <c r="E130" t="s">
         <v>568</v>
-      </c>
-      <c r="D130" t="s">
-        <v>569</v>
-      </c>
-      <c r="E130" t="s">
-        <v>570</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -7077,13 +7077,13 @@
         <v>95</v>
       </c>
       <c r="C131" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D131" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E131" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -7103,13 +7103,13 @@
         <v>95</v>
       </c>
       <c r="C132" t="s">
+        <v>576</v>
+      </c>
+      <c r="D132" t="s">
+        <v>577</v>
+      </c>
+      <c r="E132" t="s">
         <v>578</v>
-      </c>
-      <c r="D132" t="s">
-        <v>579</v>
-      </c>
-      <c r="E132" t="s">
-        <v>580</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -7161,7 +7161,7 @@
         <v>97</v>
       </c>
       <c r="E134" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F134" t="s">
         <v>5</v>
@@ -7441,13 +7441,13 @@
         <v>70</v>
       </c>
       <c r="C145" t="s">
+        <v>829</v>
+      </c>
+      <c r="D145" t="s">
+        <v>830</v>
+      </c>
+      <c r="E145" t="s">
         <v>831</v>
-      </c>
-      <c r="D145" t="s">
-        <v>832</v>
-      </c>
-      <c r="E145" t="s">
-        <v>833</v>
       </c>
       <c r="F145" t="s">
         <v>14</v>
@@ -7467,13 +7467,13 @@
         <v>70</v>
       </c>
       <c r="C146" t="s">
+        <v>832</v>
+      </c>
+      <c r="D146" t="s">
+        <v>833</v>
+      </c>
+      <c r="E146" t="s">
         <v>834</v>
-      </c>
-      <c r="D146" t="s">
-        <v>835</v>
-      </c>
-      <c r="E146" t="s">
-        <v>836</v>
       </c>
       <c r="F146" t="s">
         <v>14</v>
@@ -7545,13 +7545,13 @@
         <v>70</v>
       </c>
       <c r="C149" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D149" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E149" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -7571,13 +7571,13 @@
         <v>70</v>
       </c>
       <c r="C150" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D150" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E150" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F150" t="s">
         <v>5</v>
@@ -7597,13 +7597,13 @@
         <v>70</v>
       </c>
       <c r="C151" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D151" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E151" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F151" t="s">
         <v>14</v>
@@ -7623,13 +7623,13 @@
         <v>70</v>
       </c>
       <c r="C152" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D152" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E152" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F152" t="s">
         <v>5</v>
@@ -7649,13 +7649,13 @@
         <v>70</v>
       </c>
       <c r="C153" t="s">
+        <v>742</v>
+      </c>
+      <c r="D153" t="s">
+        <v>743</v>
+      </c>
+      <c r="E153" t="s">
         <v>744</v>
-      </c>
-      <c r="D153" t="s">
-        <v>745</v>
-      </c>
-      <c r="E153" t="s">
-        <v>746</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
@@ -7675,13 +7675,13 @@
         <v>70</v>
       </c>
       <c r="C154" t="s">
+        <v>657</v>
+      </c>
+      <c r="D154" t="s">
+        <v>658</v>
+      </c>
+      <c r="E154" t="s">
         <v>659</v>
-      </c>
-      <c r="D154" t="s">
-        <v>660</v>
-      </c>
-      <c r="E154" t="s">
-        <v>661</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -7733,7 +7733,7 @@
         <v>98</v>
       </c>
       <c r="E156" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F156" t="s">
         <v>5</v>
@@ -7990,10 +7990,10 @@
         <v>441</v>
       </c>
       <c r="D166" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E166" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F166" t="s">
         <v>14</v>
@@ -8013,13 +8013,13 @@
         <v>22</v>
       </c>
       <c r="C167" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D167" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E167" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F167" t="s">
         <v>14</v>
@@ -8039,13 +8039,13 @@
         <v>22</v>
       </c>
       <c r="C168" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D168" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E168" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F168" t="s">
         <v>14</v>
@@ -8065,13 +8065,13 @@
         <v>22</v>
       </c>
       <c r="C169" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D169" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E169" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
@@ -8091,13 +8091,13 @@
         <v>22</v>
       </c>
       <c r="C170" t="s">
+        <v>481</v>
+      </c>
+      <c r="D170" t="s">
+        <v>482</v>
+      </c>
+      <c r="E170" t="s">
         <v>483</v>
-      </c>
-      <c r="D170" t="s">
-        <v>484</v>
-      </c>
-      <c r="E170" t="s">
-        <v>485</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
@@ -8117,13 +8117,13 @@
         <v>22</v>
       </c>
       <c r="C171" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D171" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E171" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F171" t="s">
         <v>14</v>
@@ -8143,13 +8143,13 @@
         <v>22</v>
       </c>
       <c r="C172" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D172" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E172" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F172" t="s">
         <v>14</v>
@@ -8169,13 +8169,13 @@
         <v>22</v>
       </c>
       <c r="C173" t="s">
+        <v>612</v>
+      </c>
+      <c r="D173" t="s">
+        <v>613</v>
+      </c>
+      <c r="E173" t="s">
         <v>614</v>
-      </c>
-      <c r="D173" t="s">
-        <v>615</v>
-      </c>
-      <c r="E173" t="s">
-        <v>616</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -8305,7 +8305,7 @@
         <v>328</v>
       </c>
       <c r="E178" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F178" t="s">
         <v>5</v>
@@ -8377,13 +8377,13 @@
         <v>73</v>
       </c>
       <c r="C181" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D181" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E181" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F181" t="s">
         <v>14</v>
@@ -8715,13 +8715,13 @@
         <v>139</v>
       </c>
       <c r="C194" t="s">
+        <v>837</v>
+      </c>
+      <c r="D194" t="s">
+        <v>838</v>
+      </c>
+      <c r="E194" t="s">
         <v>839</v>
-      </c>
-      <c r="D194" t="s">
-        <v>840</v>
-      </c>
-      <c r="E194" t="s">
-        <v>841</v>
       </c>
       <c r="F194" t="s">
         <v>14</v>
@@ -8738,16 +8738,16 @@
         <v>140</v>
       </c>
       <c r="B195" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C195" t="s">
         <v>142</v>
       </c>
       <c r="D195" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E195" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F195" t="s">
         <v>5</v>
@@ -8764,16 +8764,16 @@
         <v>140</v>
       </c>
       <c r="B196" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C196" t="s">
+        <v>748</v>
+      </c>
+      <c r="D196" t="s">
+        <v>749</v>
+      </c>
+      <c r="E196" t="s">
         <v>750</v>
-      </c>
-      <c r="D196" t="s">
-        <v>751</v>
-      </c>
-      <c r="E196" t="s">
-        <v>752</v>
       </c>
       <c r="F196" t="s">
         <v>5</v>
@@ -8790,16 +8790,16 @@
         <v>140</v>
       </c>
       <c r="B197" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C197" t="s">
+        <v>751</v>
+      </c>
+      <c r="D197" t="s">
+        <v>752</v>
+      </c>
+      <c r="E197" t="s">
         <v>753</v>
-      </c>
-      <c r="D197" t="s">
-        <v>754</v>
-      </c>
-      <c r="E197" t="s">
-        <v>755</v>
       </c>
       <c r="F197" t="s">
         <v>13</v>
@@ -8816,16 +8816,16 @@
         <v>140</v>
       </c>
       <c r="B198" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C198" t="s">
+        <v>754</v>
+      </c>
+      <c r="D198" t="s">
+        <v>755</v>
+      </c>
+      <c r="E198" t="s">
         <v>756</v>
-      </c>
-      <c r="D198" t="s">
-        <v>757</v>
-      </c>
-      <c r="E198" t="s">
-        <v>758</v>
       </c>
       <c r="F198" t="s">
         <v>5</v>
@@ -8842,16 +8842,16 @@
         <v>140</v>
       </c>
       <c r="B199" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C199" t="s">
+        <v>757</v>
+      </c>
+      <c r="D199" t="s">
+        <v>758</v>
+      </c>
+      <c r="E199" t="s">
         <v>759</v>
-      </c>
-      <c r="D199" t="s">
-        <v>760</v>
-      </c>
-      <c r="E199" t="s">
-        <v>761</v>
       </c>
       <c r="F199" t="s">
         <v>14</v>
@@ -8868,16 +8868,16 @@
         <v>140</v>
       </c>
       <c r="B200" t="s">
+        <v>624</v>
+      </c>
+      <c r="C200" t="s">
+        <v>625</v>
+      </c>
+      <c r="D200" t="s">
         <v>626</v>
       </c>
-      <c r="C200" t="s">
+      <c r="E200" t="s">
         <v>627</v>
-      </c>
-      <c r="D200" t="s">
-        <v>628</v>
-      </c>
-      <c r="E200" t="s">
-        <v>629</v>
       </c>
       <c r="F200" t="s">
         <v>14</v>
@@ -8894,16 +8894,16 @@
         <v>140</v>
       </c>
       <c r="B201" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C201" t="s">
+        <v>631</v>
+      </c>
+      <c r="D201" t="s">
+        <v>632</v>
+      </c>
+      <c r="E201" t="s">
         <v>633</v>
-      </c>
-      <c r="D201" t="s">
-        <v>634</v>
-      </c>
-      <c r="E201" t="s">
-        <v>635</v>
       </c>
       <c r="F201" t="s">
         <v>14</v>
@@ -8920,16 +8920,16 @@
         <v>140</v>
       </c>
       <c r="B202" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C202" t="s">
+        <v>637</v>
+      </c>
+      <c r="D202" t="s">
+        <v>638</v>
+      </c>
+      <c r="E202" t="s">
         <v>639</v>
-      </c>
-      <c r="D202" t="s">
-        <v>640</v>
-      </c>
-      <c r="E202" t="s">
-        <v>641</v>
       </c>
       <c r="F202" t="s">
         <v>14</v>
@@ -8946,16 +8946,16 @@
         <v>140</v>
       </c>
       <c r="B203" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C203" t="s">
+        <v>645</v>
+      </c>
+      <c r="D203" t="s">
+        <v>646</v>
+      </c>
+      <c r="E203" t="s">
         <v>647</v>
-      </c>
-      <c r="D203" t="s">
-        <v>648</v>
-      </c>
-      <c r="E203" t="s">
-        <v>649</v>
       </c>
       <c r="F203" t="s">
         <v>14</v>
@@ -9001,19 +9001,19 @@
         <v>141</v>
       </c>
       <c r="C205" t="s">
+        <v>724</v>
+      </c>
+      <c r="D205" t="s">
+        <v>760</v>
+      </c>
+      <c r="E205" t="s">
+        <v>761</v>
+      </c>
+      <c r="F205" t="s">
         <v>726</v>
       </c>
-      <c r="D205" t="s">
-        <v>762</v>
-      </c>
-      <c r="E205" t="s">
-        <v>763</v>
-      </c>
-      <c r="F205" t="s">
-        <v>728</v>
-      </c>
       <c r="G205" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H205" t="s">
         <v>44</v>
@@ -9027,13 +9027,13 @@
         <v>141</v>
       </c>
       <c r="C206" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D206" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E206" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F206" t="s">
         <v>14</v>
@@ -9053,13 +9053,13 @@
         <v>141</v>
       </c>
       <c r="C207" t="s">
+        <v>628</v>
+      </c>
+      <c r="D207" t="s">
+        <v>629</v>
+      </c>
+      <c r="E207" t="s">
         <v>630</v>
-      </c>
-      <c r="D207" t="s">
-        <v>631</v>
-      </c>
-      <c r="E207" t="s">
-        <v>632</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>13</v>
@@ -9079,13 +9079,13 @@
         <v>141</v>
       </c>
       <c r="C208" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D208" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E208" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F208" t="s">
         <v>14</v>
@@ -9131,13 +9131,13 @@
         <v>145</v>
       </c>
       <c r="C210" t="s">
+        <v>634</v>
+      </c>
+      <c r="D210" t="s">
+        <v>635</v>
+      </c>
+      <c r="E210" t="s">
         <v>636</v>
-      </c>
-      <c r="D210" t="s">
-        <v>637</v>
-      </c>
-      <c r="E210" t="s">
-        <v>638</v>
       </c>
       <c r="F210" t="s">
         <v>14</v>
@@ -9157,13 +9157,13 @@
         <v>145</v>
       </c>
       <c r="C211" t="s">
+        <v>711</v>
+      </c>
+      <c r="D211" t="s">
+        <v>712</v>
+      </c>
+      <c r="E211" t="s">
         <v>713</v>
-      </c>
-      <c r="D211" t="s">
-        <v>714</v>
-      </c>
-      <c r="E211" t="s">
-        <v>715</v>
       </c>
       <c r="F211" t="s">
         <v>14</v>
@@ -9183,13 +9183,13 @@
         <v>145</v>
       </c>
       <c r="C212" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D212" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E212" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F212" t="s">
         <v>14</v>
@@ -9209,13 +9209,13 @@
         <v>145</v>
       </c>
       <c r="C213" t="s">
+        <v>840</v>
+      </c>
+      <c r="D213" t="s">
+        <v>841</v>
+      </c>
+      <c r="E213" t="s">
         <v>842</v>
-      </c>
-      <c r="D213" t="s">
-        <v>843</v>
-      </c>
-      <c r="E213" t="s">
-        <v>844</v>
       </c>
       <c r="F213" t="s">
         <v>14</v>
@@ -9232,16 +9232,16 @@
         <v>140</v>
       </c>
       <c r="B214" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C214" t="s">
+        <v>843</v>
+      </c>
+      <c r="D214" t="s">
+        <v>844</v>
+      </c>
+      <c r="E214" t="s">
         <v>845</v>
-      </c>
-      <c r="D214" t="s">
-        <v>846</v>
-      </c>
-      <c r="E214" t="s">
-        <v>847</v>
       </c>
       <c r="F214" t="s">
         <v>14</v>
@@ -9258,16 +9258,16 @@
         <v>140</v>
       </c>
       <c r="B215" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C215" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D215" t="s">
+        <v>640</v>
+      </c>
+      <c r="E215" t="s">
         <v>642</v>
-      </c>
-      <c r="E215" t="s">
-        <v>644</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>5</v>
@@ -9284,16 +9284,16 @@
         <v>140</v>
       </c>
       <c r="B216" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C216" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D216" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E216" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F216" t="s">
         <v>14</v>
@@ -9310,16 +9310,16 @@
         <v>140</v>
       </c>
       <c r="B217" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C217" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D217" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E217" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F217" t="s">
         <v>14</v>
@@ -9452,7 +9452,7 @@
         <v>182</v>
       </c>
       <c r="F222" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G222" t="s">
         <v>14</v>
@@ -9475,7 +9475,7 @@
         <v>192</v>
       </c>
       <c r="E223" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F223" t="s">
         <v>5</v>
@@ -9547,13 +9547,13 @@
         <v>40</v>
       </c>
       <c r="C226" t="s">
+        <v>764</v>
+      </c>
+      <c r="D226" t="s">
+        <v>765</v>
+      </c>
+      <c r="E226" t="s">
         <v>766</v>
-      </c>
-      <c r="D226" t="s">
-        <v>767</v>
-      </c>
-      <c r="E226" t="s">
-        <v>768</v>
       </c>
       <c r="F226" t="s">
         <v>13</v>
@@ -9576,10 +9576,10 @@
         <v>290</v>
       </c>
       <c r="D227" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E227" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F227" t="s">
         <v>13</v>
@@ -9599,13 +9599,13 @@
         <v>40</v>
       </c>
       <c r="C228" t="s">
+        <v>769</v>
+      </c>
+      <c r="D228" t="s">
+        <v>770</v>
+      </c>
+      <c r="E228" t="s">
         <v>771</v>
-      </c>
-      <c r="D228" t="s">
-        <v>772</v>
-      </c>
-      <c r="E228" t="s">
-        <v>773</v>
       </c>
       <c r="F228" t="s">
         <v>14</v>
@@ -9657,7 +9657,7 @@
         <v>387</v>
       </c>
       <c r="E230" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F230" t="s">
         <v>14</v>
@@ -9732,10 +9732,10 @@
         <v>441</v>
       </c>
       <c r="D233" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
         <v>14</v>
@@ -9755,13 +9755,13 @@
         <v>40</v>
       </c>
       <c r="C234" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D234" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E234" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F234" t="s">
         <v>14</v>
@@ -9781,13 +9781,13 @@
         <v>40</v>
       </c>
       <c r="C235" t="s">
+        <v>486</v>
+      </c>
+      <c r="D235" t="s">
+        <v>487</v>
+      </c>
+      <c r="E235" t="s">
         <v>488</v>
-      </c>
-      <c r="D235" t="s">
-        <v>489</v>
-      </c>
-      <c r="E235" t="s">
-        <v>490</v>
       </c>
       <c r="F235" t="s">
         <v>14</v>
@@ -9807,13 +9807,13 @@
         <v>40</v>
       </c>
       <c r="C236" t="s">
+        <v>489</v>
+      </c>
+      <c r="D236" t="s">
+        <v>490</v>
+      </c>
+      <c r="E236" t="s">
         <v>491</v>
-      </c>
-      <c r="D236" t="s">
-        <v>492</v>
-      </c>
-      <c r="E236" t="s">
-        <v>493</v>
       </c>
       <c r="F236" t="s">
         <v>13</v>
@@ -9833,13 +9833,13 @@
         <v>40</v>
       </c>
       <c r="C237" t="s">
+        <v>492</v>
+      </c>
+      <c r="D237" t="s">
+        <v>493</v>
+      </c>
+      <c r="E237" t="s">
         <v>494</v>
-      </c>
-      <c r="D237" t="s">
-        <v>495</v>
-      </c>
-      <c r="E237" t="s">
-        <v>496</v>
       </c>
       <c r="F237" t="s">
         <v>14</v>
@@ -9859,13 +9859,13 @@
         <v>40</v>
       </c>
       <c r="C238" t="s">
+        <v>495</v>
+      </c>
+      <c r="D238" t="s">
+        <v>496</v>
+      </c>
+      <c r="E238" t="s">
         <v>497</v>
-      </c>
-      <c r="D238" t="s">
-        <v>498</v>
-      </c>
-      <c r="E238" t="s">
-        <v>499</v>
       </c>
       <c r="F238" t="s">
         <v>13</v>
@@ -9885,13 +9885,13 @@
         <v>40</v>
       </c>
       <c r="C239" t="s">
+        <v>498</v>
+      </c>
+      <c r="D239" t="s">
+        <v>499</v>
+      </c>
+      <c r="E239" t="s">
         <v>500</v>
-      </c>
-      <c r="D239" t="s">
-        <v>501</v>
-      </c>
-      <c r="E239" t="s">
-        <v>502</v>
       </c>
       <c r="F239" t="s">
         <v>13</v>
@@ -9911,13 +9911,13 @@
         <v>40</v>
       </c>
       <c r="C240" t="s">
+        <v>501</v>
+      </c>
+      <c r="D240" t="s">
+        <v>502</v>
+      </c>
+      <c r="E240" t="s">
         <v>503</v>
-      </c>
-      <c r="D240" t="s">
-        <v>504</v>
-      </c>
-      <c r="E240" t="s">
-        <v>505</v>
       </c>
       <c r="F240" t="s">
         <v>14</v>
@@ -9937,13 +9937,13 @@
         <v>40</v>
       </c>
       <c r="C241" t="s">
+        <v>504</v>
+      </c>
+      <c r="D241" t="s">
+        <v>505</v>
+      </c>
+      <c r="E241" t="s">
         <v>506</v>
-      </c>
-      <c r="D241" t="s">
-        <v>507</v>
-      </c>
-      <c r="E241" t="s">
-        <v>508</v>
       </c>
       <c r="F241" t="s">
         <v>14</v>
@@ -9963,13 +9963,13 @@
         <v>40</v>
       </c>
       <c r="C242" t="s">
+        <v>522</v>
+      </c>
+      <c r="D242" t="s">
+        <v>523</v>
+      </c>
+      <c r="E242" t="s">
         <v>524</v>
-      </c>
-      <c r="D242" t="s">
-        <v>525</v>
-      </c>
-      <c r="E242" t="s">
-        <v>526</v>
       </c>
       <c r="F242" t="s">
         <v>14</v>
@@ -9989,13 +9989,13 @@
         <v>40</v>
       </c>
       <c r="C243" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D243" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E243" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F243" t="s">
         <v>14</v>
@@ -10015,13 +10015,13 @@
         <v>40</v>
       </c>
       <c r="C244" t="s">
+        <v>586</v>
+      </c>
+      <c r="D244" t="s">
+        <v>587</v>
+      </c>
+      <c r="E244" t="s">
         <v>588</v>
-      </c>
-      <c r="D244" t="s">
-        <v>589</v>
-      </c>
-      <c r="E244" t="s">
-        <v>590</v>
       </c>
       <c r="F244" t="s">
         <v>13</v>
@@ -10041,13 +10041,13 @@
         <v>40</v>
       </c>
       <c r="C245" t="s">
+        <v>590</v>
+      </c>
+      <c r="D245" t="s">
+        <v>591</v>
+      </c>
+      <c r="E245" t="s">
         <v>592</v>
-      </c>
-      <c r="D245" t="s">
-        <v>593</v>
-      </c>
-      <c r="E245" t="s">
-        <v>594</v>
       </c>
       <c r="F245" t="s">
         <v>14</v>
@@ -10067,13 +10067,13 @@
         <v>40</v>
       </c>
       <c r="C246" t="s">
+        <v>593</v>
+      </c>
+      <c r="D246" t="s">
+        <v>594</v>
+      </c>
+      <c r="E246" t="s">
         <v>595</v>
-      </c>
-      <c r="D246" t="s">
-        <v>596</v>
-      </c>
-      <c r="E246" t="s">
-        <v>597</v>
       </c>
       <c r="F246" t="s">
         <v>5</v>
@@ -10093,13 +10093,13 @@
         <v>40</v>
       </c>
       <c r="C247" t="s">
+        <v>596</v>
+      </c>
+      <c r="D247" t="s">
+        <v>597</v>
+      </c>
+      <c r="E247" t="s">
         <v>598</v>
-      </c>
-      <c r="D247" t="s">
-        <v>599</v>
-      </c>
-      <c r="E247" t="s">
-        <v>600</v>
       </c>
       <c r="F247" t="s">
         <v>5</v>
@@ -10119,13 +10119,13 @@
         <v>40</v>
       </c>
       <c r="C248" t="s">
+        <v>773</v>
+      </c>
+      <c r="D248" t="s">
+        <v>774</v>
+      </c>
+      <c r="E248" t="s">
         <v>775</v>
-      </c>
-      <c r="D248" t="s">
-        <v>776</v>
-      </c>
-      <c r="E248" t="s">
-        <v>777</v>
       </c>
       <c r="F248" t="s">
         <v>5</v>
@@ -10405,10 +10405,10 @@
         <v>9</v>
       </c>
       <c r="C259" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D259" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E259" t="s">
         <v>101</v>
@@ -10431,10 +10431,10 @@
         <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D260" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E260" t="s">
         <v>101</v>
@@ -10561,7 +10561,7 @@
         <v>9</v>
       </c>
       <c r="C265" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D265" t="s">
         <v>106</v>
@@ -10613,13 +10613,13 @@
         <v>9</v>
       </c>
       <c r="C267" t="s">
+        <v>846</v>
+      </c>
+      <c r="D267" t="s">
+        <v>847</v>
+      </c>
+      <c r="E267" t="s">
         <v>848</v>
-      </c>
-      <c r="D267" t="s">
-        <v>849</v>
-      </c>
-      <c r="E267" t="s">
-        <v>850</v>
       </c>
       <c r="F267" t="s">
         <v>5</v>
@@ -10639,13 +10639,13 @@
         <v>9</v>
       </c>
       <c r="C268" t="s">
+        <v>849</v>
+      </c>
+      <c r="D268" t="s">
+        <v>850</v>
+      </c>
+      <c r="E268" t="s">
         <v>851</v>
-      </c>
-      <c r="D268" t="s">
-        <v>852</v>
-      </c>
-      <c r="E268" t="s">
-        <v>853</v>
       </c>
       <c r="F268" t="s">
         <v>5</v>
@@ -10691,13 +10691,13 @@
         <v>9</v>
       </c>
       <c r="C270" t="s">
+        <v>852</v>
+      </c>
+      <c r="D270" t="s">
+        <v>853</v>
+      </c>
+      <c r="E270" t="s">
         <v>854</v>
-      </c>
-      <c r="D270" t="s">
-        <v>855</v>
-      </c>
-      <c r="E270" t="s">
-        <v>856</v>
       </c>
       <c r="F270" t="s">
         <v>5</v>
@@ -10717,13 +10717,13 @@
         <v>9</v>
       </c>
       <c r="C271" t="s">
+        <v>855</v>
+      </c>
+      <c r="D271" t="s">
+        <v>856</v>
+      </c>
+      <c r="E271" t="s">
         <v>857</v>
-      </c>
-      <c r="D271" t="s">
-        <v>858</v>
-      </c>
-      <c r="E271" t="s">
-        <v>859</v>
       </c>
       <c r="F271" t="s">
         <v>5</v>
@@ -10743,13 +10743,13 @@
         <v>9</v>
       </c>
       <c r="C272" t="s">
+        <v>858</v>
+      </c>
+      <c r="D272" t="s">
+        <v>859</v>
+      </c>
+      <c r="E272" t="s">
         <v>860</v>
-      </c>
-      <c r="D272" t="s">
-        <v>861</v>
-      </c>
-      <c r="E272" t="s">
-        <v>862</v>
       </c>
       <c r="F272" t="s">
         <v>5</v>
@@ -10769,13 +10769,13 @@
         <v>9</v>
       </c>
       <c r="C273" t="s">
+        <v>861</v>
+      </c>
+      <c r="D273" t="s">
+        <v>862</v>
+      </c>
+      <c r="E273" t="s">
         <v>863</v>
-      </c>
-      <c r="D273" t="s">
-        <v>864</v>
-      </c>
-      <c r="E273" t="s">
-        <v>865</v>
       </c>
       <c r="F273" t="s">
         <v>5</v>
@@ -10795,13 +10795,13 @@
         <v>9</v>
       </c>
       <c r="C274" t="s">
+        <v>864</v>
+      </c>
+      <c r="D274" t="s">
+        <v>865</v>
+      </c>
+      <c r="E274" t="s">
         <v>866</v>
-      </c>
-      <c r="D274" t="s">
-        <v>867</v>
-      </c>
-      <c r="E274" t="s">
-        <v>868</v>
       </c>
       <c r="F274" t="s">
         <v>5</v>
@@ -10824,10 +10824,10 @@
         <v>199</v>
       </c>
       <c r="D275" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E275" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F275" t="s">
         <v>5</v>
@@ -11055,13 +11055,13 @@
         <v>9</v>
       </c>
       <c r="C284" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D284" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E284" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F284" t="s">
         <v>14</v>
@@ -11081,13 +11081,13 @@
         <v>9</v>
       </c>
       <c r="C285" t="s">
+        <v>784</v>
+      </c>
+      <c r="D285" t="s">
+        <v>785</v>
+      </c>
+      <c r="E285" t="s">
         <v>786</v>
-      </c>
-      <c r="D285" t="s">
-        <v>787</v>
-      </c>
-      <c r="E285" t="s">
-        <v>788</v>
       </c>
       <c r="F285" t="s">
         <v>14</v>
@@ -11107,13 +11107,13 @@
         <v>9</v>
       </c>
       <c r="C286" t="s">
+        <v>787</v>
+      </c>
+      <c r="D286" t="s">
+        <v>788</v>
+      </c>
+      <c r="E286" t="s">
         <v>789</v>
-      </c>
-      <c r="D286" t="s">
-        <v>790</v>
-      </c>
-      <c r="E286" t="s">
-        <v>791</v>
       </c>
       <c r="F286" t="s">
         <v>14</v>
@@ -11133,13 +11133,13 @@
         <v>9</v>
       </c>
       <c r="C287" t="s">
+        <v>790</v>
+      </c>
+      <c r="D287" t="s">
+        <v>791</v>
+      </c>
+      <c r="E287" t="s">
         <v>792</v>
-      </c>
-      <c r="D287" t="s">
-        <v>793</v>
-      </c>
-      <c r="E287" t="s">
-        <v>794</v>
       </c>
       <c r="F287" t="s">
         <v>14</v>
@@ -11159,13 +11159,13 @@
         <v>9</v>
       </c>
       <c r="C288" t="s">
+        <v>867</v>
+      </c>
+      <c r="D288" t="s">
+        <v>868</v>
+      </c>
+      <c r="E288" t="s">
         <v>869</v>
-      </c>
-      <c r="D288" t="s">
-        <v>870</v>
-      </c>
-      <c r="E288" t="s">
-        <v>871</v>
       </c>
       <c r="F288" t="s">
         <v>14</v>
@@ -11266,10 +11266,10 @@
         <v>441</v>
       </c>
       <c r="D292" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E292" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F292" t="s">
         <v>14</v>
@@ -11289,13 +11289,13 @@
         <v>9</v>
       </c>
       <c r="C293" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D293" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E293" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F293" t="s">
         <v>14</v>
@@ -11315,13 +11315,13 @@
         <v>9</v>
       </c>
       <c r="C294" t="s">
+        <v>507</v>
+      </c>
+      <c r="D294" t="s">
+        <v>508</v>
+      </c>
+      <c r="E294" t="s">
         <v>509</v>
-      </c>
-      <c r="D294" t="s">
-        <v>510</v>
-      </c>
-      <c r="E294" t="s">
-        <v>511</v>
       </c>
       <c r="F294" t="s">
         <v>14</v>
@@ -11341,13 +11341,13 @@
         <v>9</v>
       </c>
       <c r="C295" t="s">
+        <v>510</v>
+      </c>
+      <c r="D295" t="s">
+        <v>511</v>
+      </c>
+      <c r="E295" t="s">
         <v>512</v>
-      </c>
-      <c r="D295" t="s">
-        <v>513</v>
-      </c>
-      <c r="E295" t="s">
-        <v>514</v>
       </c>
       <c r="F295" t="s">
         <v>13</v>
@@ -11367,13 +11367,13 @@
         <v>9</v>
       </c>
       <c r="C296" t="s">
+        <v>513</v>
+      </c>
+      <c r="D296" t="s">
+        <v>514</v>
+      </c>
+      <c r="E296" t="s">
         <v>515</v>
-      </c>
-      <c r="D296" t="s">
-        <v>516</v>
-      </c>
-      <c r="E296" t="s">
-        <v>517</v>
       </c>
       <c r="F296" t="s">
         <v>13</v>
@@ -11393,13 +11393,13 @@
         <v>9</v>
       </c>
       <c r="C297" t="s">
+        <v>516</v>
+      </c>
+      <c r="D297" t="s">
+        <v>517</v>
+      </c>
+      <c r="E297" t="s">
         <v>518</v>
-      </c>
-      <c r="D297" t="s">
-        <v>519</v>
-      </c>
-      <c r="E297" t="s">
-        <v>520</v>
       </c>
       <c r="F297" t="s">
         <v>14</v>
@@ -11419,13 +11419,13 @@
         <v>9</v>
       </c>
       <c r="C298" t="s">
+        <v>519</v>
+      </c>
+      <c r="D298" t="s">
+        <v>520</v>
+      </c>
+      <c r="E298" t="s">
         <v>521</v>
-      </c>
-      <c r="D298" t="s">
-        <v>522</v>
-      </c>
-      <c r="E298" t="s">
-        <v>523</v>
       </c>
       <c r="F298" t="s">
         <v>13</v>
@@ -11445,13 +11445,13 @@
         <v>9</v>
       </c>
       <c r="C299" t="s">
+        <v>525</v>
+      </c>
+      <c r="D299" t="s">
+        <v>526</v>
+      </c>
+      <c r="E299" t="s">
         <v>527</v>
-      </c>
-      <c r="D299" t="s">
-        <v>528</v>
-      </c>
-      <c r="E299" t="s">
-        <v>529</v>
       </c>
       <c r="F299" t="s">
         <v>13</v>
@@ -11471,13 +11471,13 @@
         <v>9</v>
       </c>
       <c r="C300" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D300" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E300" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F300" t="s">
         <v>14</v>
@@ -11497,13 +11497,13 @@
         <v>9</v>
       </c>
       <c r="C301" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D301" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E301" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F301" t="s">
         <v>5</v>
@@ -11523,16 +11523,16 @@
         <v>9</v>
       </c>
       <c r="C302" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D302" t="s">
+        <v>873</v>
+      </c>
+      <c r="E302" t="s">
         <v>875</v>
       </c>
-      <c r="E302" t="s">
-        <v>877</v>
-      </c>
       <c r="F302" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G302" t="s">
         <v>14</v>
@@ -11549,13 +11549,13 @@
         <v>9</v>
       </c>
       <c r="C303" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D303" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E303" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F303" t="s">
         <v>13</v>
@@ -11575,13 +11575,13 @@
         <v>9</v>
       </c>
       <c r="C304" t="s">
+        <v>599</v>
+      </c>
+      <c r="D304" t="s">
+        <v>600</v>
+      </c>
+      <c r="E304" t="s">
         <v>601</v>
-      </c>
-      <c r="D304" t="s">
-        <v>602</v>
-      </c>
-      <c r="E304" t="s">
-        <v>603</v>
       </c>
       <c r="F304" t="s">
         <v>13</v>
@@ -11601,13 +11601,13 @@
         <v>9</v>
       </c>
       <c r="C305" t="s">
+        <v>602</v>
+      </c>
+      <c r="D305" t="s">
+        <v>603</v>
+      </c>
+      <c r="E305" t="s">
         <v>604</v>
-      </c>
-      <c r="D305" t="s">
-        <v>605</v>
-      </c>
-      <c r="E305" t="s">
-        <v>606</v>
       </c>
       <c r="F305" t="s">
         <v>5</v>
@@ -11627,13 +11627,13 @@
         <v>9</v>
       </c>
       <c r="C306" t="s">
+        <v>615</v>
+      </c>
+      <c r="D306" t="s">
+        <v>616</v>
+      </c>
+      <c r="E306" t="s">
         <v>617</v>
-      </c>
-      <c r="D306" t="s">
-        <v>618</v>
-      </c>
-      <c r="E306" t="s">
-        <v>619</v>
       </c>
       <c r="F306" t="s">
         <v>14</v>
@@ -11653,13 +11653,13 @@
         <v>267</v>
       </c>
       <c r="C307" t="s">
+        <v>876</v>
+      </c>
+      <c r="D307" t="s">
+        <v>877</v>
+      </c>
+      <c r="E307" t="s">
         <v>878</v>
-      </c>
-      <c r="D307" t="s">
-        <v>879</v>
-      </c>
-      <c r="E307" t="s">
-        <v>880</v>
       </c>
       <c r="F307" t="s">
         <v>5</v>
@@ -11679,13 +11679,13 @@
         <v>267</v>
       </c>
       <c r="C308" t="s">
+        <v>879</v>
+      </c>
+      <c r="D308" t="s">
+        <v>880</v>
+      </c>
+      <c r="E308" t="s">
         <v>881</v>
-      </c>
-      <c r="D308" t="s">
-        <v>882</v>
-      </c>
-      <c r="E308" t="s">
-        <v>883</v>
       </c>
       <c r="F308" t="s">
         <v>5</v>
@@ -11708,10 +11708,10 @@
         <v>269</v>
       </c>
       <c r="D309" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E309" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F309" t="s">
         <v>5</v>
@@ -11734,10 +11734,10 @@
         <v>272</v>
       </c>
       <c r="D310" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E310" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F310" t="s">
         <v>5</v>
@@ -11760,10 +11760,10 @@
         <v>275</v>
       </c>
       <c r="D311" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E311" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F311" t="s">
         <v>5</v>
@@ -11835,13 +11835,13 @@
         <v>267</v>
       </c>
       <c r="C314" t="s">
+        <v>609</v>
+      </c>
+      <c r="D314" t="s">
+        <v>610</v>
+      </c>
+      <c r="E314" t="s">
         <v>611</v>
-      </c>
-      <c r="D314" t="s">
-        <v>612</v>
-      </c>
-      <c r="E314" t="s">
-        <v>613</v>
       </c>
       <c r="F314" t="s">
         <v>13</v>
@@ -11861,13 +11861,13 @@
         <v>268</v>
       </c>
       <c r="C315" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D315" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E315" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F315" t="s">
         <v>5</v>
@@ -11887,13 +11887,13 @@
         <v>268</v>
       </c>
       <c r="C316" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D316" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E316" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F316" t="s">
         <v>5</v>
@@ -11916,10 +11916,10 @@
         <v>269</v>
       </c>
       <c r="D317" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E317" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F317" t="s">
         <v>5</v>
@@ -11942,10 +11942,10 @@
         <v>272</v>
       </c>
       <c r="D318" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E318" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F318" t="s">
         <v>5</v>
@@ -11965,10 +11965,10 @@
         <v>268</v>
       </c>
       <c r="C319" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D319" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E319" t="s">
         <v>343</v>
@@ -12017,13 +12017,13 @@
         <v>268</v>
       </c>
       <c r="C321" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D321" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E321" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F321" t="s">
         <v>14</v>
@@ -12043,13 +12043,13 @@
         <v>268</v>
       </c>
       <c r="C322" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D322" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E322" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F322" t="s">
         <v>14</v>
@@ -12101,7 +12101,7 @@
         <v>184</v>
       </c>
       <c r="E324" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F324" t="s">
         <v>5</v>
@@ -12121,13 +12121,13 @@
         <v>163</v>
       </c>
       <c r="C325" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D325" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E325" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F325" t="s">
         <v>5</v>
@@ -12462,10 +12462,10 @@
         <v>441</v>
       </c>
       <c r="D338" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E338" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F338" t="s">
         <v>14</v>
@@ -12485,13 +12485,13 @@
         <v>163</v>
       </c>
       <c r="C339" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D339" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E339" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F339" t="s">
         <v>14</v>
@@ -12511,13 +12511,13 @@
         <v>163</v>
       </c>
       <c r="C340" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D340" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E340" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F340" t="s">
         <v>14</v>
@@ -12537,13 +12537,13 @@
         <v>163</v>
       </c>
       <c r="C341" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D341" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E341" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F341" t="s">
         <v>14</v>
@@ -12563,13 +12563,13 @@
         <v>163</v>
       </c>
       <c r="C342" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D342" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E342" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F342" t="s">
         <v>14</v>
@@ -12589,13 +12589,13 @@
         <v>163</v>
       </c>
       <c r="C343" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D343" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E343" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F343" t="s">
         <v>14</v>
@@ -12615,13 +12615,13 @@
         <v>163</v>
       </c>
       <c r="C344" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D344" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E344" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F344" t="s">
         <v>14</v>
@@ -12641,13 +12641,13 @@
         <v>163</v>
       </c>
       <c r="C345" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D345" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E345" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F345" t="s">
         <v>14</v>
@@ -12667,13 +12667,13 @@
         <v>163</v>
       </c>
       <c r="C346" t="s">
+        <v>573</v>
+      </c>
+      <c r="D346" t="s">
+        <v>574</v>
+      </c>
+      <c r="E346" t="s">
         <v>575</v>
-      </c>
-      <c r="D346" t="s">
-        <v>576</v>
-      </c>
-      <c r="E346" t="s">
-        <v>577</v>
       </c>
       <c r="F346" t="s">
         <v>14</v>
@@ -12693,13 +12693,13 @@
         <v>163</v>
       </c>
       <c r="C347" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D347" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E347" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F347" t="s">
         <v>14</v>

--- a/data/data-wrangling-intermediate/01b_edited-species8_location-dependent-final-fix.xlsx
+++ b/data/data-wrangling-intermediate/01b_edited-species8_location-dependent-final-fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:40009_{0BA8441D-1008-43DB-A010-9C50448DAA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFE80E7D-CD63-4774-B964-6B4FEB52B542}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:40009_{0BA8441D-1008-43DB-A010-9C50448DAA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D96AEDD-4F3D-47C9-9AB9-4B3D6D796CFB}"/>
   <bookViews>
     <workbookView xWindow="41295" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="907">
   <si>
     <t>Region</t>
   </si>
@@ -2735,6 +2735,12 @@
   </si>
   <si>
     <t>Unknown forb 7, AguaFria</t>
+  </si>
+  <si>
+    <t>UNFO5.AguaFria</t>
+  </si>
+  <si>
+    <t>Unknown forb 5, AguaFria</t>
   </si>
 </sst>
 </file>
@@ -3671,11 +3677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H347"/>
+  <dimension ref="A1:H348"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4867,13 +4873,13 @@
         <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D46" t="s">
-        <v>453</v>
+        <v>905</v>
       </c>
       <c r="E46" t="s">
-        <v>454</v>
+        <v>906</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -4893,13 +4899,13 @@
         <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D47" t="s">
-        <v>903</v>
+        <v>453</v>
       </c>
       <c r="E47" t="s">
-        <v>904</v>
+        <v>454</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
@@ -4919,13 +4925,13 @@
         <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D48" t="s">
-        <v>473</v>
+        <v>903</v>
       </c>
       <c r="E48" t="s">
-        <v>474</v>
+        <v>904</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -4945,22 +4951,22 @@
         <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>528</v>
+        <v>472</v>
       </c>
       <c r="D49" t="s">
-        <v>807</v>
+        <v>473</v>
       </c>
       <c r="E49" t="s">
-        <v>808</v>
+        <v>474</v>
       </c>
       <c r="F49" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -4971,13 +4977,13 @@
         <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="D50" t="s">
-        <v>548</v>
+        <v>807</v>
       </c>
       <c r="E50" t="s">
-        <v>549</v>
+        <v>808</v>
       </c>
       <c r="F50" t="s">
         <v>5</v>
@@ -4997,13 +5003,13 @@
         <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="D51" t="s">
-        <v>809</v>
+        <v>548</v>
       </c>
       <c r="E51" t="s">
-        <v>810</v>
+        <v>549</v>
       </c>
       <c r="F51" t="s">
         <v>5</v>
@@ -5023,13 +5029,13 @@
         <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="D52" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E52" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F52" t="s">
         <v>5</v>
@@ -5049,16 +5055,16 @@
         <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D53" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E53" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G53" t="s">
         <v>14</v>
@@ -5075,13 +5081,13 @@
         <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D54" t="s">
-        <v>582</v>
+        <v>813</v>
       </c>
       <c r="E54" t="s">
-        <v>583</v>
+        <v>814</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -5098,25 +5104,25 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>581</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>582</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>583</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G55" t="s">
         <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -5127,22 +5133,22 @@
         <v>33</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
         <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -5153,22 +5159,22 @@
         <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="E57" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G57" t="s">
         <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -5179,13 +5185,13 @@
         <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="D58" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
@@ -5194,7 +5200,7 @@
         <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -5205,16 +5211,16 @@
         <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E59" t="s">
         <v>169</v>
       </c>
       <c r="F59" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
         <v>14</v>
@@ -5231,13 +5237,13 @@
         <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E60" t="s">
-        <v>729</v>
+        <v>169</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5257,22 +5263,22 @@
         <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="D61" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="E61" t="s">
-        <v>206</v>
+        <v>729</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G61" t="s">
         <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -5283,22 +5289,22 @@
         <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D62" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E62" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F62" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
         <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -5309,13 +5315,13 @@
         <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="D63" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="E63" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5335,16 +5341,16 @@
         <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="D64" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="E64" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G64" t="s">
         <v>14</v>
@@ -5361,22 +5367,22 @@
         <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="D65" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="E65" t="s">
-        <v>730</v>
+        <v>303</v>
       </c>
       <c r="F65" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
         <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -5387,22 +5393,22 @@
         <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="D66" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="E66" t="s">
-        <v>336</v>
+        <v>730</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G66" t="s">
         <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -5413,22 +5419,22 @@
         <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D67" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E67" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="F67" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G67" t="s">
         <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -5439,22 +5445,22 @@
         <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>528</v>
+        <v>347</v>
       </c>
       <c r="D68" t="s">
-        <v>529</v>
+        <v>352</v>
       </c>
       <c r="E68" t="s">
-        <v>530</v>
+        <v>353</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G68" t="s">
         <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -5465,16 +5471,16 @@
         <v>33</v>
       </c>
       <c r="C69" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="D69" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="E69" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="F69" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G69" t="s">
         <v>14</v>
@@ -5491,22 +5497,22 @@
         <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>653</v>
+        <v>547</v>
       </c>
       <c r="D70" t="s">
-        <v>654</v>
+        <v>550</v>
       </c>
       <c r="E70" t="s">
-        <v>655</v>
+        <v>551</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G70" t="s">
         <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -5514,19 +5520,19 @@
         <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>653</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>654</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>655</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
         <v>14</v>
@@ -5543,22 +5549,22 @@
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E72" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
         <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -5569,13 +5575,13 @@
         <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
@@ -5595,22 +5601,22 @@
         <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D74" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>718</v>
+        <v>67</v>
       </c>
       <c r="F74" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H74" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -5621,13 +5627,13 @@
         <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="E75" t="s">
-        <v>154</v>
+        <v>718</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5636,7 +5642,7 @@
         <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -5647,13 +5653,13 @@
         <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D76" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="E76" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="F76" t="s">
         <v>5</v>
@@ -5673,10 +5679,10 @@
         <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D77" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E77" t="s">
         <v>187</v>
@@ -5699,16 +5705,16 @@
         <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="D78" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="E78" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G78" t="s">
         <v>14</v>
@@ -5725,16 +5731,16 @@
         <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="D79" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="E79" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="F79" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
         <v>14</v>
@@ -5751,16 +5757,16 @@
         <v>26</v>
       </c>
       <c r="C80" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="D80" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="E80" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G80" t="s">
         <v>14</v>
@@ -5777,16 +5783,16 @@
         <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="D81" t="s">
-        <v>731</v>
+        <v>304</v>
       </c>
       <c r="E81" t="s">
-        <v>732</v>
+        <v>305</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
         <v>14</v>
@@ -5803,13 +5809,13 @@
         <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="D82" t="s">
-        <v>373</v>
+        <v>731</v>
       </c>
       <c r="E82" t="s">
-        <v>374</v>
+        <v>732</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
@@ -5829,13 +5835,13 @@
         <v>26</v>
       </c>
       <c r="C83" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D83" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E83" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
@@ -5855,13 +5861,13 @@
         <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>815</v>
+        <v>375</v>
       </c>
       <c r="D84" t="s">
-        <v>816</v>
+        <v>376</v>
       </c>
       <c r="E84" t="s">
-        <v>817</v>
+        <v>377</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -5881,13 +5887,13 @@
         <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>380</v>
+        <v>815</v>
       </c>
       <c r="D85" t="s">
-        <v>381</v>
+        <v>816</v>
       </c>
       <c r="E85" t="s">
-        <v>382</v>
+        <v>817</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -5907,13 +5913,13 @@
         <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>818</v>
+        <v>380</v>
       </c>
       <c r="D86" t="s">
-        <v>819</v>
+        <v>381</v>
       </c>
       <c r="E86" t="s">
-        <v>820</v>
+        <v>382</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
@@ -5933,13 +5939,13 @@
         <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>383</v>
+        <v>818</v>
       </c>
       <c r="D87" t="s">
-        <v>384</v>
+        <v>819</v>
       </c>
       <c r="E87" t="s">
-        <v>385</v>
+        <v>820</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
@@ -5959,13 +5965,13 @@
         <v>26</v>
       </c>
       <c r="C88" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D88" t="s">
-        <v>733</v>
+        <v>384</v>
       </c>
       <c r="E88" t="s">
-        <v>734</v>
+        <v>385</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -5985,13 +5991,13 @@
         <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D89" t="s">
-        <v>412</v>
+        <v>733</v>
       </c>
       <c r="E89" t="s">
-        <v>413</v>
+        <v>734</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -6011,13 +6017,13 @@
         <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="D90" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="E90" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
@@ -6037,13 +6043,13 @@
         <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="D91" t="s">
-        <v>821</v>
+        <v>429</v>
       </c>
       <c r="E91" t="s">
-        <v>822</v>
+        <v>430</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -6063,13 +6069,13 @@
         <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D92" t="s">
-        <v>475</v>
+        <v>821</v>
       </c>
       <c r="E92" t="s">
-        <v>476</v>
+        <v>822</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -6089,16 +6095,16 @@
         <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D93" t="s">
-        <v>823</v>
+        <v>475</v>
       </c>
       <c r="E93" t="s">
-        <v>824</v>
+        <v>476</v>
       </c>
       <c r="F93" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G93" t="s">
         <v>14</v>
@@ -6115,22 +6121,22 @@
         <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>528</v>
+        <v>481</v>
       </c>
       <c r="D94" t="s">
-        <v>531</v>
+        <v>823</v>
       </c>
       <c r="E94" t="s">
-        <v>532</v>
+        <v>824</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G94" t="s">
         <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -6141,22 +6147,22 @@
         <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>618</v>
+        <v>528</v>
       </c>
       <c r="D95" t="s">
-        <v>619</v>
+        <v>531</v>
       </c>
       <c r="E95" t="s">
-        <v>620</v>
+        <v>532</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -6164,25 +6170,25 @@
         <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>618</v>
       </c>
       <c r="D96" t="s">
-        <v>31</v>
+        <v>619</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>620</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -6193,22 +6199,22 @@
         <v>30</v>
       </c>
       <c r="C97" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="E97" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
         <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -6219,10 +6225,10 @@
         <v>30</v>
       </c>
       <c r="C98" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D98" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E98" t="s">
         <v>69</v>
@@ -6245,22 +6251,22 @@
         <v>30</v>
       </c>
       <c r="C99" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D99" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="F99" t="s">
         <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -6271,22 +6277,22 @@
         <v>30</v>
       </c>
       <c r="C100" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D100" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E100" t="s">
-        <v>719</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -6297,16 +6303,16 @@
         <v>30</v>
       </c>
       <c r="C101" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="D101" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="E101" t="s">
-        <v>175</v>
+        <v>719</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G101" t="s">
         <v>14</v>
@@ -6323,22 +6329,22 @@
         <v>30</v>
       </c>
       <c r="C102" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="D102" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="E102" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="F102" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
         <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -6349,13 +6355,13 @@
         <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="D103" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="E103" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="F103" t="s">
         <v>5</v>
@@ -6375,22 +6381,22 @@
         <v>30</v>
       </c>
       <c r="C104" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="D104" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="E104" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G104" t="s">
         <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -6401,22 +6407,22 @@
         <v>30</v>
       </c>
       <c r="C105" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D105" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E105" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F105" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G105" t="s">
         <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -6427,16 +6433,16 @@
         <v>30</v>
       </c>
       <c r="C106" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D106" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E106" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G106" t="s">
         <v>14</v>
@@ -6453,16 +6459,16 @@
         <v>30</v>
       </c>
       <c r="C107" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="D107" t="s">
-        <v>825</v>
+        <v>306</v>
       </c>
       <c r="E107" t="s">
-        <v>826</v>
+        <v>307</v>
       </c>
       <c r="F107" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
         <v>14</v>
@@ -6479,16 +6485,16 @@
         <v>30</v>
       </c>
       <c r="C108" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D108" t="s">
-        <v>354</v>
+        <v>825</v>
       </c>
       <c r="E108" t="s">
-        <v>355</v>
+        <v>826</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G108" t="s">
         <v>14</v>
@@ -6505,13 +6511,13 @@
         <v>30</v>
       </c>
       <c r="C109" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="D109" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="E109" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -6531,13 +6537,13 @@
         <v>30</v>
       </c>
       <c r="C110" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="D110" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="E110" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -6557,13 +6563,13 @@
         <v>30</v>
       </c>
       <c r="C111" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D111" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="E111" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -6583,13 +6589,13 @@
         <v>30</v>
       </c>
       <c r="C112" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="D112" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="E112" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F112" t="s">
         <v>14</v>
@@ -6609,13 +6615,13 @@
         <v>30</v>
       </c>
       <c r="C113" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="D113" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="E113" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="F113" t="s">
         <v>14</v>
@@ -6635,13 +6641,13 @@
         <v>30</v>
       </c>
       <c r="C114" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D114" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="E114" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
@@ -6661,13 +6667,13 @@
         <v>30</v>
       </c>
       <c r="C115" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D115" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="E115" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="F115" t="s">
         <v>14</v>
@@ -6687,13 +6693,13 @@
         <v>30</v>
       </c>
       <c r="C116" t="s">
-        <v>528</v>
+        <v>465</v>
       </c>
       <c r="D116" t="s">
-        <v>533</v>
+        <v>466</v>
       </c>
       <c r="E116" t="s">
-        <v>534</v>
+        <v>467</v>
       </c>
       <c r="F116" t="s">
         <v>14</v>
@@ -6702,7 +6708,7 @@
         <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -6713,13 +6719,13 @@
         <v>30</v>
       </c>
       <c r="C117" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="D117" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="E117" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="F117" t="s">
         <v>14</v>
@@ -6739,13 +6745,13 @@
         <v>30</v>
       </c>
       <c r="C118" t="s">
-        <v>735</v>
+        <v>547</v>
       </c>
       <c r="D118" t="s">
-        <v>736</v>
+        <v>552</v>
       </c>
       <c r="E118" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="F118" t="s">
         <v>14</v>
@@ -6762,19 +6768,19 @@
         <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C119" t="s">
-        <v>88</v>
+        <v>735</v>
       </c>
       <c r="D119" t="s">
-        <v>96</v>
+        <v>736</v>
       </c>
       <c r="E119" t="s">
-        <v>737</v>
+        <v>534</v>
       </c>
       <c r="F119" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G119" t="s">
         <v>14</v>
@@ -6791,22 +6797,22 @@
         <v>95</v>
       </c>
       <c r="C120" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="D120" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="E120" t="s">
-        <v>128</v>
+        <v>737</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G120" t="s">
         <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -6817,22 +6823,22 @@
         <v>95</v>
       </c>
       <c r="C121" t="s">
-        <v>724</v>
+        <v>124</v>
       </c>
       <c r="D121" t="s">
-        <v>738</v>
+        <v>127</v>
       </c>
       <c r="E121" t="s">
-        <v>739</v>
+        <v>128</v>
       </c>
       <c r="F121" t="s">
-        <v>726</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>727</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -6843,22 +6849,22 @@
         <v>95</v>
       </c>
       <c r="C122" t="s">
-        <v>299</v>
+        <v>724</v>
       </c>
       <c r="D122" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E122" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>726</v>
       </c>
       <c r="G122" t="s">
-        <v>14</v>
+        <v>727</v>
       </c>
       <c r="H122" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -6869,22 +6875,22 @@
         <v>95</v>
       </c>
       <c r="C123" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="D123" t="s">
-        <v>322</v>
+        <v>740</v>
       </c>
       <c r="E123" t="s">
-        <v>323</v>
+        <v>741</v>
       </c>
       <c r="F123" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
         <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -6895,22 +6901,22 @@
         <v>95</v>
       </c>
       <c r="C124" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="D124" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="E124" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G124" t="s">
         <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -6921,13 +6927,13 @@
         <v>95</v>
       </c>
       <c r="C125" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="D125" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="E125" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="F125" t="s">
         <v>14</v>
@@ -6947,13 +6953,13 @@
         <v>95</v>
       </c>
       <c r="C126" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="D126" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="E126" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
@@ -6973,13 +6979,13 @@
         <v>95</v>
       </c>
       <c r="C127" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="D127" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E127" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
@@ -6999,13 +7005,13 @@
         <v>95</v>
       </c>
       <c r="C128" t="s">
-        <v>528</v>
+        <v>441</v>
       </c>
       <c r="D128" t="s">
-        <v>535</v>
+        <v>444</v>
       </c>
       <c r="E128" t="s">
-        <v>536</v>
+        <v>445</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
@@ -7014,7 +7020,7 @@
         <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -7025,13 +7031,13 @@
         <v>95</v>
       </c>
       <c r="C129" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="D129" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="E129" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
@@ -7051,13 +7057,13 @@
         <v>95</v>
       </c>
       <c r="C130" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="D130" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="E130" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -7077,13 +7083,13 @@
         <v>95</v>
       </c>
       <c r="C131" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="D131" t="s">
-        <v>827</v>
+        <v>567</v>
       </c>
       <c r="E131" t="s">
-        <v>828</v>
+        <v>568</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -7103,13 +7109,13 @@
         <v>95</v>
       </c>
       <c r="C132" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D132" t="s">
-        <v>577</v>
+        <v>827</v>
       </c>
       <c r="E132" t="s">
-        <v>578</v>
+        <v>828</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -7126,25 +7132,25 @@
         <v>21</v>
       </c>
       <c r="B133" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C133" t="s">
-        <v>65</v>
+        <v>576</v>
       </c>
       <c r="D133" t="s">
-        <v>71</v>
+        <v>577</v>
       </c>
       <c r="E133" t="s">
-        <v>72</v>
+        <v>578</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G133" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -7155,22 +7161,22 @@
         <v>70</v>
       </c>
       <c r="C134" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D134" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E134" t="s">
-        <v>720</v>
+        <v>72</v>
       </c>
       <c r="F134" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H134" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -7181,22 +7187,22 @@
         <v>70</v>
       </c>
       <c r="C135" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="D135" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E135" t="s">
-        <v>130</v>
+        <v>720</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G135" t="s">
         <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -7207,16 +7213,16 @@
         <v>70</v>
       </c>
       <c r="C136" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="D136" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="E136" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="F136" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
         <v>14</v>
@@ -7233,22 +7239,22 @@
         <v>70</v>
       </c>
       <c r="C137" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="D137" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="E137" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G137" t="s">
         <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -7259,22 +7265,22 @@
         <v>70</v>
       </c>
       <c r="C138" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D138" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E138" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F138" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
         <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -7285,16 +7291,16 @@
         <v>70</v>
       </c>
       <c r="C139" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="D139" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="E139" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G139" t="s">
         <v>14</v>
@@ -7311,16 +7317,16 @@
         <v>70</v>
       </c>
       <c r="C140" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D140" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E140" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F140" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
         <v>14</v>
@@ -7337,13 +7343,13 @@
         <v>70</v>
       </c>
       <c r="C141" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="D141" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="E141" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="F141" t="s">
         <v>5</v>
@@ -7363,16 +7369,16 @@
         <v>70</v>
       </c>
       <c r="C142" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="D142" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="E142" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G142" t="s">
         <v>14</v>
@@ -7389,22 +7395,22 @@
         <v>70</v>
       </c>
       <c r="C143" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="D143" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E143" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="F143" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
         <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -7415,13 +7421,13 @@
         <v>70</v>
       </c>
       <c r="C144" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D144" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E144" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F144" t="s">
         <v>5</v>
@@ -7441,22 +7447,22 @@
         <v>70</v>
       </c>
       <c r="C145" t="s">
-        <v>829</v>
+        <v>329</v>
       </c>
       <c r="D145" t="s">
-        <v>830</v>
+        <v>330</v>
       </c>
       <c r="E145" t="s">
-        <v>831</v>
+        <v>331</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G145" t="s">
         <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -7467,13 +7473,13 @@
         <v>70</v>
       </c>
       <c r="C146" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D146" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E146" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F146" t="s">
         <v>14</v>
@@ -7493,13 +7499,13 @@
         <v>70</v>
       </c>
       <c r="C147" t="s">
-        <v>347</v>
+        <v>832</v>
       </c>
       <c r="D147" t="s">
-        <v>358</v>
+        <v>833</v>
       </c>
       <c r="E147" t="s">
-        <v>359</v>
+        <v>834</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -7508,7 +7514,7 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -7519,13 +7525,13 @@
         <v>70</v>
       </c>
       <c r="C148" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="D148" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="E148" t="s">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -7545,13 +7551,13 @@
         <v>70</v>
       </c>
       <c r="C149" t="s">
-        <v>528</v>
+        <v>388</v>
       </c>
       <c r="D149" t="s">
-        <v>537</v>
+        <v>399</v>
       </c>
       <c r="E149" t="s">
-        <v>538</v>
+        <v>400</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -7560,7 +7566,7 @@
         <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -7571,16 +7577,16 @@
         <v>70</v>
       </c>
       <c r="C150" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="D150" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="E150" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="F150" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G150" t="s">
         <v>14</v>
@@ -7597,16 +7603,16 @@
         <v>70</v>
       </c>
       <c r="C151" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="D151" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="E151" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G151" t="s">
         <v>14</v>
@@ -7623,16 +7629,16 @@
         <v>70</v>
       </c>
       <c r="C152" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="D152" t="s">
-        <v>835</v>
+        <v>569</v>
       </c>
       <c r="E152" t="s">
-        <v>836</v>
+        <v>570</v>
       </c>
       <c r="F152" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G152" t="s">
         <v>14</v>
@@ -7649,22 +7655,22 @@
         <v>70</v>
       </c>
       <c r="C153" t="s">
-        <v>742</v>
+        <v>573</v>
       </c>
       <c r="D153" t="s">
-        <v>743</v>
+        <v>835</v>
       </c>
       <c r="E153" t="s">
-        <v>744</v>
+        <v>836</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G153" t="s">
         <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -7675,13 +7681,13 @@
         <v>70</v>
       </c>
       <c r="C154" t="s">
-        <v>657</v>
+        <v>742</v>
       </c>
       <c r="D154" t="s">
-        <v>658</v>
+        <v>743</v>
       </c>
       <c r="E154" t="s">
-        <v>659</v>
+        <v>744</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -7690,7 +7696,7 @@
         <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -7698,16 +7704,16 @@
         <v>21</v>
       </c>
       <c r="B155" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C155" t="s">
-        <v>23</v>
+        <v>657</v>
       </c>
       <c r="D155" t="s">
-        <v>24</v>
+        <v>658</v>
       </c>
       <c r="E155" t="s">
-        <v>25</v>
+        <v>659</v>
       </c>
       <c r="F155" t="s">
         <v>14</v>
@@ -7716,7 +7722,7 @@
         <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -7727,22 +7733,22 @@
         <v>22</v>
       </c>
       <c r="C156" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="E156" t="s">
-        <v>721</v>
+        <v>25</v>
       </c>
       <c r="F156" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G156" t="s">
         <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -7753,22 +7759,22 @@
         <v>22</v>
       </c>
       <c r="C157" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="D157" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="E157" t="s">
-        <v>138</v>
+        <v>721</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G157" t="s">
         <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -7779,22 +7785,22 @@
         <v>22</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="D158" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E158" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
         <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -7805,22 +7811,22 @@
         <v>22</v>
       </c>
       <c r="C159" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="D159" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="E159" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="F159" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G159" t="s">
         <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -7831,13 +7837,13 @@
         <v>22</v>
       </c>
       <c r="C160" t="s">
-        <v>296</v>
+        <v>199</v>
       </c>
       <c r="D160" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c r="E160" t="s">
-        <v>298</v>
+        <v>203</v>
       </c>
       <c r="F160" t="s">
         <v>5</v>
@@ -7846,7 +7852,7 @@
         <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -7857,13 +7863,13 @@
         <v>22</v>
       </c>
       <c r="C161" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="D161" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="F161" t="s">
         <v>5</v>
@@ -7872,7 +7878,7 @@
         <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -7883,13 +7889,13 @@
         <v>22</v>
       </c>
       <c r="C162" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D162" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E162" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F162" t="s">
         <v>5</v>
@@ -7898,7 +7904,7 @@
         <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -7909,22 +7915,22 @@
         <v>22</v>
       </c>
       <c r="C163" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="D163" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="E163" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G163" t="s">
         <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -7935,16 +7941,16 @@
         <v>22</v>
       </c>
       <c r="C164" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="D164" t="s">
-        <v>403</v>
+        <v>345</v>
       </c>
       <c r="E164" t="s">
-        <v>404</v>
+        <v>346</v>
       </c>
       <c r="F164" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G164" t="s">
         <v>14</v>
@@ -7961,16 +7967,16 @@
         <v>22</v>
       </c>
       <c r="C165" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D165" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="E165" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G165" t="s">
         <v>14</v>
@@ -7987,13 +7993,13 @@
         <v>22</v>
       </c>
       <c r="C166" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="D166" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="E166" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="F166" t="s">
         <v>14</v>
@@ -8013,13 +8019,13 @@
         <v>22</v>
       </c>
       <c r="C167" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D167" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="E167" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="F167" t="s">
         <v>14</v>
@@ -8039,13 +8045,13 @@
         <v>22</v>
       </c>
       <c r="C168" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D168" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E168" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F168" t="s">
         <v>14</v>
@@ -8065,13 +8071,13 @@
         <v>22</v>
       </c>
       <c r="C169" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D169" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E169" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
@@ -8091,13 +8097,13 @@
         <v>22</v>
       </c>
       <c r="C170" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D170" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E170" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
@@ -8117,13 +8123,13 @@
         <v>22</v>
       </c>
       <c r="C171" t="s">
-        <v>528</v>
+        <v>481</v>
       </c>
       <c r="D171" t="s">
-        <v>541</v>
+        <v>482</v>
       </c>
       <c r="E171" t="s">
-        <v>542</v>
+        <v>483</v>
       </c>
       <c r="F171" t="s">
         <v>14</v>
@@ -8132,7 +8138,7 @@
         <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -8143,13 +8149,13 @@
         <v>22</v>
       </c>
       <c r="C172" t="s">
-        <v>581</v>
+        <v>528</v>
       </c>
       <c r="D172" t="s">
-        <v>584</v>
+        <v>541</v>
       </c>
       <c r="E172" t="s">
-        <v>585</v>
+        <v>542</v>
       </c>
       <c r="F172" t="s">
         <v>14</v>
@@ -8169,13 +8175,13 @@
         <v>22</v>
       </c>
       <c r="C173" t="s">
-        <v>612</v>
+        <v>581</v>
       </c>
       <c r="D173" t="s">
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="E173" t="s">
-        <v>614</v>
+        <v>585</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -8184,7 +8190,7 @@
         <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -8192,25 +8198,25 @@
         <v>21</v>
       </c>
       <c r="B174" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C174" t="s">
-        <v>65</v>
+        <v>612</v>
       </c>
       <c r="D174" t="s">
-        <v>74</v>
+        <v>613</v>
       </c>
       <c r="E174" t="s">
-        <v>75</v>
+        <v>614</v>
       </c>
       <c r="F174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G174" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -8221,22 +8227,22 @@
         <v>73</v>
       </c>
       <c r="C175" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D175" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E175" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="F175" t="s">
         <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H175" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -8247,16 +8253,16 @@
         <v>73</v>
       </c>
       <c r="C176" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="D176" t="s">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="E176" t="s">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="F176" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G176" t="s">
         <v>14</v>
@@ -8273,16 +8279,16 @@
         <v>73</v>
       </c>
       <c r="C177" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="D177" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="E177" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="F177" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G177" t="s">
         <v>14</v>
@@ -8299,22 +8305,22 @@
         <v>73</v>
       </c>
       <c r="C178" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="D178" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="E178" t="s">
-        <v>745</v>
+        <v>311</v>
       </c>
       <c r="F178" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G178" t="s">
         <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -8325,22 +8331,22 @@
         <v>73</v>
       </c>
       <c r="C179" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="D179" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="E179" t="s">
-        <v>365</v>
+        <v>745</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G179" t="s">
         <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -8351,13 +8357,13 @@
         <v>73</v>
       </c>
       <c r="C180" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="D180" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="E180" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
@@ -8377,13 +8383,13 @@
         <v>73</v>
       </c>
       <c r="C181" t="s">
-        <v>528</v>
+        <v>388</v>
       </c>
       <c r="D181" t="s">
-        <v>543</v>
+        <v>405</v>
       </c>
       <c r="E181" t="s">
-        <v>544</v>
+        <v>406</v>
       </c>
       <c r="F181" t="s">
         <v>14</v>
@@ -8392,33 +8398,33 @@
         <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B182" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="C182" t="s">
-        <v>121</v>
+        <v>528</v>
       </c>
       <c r="D182" t="s">
-        <v>122</v>
+        <v>543</v>
       </c>
       <c r="E182" t="s">
-        <v>123</v>
+        <v>544</v>
       </c>
       <c r="F182" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G182" t="s">
         <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -8429,13 +8435,13 @@
         <v>120</v>
       </c>
       <c r="C183" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D183" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E183" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="F183" t="s">
         <v>5</v>
@@ -8455,13 +8461,13 @@
         <v>120</v>
       </c>
       <c r="C184" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="D184" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="E184" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="F184" t="s">
         <v>5</v>
@@ -8481,16 +8487,16 @@
         <v>120</v>
       </c>
       <c r="C185" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D185" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E185" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F185" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G185" t="s">
         <v>14</v>
@@ -8507,16 +8513,16 @@
         <v>120</v>
       </c>
       <c r="C186" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="D186" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="E186" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="F186" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G186" t="s">
         <v>14</v>
@@ -8533,13 +8539,13 @@
         <v>120</v>
       </c>
       <c r="C187" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D187" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E187" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F187" t="s">
         <v>5</v>
@@ -8559,22 +8565,22 @@
         <v>120</v>
       </c>
       <c r="C188" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="D188" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="E188" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G188" t="s">
         <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -8585,22 +8591,22 @@
         <v>120</v>
       </c>
       <c r="C189" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="D189" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="E189" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="F189" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G189" t="s">
         <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -8611,22 +8617,22 @@
         <v>120</v>
       </c>
       <c r="C190" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="D190" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="E190" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="F190" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G190" t="s">
         <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -8637,13 +8643,13 @@
         <v>120</v>
       </c>
       <c r="C191" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="D191" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="E191" t="s">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="F191" t="s">
         <v>14</v>
@@ -8660,19 +8666,19 @@
         <v>119</v>
       </c>
       <c r="B192" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C192" t="s">
-        <v>148</v>
+        <v>388</v>
       </c>
       <c r="D192" t="s">
-        <v>151</v>
+        <v>389</v>
       </c>
       <c r="E192" t="s">
-        <v>152</v>
+        <v>390</v>
       </c>
       <c r="F192" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G192" t="s">
         <v>14</v>
@@ -8689,16 +8695,16 @@
         <v>139</v>
       </c>
       <c r="C193" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="D193" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="E193" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="F193" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G193" t="s">
         <v>14</v>
@@ -8715,16 +8721,16 @@
         <v>139</v>
       </c>
       <c r="C194" t="s">
-        <v>837</v>
+        <v>193</v>
       </c>
       <c r="D194" t="s">
-        <v>838</v>
+        <v>194</v>
       </c>
       <c r="E194" t="s">
-        <v>839</v>
+        <v>195</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G194" t="s">
         <v>14</v>
@@ -8735,22 +8741,22 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B195" t="s">
-        <v>624</v>
+        <v>139</v>
       </c>
       <c r="C195" t="s">
-        <v>142</v>
+        <v>837</v>
       </c>
       <c r="D195" t="s">
-        <v>746</v>
+        <v>838</v>
       </c>
       <c r="E195" t="s">
-        <v>747</v>
+        <v>839</v>
       </c>
       <c r="F195" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G195" t="s">
         <v>14</v>
@@ -8767,13 +8773,13 @@
         <v>624</v>
       </c>
       <c r="C196" t="s">
-        <v>748</v>
+        <v>142</v>
       </c>
       <c r="D196" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E196" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F196" t="s">
         <v>5</v>
@@ -8793,16 +8799,16 @@
         <v>624</v>
       </c>
       <c r="C197" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D197" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E197" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F197" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G197" t="s">
         <v>14</v>
@@ -8819,16 +8825,16 @@
         <v>624</v>
       </c>
       <c r="C198" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D198" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E198" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F198" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G198" t="s">
         <v>14</v>
@@ -8845,16 +8851,16 @@
         <v>624</v>
       </c>
       <c r="C199" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D199" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E199" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F199" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G199" t="s">
         <v>14</v>
@@ -8871,13 +8877,13 @@
         <v>624</v>
       </c>
       <c r="C200" t="s">
-        <v>625</v>
+        <v>757</v>
       </c>
       <c r="D200" t="s">
-        <v>626</v>
+        <v>758</v>
       </c>
       <c r="E200" t="s">
-        <v>627</v>
+        <v>759</v>
       </c>
       <c r="F200" t="s">
         <v>14</v>
@@ -8886,7 +8892,7 @@
         <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
@@ -8897,13 +8903,13 @@
         <v>624</v>
       </c>
       <c r="C201" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D201" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E201" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F201" t="s">
         <v>14</v>
@@ -8912,7 +8918,7 @@
         <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -8923,13 +8929,13 @@
         <v>624</v>
       </c>
       <c r="C202" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D202" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E202" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F202" t="s">
         <v>14</v>
@@ -8938,7 +8944,7 @@
         <v>14</v>
       </c>
       <c r="H202" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -8949,13 +8955,13 @@
         <v>624</v>
       </c>
       <c r="C203" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D203" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="E203" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F203" t="s">
         <v>14</v>
@@ -8964,7 +8970,7 @@
         <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -8972,25 +8978,25 @@
         <v>140</v>
       </c>
       <c r="B204" t="s">
-        <v>141</v>
+        <v>624</v>
       </c>
       <c r="C204" t="s">
-        <v>142</v>
+        <v>645</v>
       </c>
       <c r="D204" t="s">
-        <v>143</v>
+        <v>646</v>
       </c>
       <c r="E204" t="s">
-        <v>144</v>
+        <v>647</v>
       </c>
       <c r="F204" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G204" t="s">
         <v>14</v>
       </c>
       <c r="H204" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -9001,22 +9007,22 @@
         <v>141</v>
       </c>
       <c r="C205" t="s">
-        <v>724</v>
+        <v>142</v>
       </c>
       <c r="D205" t="s">
-        <v>760</v>
+        <v>143</v>
       </c>
       <c r="E205" t="s">
-        <v>761</v>
+        <v>144</v>
       </c>
       <c r="F205" t="s">
-        <v>726</v>
+        <v>5</v>
       </c>
       <c r="G205" t="s">
-        <v>727</v>
+        <v>14</v>
       </c>
       <c r="H205" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -9027,22 +9033,22 @@
         <v>141</v>
       </c>
       <c r="C206" t="s">
-        <v>606</v>
+        <v>724</v>
       </c>
       <c r="D206" t="s">
-        <v>607</v>
+        <v>760</v>
       </c>
       <c r="E206" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F206" t="s">
-        <v>14</v>
+        <v>726</v>
       </c>
       <c r="G206" t="s">
-        <v>14</v>
+        <v>727</v>
       </c>
       <c r="H206" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -9053,16 +9059,16 @@
         <v>141</v>
       </c>
       <c r="C207" t="s">
-        <v>628</v>
+        <v>606</v>
       </c>
       <c r="D207" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="E207" t="s">
-        <v>630</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>13</v>
+        <v>762</v>
+      </c>
+      <c r="F207" t="s">
+        <v>14</v>
       </c>
       <c r="G207" t="s">
         <v>14</v>
@@ -9079,16 +9085,16 @@
         <v>141</v>
       </c>
       <c r="C208" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="D208" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="E208" t="s">
-        <v>608</v>
-      </c>
-      <c r="F208" t="s">
-        <v>14</v>
+        <v>630</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G208" t="s">
         <v>14</v>
@@ -9102,19 +9108,19 @@
         <v>140</v>
       </c>
       <c r="B209" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C209" t="s">
-        <v>142</v>
+        <v>643</v>
       </c>
       <c r="D209" t="s">
-        <v>146</v>
+        <v>644</v>
       </c>
       <c r="E209" t="s">
-        <v>147</v>
+        <v>608</v>
       </c>
       <c r="F209" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G209" t="s">
         <v>14</v>
@@ -9131,22 +9137,22 @@
         <v>145</v>
       </c>
       <c r="C210" t="s">
-        <v>634</v>
+        <v>142</v>
       </c>
       <c r="D210" t="s">
-        <v>635</v>
+        <v>146</v>
       </c>
       <c r="E210" t="s">
-        <v>636</v>
+        <v>147</v>
       </c>
       <c r="F210" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G210" t="s">
         <v>14</v>
       </c>
       <c r="H210" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -9157,13 +9163,13 @@
         <v>145</v>
       </c>
       <c r="C211" t="s">
-        <v>711</v>
+        <v>634</v>
       </c>
       <c r="D211" t="s">
-        <v>712</v>
+        <v>635</v>
       </c>
       <c r="E211" t="s">
-        <v>713</v>
+        <v>636</v>
       </c>
       <c r="F211" t="s">
         <v>14</v>
@@ -9172,7 +9178,7 @@
         <v>14</v>
       </c>
       <c r="H211" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
@@ -9183,13 +9189,13 @@
         <v>145</v>
       </c>
       <c r="C212" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D212" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E212" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="F212" t="s">
         <v>14</v>
@@ -9198,7 +9204,7 @@
         <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -9209,13 +9215,13 @@
         <v>145</v>
       </c>
       <c r="C213" t="s">
-        <v>840</v>
+        <v>714</v>
       </c>
       <c r="D213" t="s">
-        <v>841</v>
+        <v>715</v>
       </c>
       <c r="E213" t="s">
-        <v>842</v>
+        <v>636</v>
       </c>
       <c r="F213" t="s">
         <v>14</v>
@@ -9232,16 +9238,16 @@
         <v>140</v>
       </c>
       <c r="B214" t="s">
-        <v>605</v>
+        <v>145</v>
       </c>
       <c r="C214" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D214" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E214" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F214" t="s">
         <v>14</v>
@@ -9250,7 +9256,7 @@
         <v>14</v>
       </c>
       <c r="H214" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -9261,22 +9267,22 @@
         <v>605</v>
       </c>
       <c r="C215" t="s">
-        <v>637</v>
+        <v>843</v>
       </c>
       <c r="D215" t="s">
-        <v>640</v>
+        <v>844</v>
       </c>
       <c r="E215" t="s">
-        <v>642</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>5</v>
+        <v>845</v>
+      </c>
+      <c r="F215" t="s">
+        <v>14</v>
       </c>
       <c r="G215" t="s">
         <v>14</v>
       </c>
       <c r="H215" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -9287,22 +9293,22 @@
         <v>605</v>
       </c>
       <c r="C216" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D216" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E216" t="s">
-        <v>649</v>
-      </c>
-      <c r="F216" t="s">
-        <v>14</v>
+        <v>642</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G216" t="s">
         <v>14</v>
       </c>
       <c r="H216" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -9313,13 +9319,13 @@
         <v>605</v>
       </c>
       <c r="C217" t="s">
-        <v>716</v>
+        <v>645</v>
       </c>
       <c r="D217" t="s">
-        <v>717</v>
+        <v>648</v>
       </c>
       <c r="E217" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="F217" t="s">
         <v>14</v>
@@ -9328,27 +9334,27 @@
         <v>14</v>
       </c>
       <c r="H217" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B218" t="s">
-        <v>40</v>
+        <v>605</v>
       </c>
       <c r="C218" t="s">
-        <v>41</v>
+        <v>716</v>
       </c>
       <c r="D218" t="s">
-        <v>42</v>
+        <v>717</v>
       </c>
       <c r="E218" t="s">
-        <v>43</v>
+        <v>641</v>
       </c>
       <c r="F218" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G218" t="s">
         <v>14</v>
@@ -9365,13 +9371,13 @@
         <v>40</v>
       </c>
       <c r="C219" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="D219" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="E219" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="F219" t="s">
         <v>5</v>
@@ -9391,13 +9397,13 @@
         <v>40</v>
       </c>
       <c r="C220" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D220" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E220" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F220" t="s">
         <v>5</v>
@@ -9406,7 +9412,7 @@
         <v>14</v>
       </c>
       <c r="H220" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -9417,16 +9423,16 @@
         <v>40</v>
       </c>
       <c r="C221" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D221" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E221" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="F221" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G221" t="s">
         <v>14</v>
@@ -9443,22 +9449,22 @@
         <v>40</v>
       </c>
       <c r="C222" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="D222" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="E222" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="F222" t="s">
-        <v>726</v>
+        <v>14</v>
       </c>
       <c r="G222" t="s">
         <v>14</v>
       </c>
       <c r="H222" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
@@ -9469,22 +9475,22 @@
         <v>40</v>
       </c>
       <c r="C223" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D223" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E223" t="s">
-        <v>763</v>
+        <v>182</v>
       </c>
       <c r="F223" t="s">
-        <v>5</v>
+        <v>726</v>
       </c>
       <c r="G223" t="s">
         <v>14</v>
       </c>
       <c r="H223" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -9495,13 +9501,13 @@
         <v>40</v>
       </c>
       <c r="C224" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="D224" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="E224" t="s">
-        <v>235</v>
+        <v>763</v>
       </c>
       <c r="F224" t="s">
         <v>5</v>
@@ -9521,13 +9527,13 @@
         <v>40</v>
       </c>
       <c r="C225" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="D225" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="E225" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="F225" t="s">
         <v>5</v>
@@ -9547,22 +9553,22 @@
         <v>40</v>
       </c>
       <c r="C226" t="s">
-        <v>764</v>
+        <v>255</v>
       </c>
       <c r="D226" t="s">
-        <v>765</v>
+        <v>262</v>
       </c>
       <c r="E226" t="s">
-        <v>766</v>
+        <v>263</v>
       </c>
       <c r="F226" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G226" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H226" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -9573,22 +9579,22 @@
         <v>40</v>
       </c>
       <c r="C227" t="s">
-        <v>290</v>
+        <v>764</v>
       </c>
       <c r="D227" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E227" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F227" t="s">
         <v>13</v>
       </c>
       <c r="G227" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H227" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -9599,16 +9605,16 @@
         <v>40</v>
       </c>
       <c r="C228" t="s">
-        <v>769</v>
+        <v>290</v>
       </c>
       <c r="D228" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E228" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F228" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G228" t="s">
         <v>14</v>
@@ -9625,13 +9631,13 @@
         <v>40</v>
       </c>
       <c r="C229" t="s">
-        <v>347</v>
+        <v>769</v>
       </c>
       <c r="D229" t="s">
-        <v>360</v>
+        <v>770</v>
       </c>
       <c r="E229" t="s">
-        <v>361</v>
+        <v>771</v>
       </c>
       <c r="F229" t="s">
         <v>14</v>
@@ -9651,13 +9657,13 @@
         <v>40</v>
       </c>
       <c r="C230" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="D230" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="E230" t="s">
-        <v>772</v>
+        <v>361</v>
       </c>
       <c r="F230" t="s">
         <v>14</v>
@@ -9677,13 +9683,13 @@
         <v>40</v>
       </c>
       <c r="C231" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D231" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="E231" t="s">
-        <v>402</v>
+        <v>772</v>
       </c>
       <c r="F231" t="s">
         <v>14</v>
@@ -9703,13 +9709,13 @@
         <v>40</v>
       </c>
       <c r="C232" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D232" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="E232" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="F232" t="s">
         <v>14</v>
@@ -9729,13 +9735,13 @@
         <v>40</v>
       </c>
       <c r="C233" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="D233" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="F233" t="s">
         <v>14</v>
@@ -9755,13 +9761,13 @@
         <v>40</v>
       </c>
       <c r="C234" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D234" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E234" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="F234" t="s">
         <v>14</v>
@@ -9781,13 +9787,13 @@
         <v>40</v>
       </c>
       <c r="C235" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="D235" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="E235" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="F235" t="s">
         <v>14</v>
@@ -9807,16 +9813,16 @@
         <v>40</v>
       </c>
       <c r="C236" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D236" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E236" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F236" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G236" t="s">
         <v>14</v>
@@ -9833,16 +9839,16 @@
         <v>40</v>
       </c>
       <c r="C237" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D237" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E237" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F237" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G237" t="s">
         <v>14</v>
@@ -9859,16 +9865,16 @@
         <v>40</v>
       </c>
       <c r="C238" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D238" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E238" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F238" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G238" t="s">
         <v>14</v>
@@ -9885,13 +9891,13 @@
         <v>40</v>
       </c>
       <c r="C239" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D239" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E239" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F239" t="s">
         <v>13</v>
@@ -9911,16 +9917,16 @@
         <v>40</v>
       </c>
       <c r="C240" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D240" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E240" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F240" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G240" t="s">
         <v>14</v>
@@ -9937,13 +9943,13 @@
         <v>40</v>
       </c>
       <c r="C241" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D241" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E241" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F241" t="s">
         <v>14</v>
@@ -9963,13 +9969,13 @@
         <v>40</v>
       </c>
       <c r="C242" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="D242" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="E242" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="F242" t="s">
         <v>14</v>
@@ -9989,13 +9995,13 @@
         <v>40</v>
       </c>
       <c r="C243" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="D243" t="s">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="E243" t="s">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="F243" t="s">
         <v>14</v>
@@ -10004,7 +10010,7 @@
         <v>14</v>
       </c>
       <c r="H243" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -10015,16 +10021,16 @@
         <v>40</v>
       </c>
       <c r="C244" t="s">
-        <v>586</v>
+        <v>547</v>
       </c>
       <c r="D244" t="s">
-        <v>587</v>
+        <v>558</v>
       </c>
       <c r="E244" t="s">
-        <v>588</v>
+        <v>559</v>
       </c>
       <c r="F244" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G244" t="s">
         <v>14</v>
@@ -10041,16 +10047,16 @@
         <v>40</v>
       </c>
       <c r="C245" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D245" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E245" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F245" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G245" t="s">
         <v>14</v>
@@ -10067,16 +10073,16 @@
         <v>40</v>
       </c>
       <c r="C246" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D246" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E246" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F246" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G246" t="s">
         <v>14</v>
@@ -10093,13 +10099,13 @@
         <v>40</v>
       </c>
       <c r="C247" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D247" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E247" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F247" t="s">
         <v>5</v>
@@ -10119,13 +10125,13 @@
         <v>40</v>
       </c>
       <c r="C248" t="s">
-        <v>773</v>
+        <v>596</v>
       </c>
       <c r="D248" t="s">
-        <v>774</v>
+        <v>597</v>
       </c>
       <c r="E248" t="s">
-        <v>775</v>
+        <v>598</v>
       </c>
       <c r="F248" t="s">
         <v>5</v>
@@ -10134,7 +10140,7 @@
         <v>14</v>
       </c>
       <c r="H248" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -10142,25 +10148,25 @@
         <v>8</v>
       </c>
       <c r="B249" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C249" t="s">
-        <v>10</v>
+        <v>773</v>
       </c>
       <c r="D249" t="s">
-        <v>11</v>
+        <v>774</v>
       </c>
       <c r="E249" t="s">
-        <v>12</v>
+        <v>775</v>
       </c>
       <c r="F249" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G249" t="s">
         <v>14</v>
       </c>
       <c r="H249" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
@@ -10171,16 +10177,16 @@
         <v>9</v>
       </c>
       <c r="C250" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D250" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E250" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F250" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G250" t="s">
         <v>14</v>
@@ -10197,13 +10203,13 @@
         <v>9</v>
       </c>
       <c r="C251" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D251" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E251" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F251" t="s">
         <v>5</v>
@@ -10212,7 +10218,7 @@
         <v>14</v>
       </c>
       <c r="H251" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
@@ -10223,10 +10229,10 @@
         <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D252" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E252" t="s">
         <v>46</v>
@@ -10249,7 +10255,7 @@
         <v>9</v>
       </c>
       <c r="C253" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D253" t="s">
         <v>47</v>
@@ -10275,7 +10281,7 @@
         <v>9</v>
       </c>
       <c r="C254" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D254" t="s">
         <v>47</v>
@@ -10301,22 +10307,22 @@
         <v>9</v>
       </c>
       <c r="C255" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D255" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E255" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F255" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G255" t="s">
         <v>14</v>
       </c>
       <c r="H255" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -10327,22 +10333,22 @@
         <v>9</v>
       </c>
       <c r="C256" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D256" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E256" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F256" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G256" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H256" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
@@ -10353,13 +10359,13 @@
         <v>9</v>
       </c>
       <c r="C257" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D257" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E257" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F257" t="s">
         <v>5</v>
@@ -10379,7 +10385,7 @@
         <v>9</v>
       </c>
       <c r="C258" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D258" t="s">
         <v>84</v>
@@ -10405,19 +10411,19 @@
         <v>9</v>
       </c>
       <c r="C259" t="s">
-        <v>776</v>
+        <v>86</v>
       </c>
       <c r="D259" t="s">
-        <v>777</v>
+        <v>84</v>
       </c>
       <c r="E259" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F259" t="s">
         <v>5</v>
       </c>
       <c r="G259" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H259" t="s">
         <v>44</v>
@@ -10431,7 +10437,7 @@
         <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D260" t="s">
         <v>777</v>
@@ -10457,10 +10463,10 @@
         <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>99</v>
+        <v>778</v>
       </c>
       <c r="D261" t="s">
-        <v>100</v>
+        <v>777</v>
       </c>
       <c r="E261" t="s">
         <v>101</v>
@@ -10483,10 +10489,10 @@
         <v>9</v>
       </c>
       <c r="C262" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D262" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E262" t="s">
         <v>101</v>
@@ -10509,7 +10515,7 @@
         <v>9</v>
       </c>
       <c r="C263" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D263" t="s">
         <v>106</v>
@@ -10535,7 +10541,7 @@
         <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="D264" t="s">
         <v>106</v>
@@ -10561,7 +10567,7 @@
         <v>9</v>
       </c>
       <c r="C265" t="s">
-        <v>781</v>
+        <v>50</v>
       </c>
       <c r="D265" t="s">
         <v>106</v>
@@ -10587,22 +10593,22 @@
         <v>9</v>
       </c>
       <c r="C266" t="s">
-        <v>108</v>
+        <v>781</v>
       </c>
       <c r="D266" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E266" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F266" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G266" t="s">
         <v>14</v>
       </c>
       <c r="H266" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
@@ -10613,16 +10619,16 @@
         <v>9</v>
       </c>
       <c r="C267" t="s">
-        <v>846</v>
+        <v>108</v>
       </c>
       <c r="D267" t="s">
-        <v>847</v>
+        <v>109</v>
       </c>
       <c r="E267" t="s">
-        <v>848</v>
+        <v>110</v>
       </c>
       <c r="F267" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G267" t="s">
         <v>14</v>
@@ -10639,13 +10645,13 @@
         <v>9</v>
       </c>
       <c r="C268" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D268" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E268" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F268" t="s">
         <v>5</v>
@@ -10665,13 +10671,13 @@
         <v>9</v>
       </c>
       <c r="C269" t="s">
-        <v>148</v>
+        <v>849</v>
       </c>
       <c r="D269" t="s">
-        <v>157</v>
+        <v>850</v>
       </c>
       <c r="E269" t="s">
-        <v>158</v>
+        <v>851</v>
       </c>
       <c r="F269" t="s">
         <v>5</v>
@@ -10691,13 +10697,13 @@
         <v>9</v>
       </c>
       <c r="C270" t="s">
-        <v>852</v>
+        <v>148</v>
       </c>
       <c r="D270" t="s">
-        <v>853</v>
+        <v>157</v>
       </c>
       <c r="E270" t="s">
-        <v>854</v>
+        <v>158</v>
       </c>
       <c r="F270" t="s">
         <v>5</v>
@@ -10717,13 +10723,13 @@
         <v>9</v>
       </c>
       <c r="C271" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D271" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E271" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F271" t="s">
         <v>5</v>
@@ -10743,13 +10749,13 @@
         <v>9</v>
       </c>
       <c r="C272" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D272" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E272" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F272" t="s">
         <v>5</v>
@@ -10758,7 +10764,7 @@
         <v>14</v>
       </c>
       <c r="H272" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
@@ -10769,13 +10775,13 @@
         <v>9</v>
       </c>
       <c r="C273" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D273" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E273" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F273" t="s">
         <v>5</v>
@@ -10784,7 +10790,7 @@
         <v>14</v>
       </c>
       <c r="H273" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
@@ -10795,13 +10801,13 @@
         <v>9</v>
       </c>
       <c r="C274" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D274" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E274" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="F274" t="s">
         <v>5</v>
@@ -10821,13 +10827,13 @@
         <v>9</v>
       </c>
       <c r="C275" t="s">
-        <v>199</v>
+        <v>864</v>
       </c>
       <c r="D275" t="s">
-        <v>779</v>
+        <v>865</v>
       </c>
       <c r="E275" t="s">
-        <v>780</v>
+        <v>866</v>
       </c>
       <c r="F275" t="s">
         <v>5</v>
@@ -10847,16 +10853,16 @@
         <v>9</v>
       </c>
       <c r="C276" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D276" t="s">
-        <v>219</v>
+        <v>779</v>
       </c>
       <c r="E276" t="s">
-        <v>220</v>
+        <v>780</v>
       </c>
       <c r="F276" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G276" t="s">
         <v>14</v>
@@ -10873,16 +10879,16 @@
         <v>9</v>
       </c>
       <c r="C277" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D277" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="E277" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="F277" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G277" t="s">
         <v>14</v>
@@ -10899,13 +10905,13 @@
         <v>9</v>
       </c>
       <c r="C278" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D278" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E278" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F278" t="s">
         <v>5</v>
@@ -10914,7 +10920,7 @@
         <v>14</v>
       </c>
       <c r="H278" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
@@ -10925,22 +10931,22 @@
         <v>9</v>
       </c>
       <c r="C279" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D279" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E279" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F279" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G279" t="s">
         <v>14</v>
       </c>
       <c r="H279" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
@@ -10951,22 +10957,22 @@
         <v>9</v>
       </c>
       <c r="C280" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="D280" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E280" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F280" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G280" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H280" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
@@ -10977,22 +10983,22 @@
         <v>9</v>
       </c>
       <c r="C281" t="s">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="D281" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="E281" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="F281" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G281" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H281" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
@@ -11003,16 +11009,16 @@
         <v>9</v>
       </c>
       <c r="C282" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="D282" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="E282" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="F282" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G282" t="s">
         <v>14</v>
@@ -11029,13 +11035,13 @@
         <v>9</v>
       </c>
       <c r="C283" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D283" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E283" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F283" t="s">
         <v>14</v>
@@ -11055,13 +11061,13 @@
         <v>9</v>
       </c>
       <c r="C284" t="s">
-        <v>769</v>
+        <v>340</v>
       </c>
       <c r="D284" t="s">
-        <v>782</v>
+        <v>341</v>
       </c>
       <c r="E284" t="s">
-        <v>783</v>
+        <v>342</v>
       </c>
       <c r="F284" t="s">
         <v>14</v>
@@ -11081,13 +11087,13 @@
         <v>9</v>
       </c>
       <c r="C285" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="D285" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E285" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F285" t="s">
         <v>14</v>
@@ -11107,13 +11113,13 @@
         <v>9</v>
       </c>
       <c r="C286" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D286" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E286" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F286" t="s">
         <v>14</v>
@@ -11133,13 +11139,13 @@
         <v>9</v>
       </c>
       <c r="C287" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D287" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E287" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F287" t="s">
         <v>14</v>
@@ -11159,13 +11165,13 @@
         <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>867</v>
+        <v>790</v>
       </c>
       <c r="D288" t="s">
-        <v>868</v>
+        <v>791</v>
       </c>
       <c r="E288" t="s">
-        <v>869</v>
+        <v>792</v>
       </c>
       <c r="F288" t="s">
         <v>14</v>
@@ -11185,13 +11191,13 @@
         <v>9</v>
       </c>
       <c r="C289" t="s">
-        <v>347</v>
+        <v>867</v>
       </c>
       <c r="D289" t="s">
-        <v>362</v>
+        <v>868</v>
       </c>
       <c r="E289" t="s">
-        <v>363</v>
+        <v>869</v>
       </c>
       <c r="F289" t="s">
         <v>14</v>
@@ -11211,13 +11217,13 @@
         <v>9</v>
       </c>
       <c r="C290" t="s">
-        <v>409</v>
+        <v>347</v>
       </c>
       <c r="D290" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="E290" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="F290" t="s">
         <v>14</v>
@@ -11237,13 +11243,13 @@
         <v>9</v>
       </c>
       <c r="C291" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="D291" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="E291" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="F291" t="s">
         <v>14</v>
@@ -11263,13 +11269,13 @@
         <v>9</v>
       </c>
       <c r="C292" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="D292" t="s">
-        <v>870</v>
+        <v>435</v>
       </c>
       <c r="E292" t="s">
-        <v>871</v>
+        <v>436</v>
       </c>
       <c r="F292" t="s">
         <v>14</v>
@@ -11289,13 +11295,13 @@
         <v>9</v>
       </c>
       <c r="C293" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D293" t="s">
-        <v>459</v>
+        <v>870</v>
       </c>
       <c r="E293" t="s">
-        <v>460</v>
+        <v>871</v>
       </c>
       <c r="F293" t="s">
         <v>14</v>
@@ -11315,13 +11321,13 @@
         <v>9</v>
       </c>
       <c r="C294" t="s">
-        <v>507</v>
+        <v>452</v>
       </c>
       <c r="D294" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
       <c r="E294" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="F294" t="s">
         <v>14</v>
@@ -11341,16 +11347,16 @@
         <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D295" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E295" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F295" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G295" t="s">
         <v>14</v>
@@ -11367,13 +11373,13 @@
         <v>9</v>
       </c>
       <c r="C296" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D296" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E296" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F296" t="s">
         <v>13</v>
@@ -11393,16 +11399,16 @@
         <v>9</v>
       </c>
       <c r="C297" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D297" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E297" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F297" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G297" t="s">
         <v>14</v>
@@ -11419,16 +11425,16 @@
         <v>9</v>
       </c>
       <c r="C298" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D298" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E298" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F298" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G298" t="s">
         <v>14</v>
@@ -11445,13 +11451,13 @@
         <v>9</v>
       </c>
       <c r="C299" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D299" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E299" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F299" t="s">
         <v>13</v>
@@ -11460,7 +11466,7 @@
         <v>14</v>
       </c>
       <c r="H299" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
@@ -11471,16 +11477,16 @@
         <v>9</v>
       </c>
       <c r="C300" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D300" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E300" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="F300" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G300" t="s">
         <v>14</v>
@@ -11497,16 +11503,16 @@
         <v>9</v>
       </c>
       <c r="C301" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="D301" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="E301" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="F301" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G301" t="s">
         <v>14</v>
@@ -11523,16 +11529,16 @@
         <v>9</v>
       </c>
       <c r="C302" t="s">
-        <v>872</v>
+        <v>547</v>
       </c>
       <c r="D302" t="s">
-        <v>873</v>
+        <v>560</v>
       </c>
       <c r="E302" t="s">
-        <v>875</v>
+        <v>561</v>
       </c>
       <c r="F302" t="s">
-        <v>726</v>
+        <v>5</v>
       </c>
       <c r="G302" t="s">
         <v>14</v>
@@ -11549,16 +11555,16 @@
         <v>9</v>
       </c>
       <c r="C303" t="s">
-        <v>586</v>
+        <v>872</v>
       </c>
       <c r="D303" t="s">
-        <v>589</v>
+        <v>873</v>
       </c>
       <c r="E303" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F303" t="s">
-        <v>13</v>
+        <v>726</v>
       </c>
       <c r="G303" t="s">
         <v>14</v>
@@ -11575,13 +11581,13 @@
         <v>9</v>
       </c>
       <c r="C304" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="D304" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="E304" t="s">
-        <v>601</v>
+        <v>874</v>
       </c>
       <c r="F304" t="s">
         <v>13</v>
@@ -11601,16 +11607,16 @@
         <v>9</v>
       </c>
       <c r="C305" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D305" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E305" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F305" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G305" t="s">
         <v>14</v>
@@ -11627,42 +11633,42 @@
         <v>9</v>
       </c>
       <c r="C306" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="D306" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="E306" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="F306" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G306" t="s">
         <v>14</v>
       </c>
       <c r="H306" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B307" t="s">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="C307" t="s">
-        <v>876</v>
+        <v>615</v>
       </c>
       <c r="D307" t="s">
-        <v>877</v>
+        <v>616</v>
       </c>
       <c r="E307" t="s">
-        <v>878</v>
+        <v>617</v>
       </c>
       <c r="F307" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G307" t="s">
         <v>14</v>
@@ -11679,13 +11685,13 @@
         <v>267</v>
       </c>
       <c r="C308" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D308" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E308" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F308" t="s">
         <v>5</v>
@@ -11694,7 +11700,7 @@
         <v>14</v>
       </c>
       <c r="H308" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
@@ -11705,13 +11711,13 @@
         <v>267</v>
       </c>
       <c r="C309" t="s">
-        <v>269</v>
+        <v>879</v>
       </c>
       <c r="D309" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E309" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F309" t="s">
         <v>5</v>
@@ -11731,13 +11737,13 @@
         <v>267</v>
       </c>
       <c r="C310" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D310" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E310" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F310" t="s">
         <v>5</v>
@@ -11757,13 +11763,13 @@
         <v>267</v>
       </c>
       <c r="C311" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D311" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E311" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F311" t="s">
         <v>5</v>
@@ -11783,22 +11789,22 @@
         <v>267</v>
       </c>
       <c r="C312" t="s">
-        <v>388</v>
+        <v>275</v>
       </c>
       <c r="D312" t="s">
-        <v>393</v>
+        <v>886</v>
       </c>
       <c r="E312" t="s">
-        <v>394</v>
+        <v>887</v>
       </c>
       <c r="F312" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G312" t="s">
         <v>14</v>
       </c>
       <c r="H312" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
@@ -11809,13 +11815,13 @@
         <v>267</v>
       </c>
       <c r="C313" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D313" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="E313" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="F313" t="s">
         <v>14</v>
@@ -11835,22 +11841,22 @@
         <v>267</v>
       </c>
       <c r="C314" t="s">
-        <v>609</v>
+        <v>409</v>
       </c>
       <c r="D314" t="s">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="E314" t="s">
-        <v>611</v>
+        <v>415</v>
       </c>
       <c r="F314" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G314" t="s">
         <v>14</v>
       </c>
       <c r="H314" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
@@ -11858,25 +11864,25 @@
         <v>162</v>
       </c>
       <c r="B315" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C315" t="s">
-        <v>876</v>
+        <v>609</v>
       </c>
       <c r="D315" t="s">
-        <v>888</v>
+        <v>610</v>
       </c>
       <c r="E315" t="s">
-        <v>889</v>
+        <v>611</v>
       </c>
       <c r="F315" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G315" t="s">
         <v>14</v>
       </c>
       <c r="H315" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
@@ -11887,13 +11893,13 @@
         <v>268</v>
       </c>
       <c r="C316" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D316" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E316" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F316" t="s">
         <v>5</v>
@@ -11902,7 +11908,7 @@
         <v>14</v>
       </c>
       <c r="H316" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
@@ -11913,13 +11919,13 @@
         <v>268</v>
       </c>
       <c r="C317" t="s">
-        <v>269</v>
+        <v>879</v>
       </c>
       <c r="D317" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E317" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F317" t="s">
         <v>5</v>
@@ -11939,13 +11945,13 @@
         <v>268</v>
       </c>
       <c r="C318" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D318" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E318" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F318" t="s">
         <v>5</v>
@@ -11965,22 +11971,22 @@
         <v>268</v>
       </c>
       <c r="C319" t="s">
-        <v>793</v>
+        <v>272</v>
       </c>
       <c r="D319" t="s">
-        <v>794</v>
+        <v>894</v>
       </c>
       <c r="E319" t="s">
-        <v>343</v>
+        <v>895</v>
       </c>
       <c r="F319" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G319" t="s">
         <v>14</v>
       </c>
       <c r="H319" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
@@ -11991,13 +11997,13 @@
         <v>268</v>
       </c>
       <c r="C320" t="s">
-        <v>426</v>
+        <v>793</v>
       </c>
       <c r="D320" t="s">
-        <v>437</v>
+        <v>794</v>
       </c>
       <c r="E320" t="s">
-        <v>438</v>
+        <v>343</v>
       </c>
       <c r="F320" t="s">
         <v>14</v>
@@ -12017,13 +12023,13 @@
         <v>268</v>
       </c>
       <c r="C321" t="s">
-        <v>547</v>
+        <v>426</v>
       </c>
       <c r="D321" t="s">
-        <v>562</v>
+        <v>437</v>
       </c>
       <c r="E321" t="s">
-        <v>563</v>
+        <v>438</v>
       </c>
       <c r="F321" t="s">
         <v>14</v>
@@ -12032,7 +12038,7 @@
         <v>14</v>
       </c>
       <c r="H321" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
@@ -12043,13 +12049,13 @@
         <v>268</v>
       </c>
       <c r="C322" t="s">
-        <v>576</v>
+        <v>547</v>
       </c>
       <c r="D322" t="s">
-        <v>896</v>
+        <v>562</v>
       </c>
       <c r="E322" t="s">
-        <v>897</v>
+        <v>563</v>
       </c>
       <c r="F322" t="s">
         <v>14</v>
@@ -12066,25 +12072,25 @@
         <v>162</v>
       </c>
       <c r="B323" t="s">
-        <v>163</v>
+        <v>268</v>
       </c>
       <c r="C323" t="s">
-        <v>164</v>
+        <v>576</v>
       </c>
       <c r="D323" t="s">
-        <v>165</v>
+        <v>896</v>
       </c>
       <c r="E323" t="s">
-        <v>166</v>
+        <v>897</v>
       </c>
       <c r="F323" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G323" t="s">
         <v>14</v>
       </c>
       <c r="H323" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
@@ -12095,16 +12101,16 @@
         <v>163</v>
       </c>
       <c r="C324" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D324" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E324" t="s">
-        <v>795</v>
+        <v>166</v>
       </c>
       <c r="F324" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G324" t="s">
         <v>14</v>
@@ -12121,13 +12127,13 @@
         <v>163</v>
       </c>
       <c r="C325" t="s">
-        <v>899</v>
+        <v>183</v>
       </c>
       <c r="D325" t="s">
-        <v>900</v>
+        <v>184</v>
       </c>
       <c r="E325" t="s">
-        <v>898</v>
+        <v>795</v>
       </c>
       <c r="F325" t="s">
         <v>5</v>
@@ -12147,22 +12153,22 @@
         <v>163</v>
       </c>
       <c r="C326" t="s">
-        <v>264</v>
+        <v>899</v>
       </c>
       <c r="D326" t="s">
-        <v>265</v>
+        <v>900</v>
       </c>
       <c r="E326" t="s">
-        <v>266</v>
+        <v>898</v>
       </c>
       <c r="F326" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G326" t="s">
         <v>14</v>
       </c>
       <c r="H326" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
@@ -12173,22 +12179,22 @@
         <v>163</v>
       </c>
       <c r="C327" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D327" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E327" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F327" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G327" t="s">
         <v>14</v>
       </c>
       <c r="H327" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -12199,13 +12205,13 @@
         <v>163</v>
       </c>
       <c r="C328" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D328" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E328" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F328" t="s">
         <v>5</v>
@@ -12225,13 +12231,13 @@
         <v>163</v>
       </c>
       <c r="C329" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D329" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E329" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F329" t="s">
         <v>5</v>
@@ -12251,13 +12257,13 @@
         <v>163</v>
       </c>
       <c r="C330" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D330" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E330" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F330" t="s">
         <v>5</v>
@@ -12277,22 +12283,22 @@
         <v>163</v>
       </c>
       <c r="C331" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D331" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E331" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F331" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G331" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H331" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
@@ -12303,22 +12309,22 @@
         <v>163</v>
       </c>
       <c r="C332" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D332" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="E332" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="F332" t="s">
         <v>13</v>
       </c>
       <c r="G332" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H332" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
@@ -12329,16 +12335,16 @@
         <v>163</v>
       </c>
       <c r="C333" t="s">
-        <v>366</v>
+        <v>299</v>
       </c>
       <c r="D333" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="E333" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="F333" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G333" t="s">
         <v>14</v>
@@ -12355,13 +12361,13 @@
         <v>163</v>
       </c>
       <c r="C334" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D334" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E334" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F334" t="s">
         <v>14</v>
@@ -12381,13 +12387,13 @@
         <v>163</v>
       </c>
       <c r="C335" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="D335" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="E335" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="F335" t="s">
         <v>14</v>
@@ -12407,13 +12413,13 @@
         <v>163</v>
       </c>
       <c r="C336" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D336" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="E336" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="F336" t="s">
         <v>14</v>
@@ -12433,13 +12439,13 @@
         <v>163</v>
       </c>
       <c r="C337" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="D337" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="E337" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="F337" t="s">
         <v>14</v>
@@ -12459,13 +12465,13 @@
         <v>163</v>
       </c>
       <c r="C338" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="D338" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="E338" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="F338" t="s">
         <v>14</v>
@@ -12485,13 +12491,13 @@
         <v>163</v>
       </c>
       <c r="C339" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D339" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="E339" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="F339" t="s">
         <v>14</v>
@@ -12511,13 +12517,13 @@
         <v>163</v>
       </c>
       <c r="C340" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D340" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E340" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F340" t="s">
         <v>14</v>
@@ -12537,13 +12543,13 @@
         <v>163</v>
       </c>
       <c r="C341" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D341" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E341" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="F341" t="s">
         <v>14</v>
@@ -12563,13 +12569,13 @@
         <v>163</v>
       </c>
       <c r="C342" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D342" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E342" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F342" t="s">
         <v>14</v>
@@ -12589,13 +12595,13 @@
         <v>163</v>
       </c>
       <c r="C343" t="s">
-        <v>528</v>
+        <v>481</v>
       </c>
       <c r="D343" t="s">
-        <v>545</v>
+        <v>484</v>
       </c>
       <c r="E343" t="s">
-        <v>546</v>
+        <v>485</v>
       </c>
       <c r="F343" t="s">
         <v>14</v>
@@ -12604,7 +12610,7 @@
         <v>14</v>
       </c>
       <c r="H343" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
@@ -12615,13 +12621,13 @@
         <v>163</v>
       </c>
       <c r="C344" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="D344" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="E344" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="F344" t="s">
         <v>14</v>
@@ -12641,13 +12647,13 @@
         <v>163</v>
       </c>
       <c r="C345" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="D345" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="E345" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="F345" t="s">
         <v>14</v>
@@ -12667,13 +12673,13 @@
         <v>163</v>
       </c>
       <c r="C346" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="D346" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E346" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F346" t="s">
         <v>14</v>
@@ -12693,13 +12699,13 @@
         <v>163</v>
       </c>
       <c r="C347" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D347" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E347" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F347" t="s">
         <v>14</v>
@@ -12711,9 +12717,35 @@
         <v>44</v>
       </c>
     </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>162</v>
+      </c>
+      <c r="B348" t="s">
+        <v>163</v>
+      </c>
+      <c r="C348" t="s">
+        <v>576</v>
+      </c>
+      <c r="D348" t="s">
+        <v>579</v>
+      </c>
+      <c r="E348" t="s">
+        <v>580</v>
+      </c>
+      <c r="F348" t="s">
+        <v>14</v>
+      </c>
+      <c r="G348" t="s">
+        <v>14</v>
+      </c>
+      <c r="H348" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H378">
-    <sortCondition ref="A2:A378"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H379">
+    <sortCondition ref="A2:A379"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/data/data-wrangling-intermediate/01b_edited-species8_location-dependent-final-fix.xlsx
+++ b/data/data-wrangling-intermediate/01b_edited-species8_location-dependent-final-fix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:40009_{0BA8441D-1008-43DB-A010-9C50448DAA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D96AEDD-4F3D-47C9-9AB9-4B3D6D796CFB}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:40009_{0BA8441D-1008-43DB-A010-9C50448DAA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{826B5B0A-5D34-477C-8DFA-C6C07024CFA3}"/>
   <bookViews>
-    <workbookView xWindow="41295" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2515,18 +2515,12 @@
     <t>UCHEN1.PEFO</t>
   </si>
   <si>
-    <t>Unknown UCHEN1 (?), PEFO</t>
-  </si>
-  <si>
     <t>UCHEN2</t>
   </si>
   <si>
     <t>UCHEN2.PEFO</t>
   </si>
   <si>
-    <t>Unknown UCHEN2 (?), PEFO</t>
-  </si>
-  <si>
     <t>UNGR3.PEFO</t>
   </si>
   <si>
@@ -2741,6 +2735,12 @@
   </si>
   <si>
     <t>Unknown forb 5, AguaFria</t>
+  </si>
+  <si>
+    <t>Unknown chenopod 1, PEFO</t>
+  </si>
+  <si>
+    <t>Unknown chenopod 2, PEFO</t>
   </si>
 </sst>
 </file>
@@ -3680,8 +3680,8 @@
   <dimension ref="A1:H348"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4691,10 +4691,10 @@
         <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D39" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E39" t="s">
         <v>223</v>
@@ -4876,10 +4876,10 @@
         <v>441</v>
       </c>
       <c r="D46" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E46" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -4928,10 +4928,10 @@
         <v>465</v>
       </c>
       <c r="D48" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E48" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -7479,7 +7479,7 @@
         <v>830</v>
       </c>
       <c r="E146" t="s">
-        <v>831</v>
+        <v>905</v>
       </c>
       <c r="F146" t="s">
         <v>14</v>
@@ -7488,7 +7488,7 @@
         <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -7499,13 +7499,13 @@
         <v>70</v>
       </c>
       <c r="C147" t="s">
+        <v>831</v>
+      </c>
+      <c r="D147" t="s">
         <v>832</v>
       </c>
-      <c r="D147" t="s">
-        <v>833</v>
-      </c>
       <c r="E147" t="s">
-        <v>834</v>
+        <v>906</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -7514,7 +7514,7 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -7658,10 +7658,10 @@
         <v>573</v>
       </c>
       <c r="D153" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E153" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F153" t="s">
         <v>5</v>
@@ -8747,13 +8747,13 @@
         <v>139</v>
       </c>
       <c r="C195" t="s">
+        <v>835</v>
+      </c>
+      <c r="D195" t="s">
+        <v>836</v>
+      </c>
+      <c r="E195" t="s">
         <v>837</v>
-      </c>
-      <c r="D195" t="s">
-        <v>838</v>
-      </c>
-      <c r="E195" t="s">
-        <v>839</v>
       </c>
       <c r="F195" t="s">
         <v>14</v>
@@ -9241,13 +9241,13 @@
         <v>145</v>
       </c>
       <c r="C214" t="s">
+        <v>838</v>
+      </c>
+      <c r="D214" t="s">
+        <v>839</v>
+      </c>
+      <c r="E214" t="s">
         <v>840</v>
-      </c>
-      <c r="D214" t="s">
-        <v>841</v>
-      </c>
-      <c r="E214" t="s">
-        <v>842</v>
       </c>
       <c r="F214" t="s">
         <v>14</v>
@@ -9267,13 +9267,13 @@
         <v>605</v>
       </c>
       <c r="C215" t="s">
+        <v>841</v>
+      </c>
+      <c r="D215" t="s">
+        <v>842</v>
+      </c>
+      <c r="E215" t="s">
         <v>843</v>
-      </c>
-      <c r="D215" t="s">
-        <v>844</v>
-      </c>
-      <c r="E215" t="s">
-        <v>845</v>
       </c>
       <c r="F215" t="s">
         <v>14</v>
@@ -10645,13 +10645,13 @@
         <v>9</v>
       </c>
       <c r="C268" t="s">
+        <v>844</v>
+      </c>
+      <c r="D268" t="s">
+        <v>845</v>
+      </c>
+      <c r="E268" t="s">
         <v>846</v>
-      </c>
-      <c r="D268" t="s">
-        <v>847</v>
-      </c>
-      <c r="E268" t="s">
-        <v>848</v>
       </c>
       <c r="F268" t="s">
         <v>5</v>
@@ -10671,13 +10671,13 @@
         <v>9</v>
       </c>
       <c r="C269" t="s">
+        <v>847</v>
+      </c>
+      <c r="D269" t="s">
+        <v>848</v>
+      </c>
+      <c r="E269" t="s">
         <v>849</v>
-      </c>
-      <c r="D269" t="s">
-        <v>850</v>
-      </c>
-      <c r="E269" t="s">
-        <v>851</v>
       </c>
       <c r="F269" t="s">
         <v>5</v>
@@ -10723,13 +10723,13 @@
         <v>9</v>
       </c>
       <c r="C271" t="s">
+        <v>850</v>
+      </c>
+      <c r="D271" t="s">
+        <v>851</v>
+      </c>
+      <c r="E271" t="s">
         <v>852</v>
-      </c>
-      <c r="D271" t="s">
-        <v>853</v>
-      </c>
-      <c r="E271" t="s">
-        <v>854</v>
       </c>
       <c r="F271" t="s">
         <v>5</v>
@@ -10749,13 +10749,13 @@
         <v>9</v>
       </c>
       <c r="C272" t="s">
+        <v>853</v>
+      </c>
+      <c r="D272" t="s">
+        <v>854</v>
+      </c>
+      <c r="E272" t="s">
         <v>855</v>
-      </c>
-      <c r="D272" t="s">
-        <v>856</v>
-      </c>
-      <c r="E272" t="s">
-        <v>857</v>
       </c>
       <c r="F272" t="s">
         <v>5</v>
@@ -10775,13 +10775,13 @@
         <v>9</v>
       </c>
       <c r="C273" t="s">
+        <v>856</v>
+      </c>
+      <c r="D273" t="s">
+        <v>857</v>
+      </c>
+      <c r="E273" t="s">
         <v>858</v>
-      </c>
-      <c r="D273" t="s">
-        <v>859</v>
-      </c>
-      <c r="E273" t="s">
-        <v>860</v>
       </c>
       <c r="F273" t="s">
         <v>5</v>
@@ -10801,13 +10801,13 @@
         <v>9</v>
       </c>
       <c r="C274" t="s">
+        <v>859</v>
+      </c>
+      <c r="D274" t="s">
+        <v>860</v>
+      </c>
+      <c r="E274" t="s">
         <v>861</v>
-      </c>
-      <c r="D274" t="s">
-        <v>862</v>
-      </c>
-      <c r="E274" t="s">
-        <v>863</v>
       </c>
       <c r="F274" t="s">
         <v>5</v>
@@ -10827,13 +10827,13 @@
         <v>9</v>
       </c>
       <c r="C275" t="s">
+        <v>862</v>
+      </c>
+      <c r="D275" t="s">
+        <v>863</v>
+      </c>
+      <c r="E275" t="s">
         <v>864</v>
-      </c>
-      <c r="D275" t="s">
-        <v>865</v>
-      </c>
-      <c r="E275" t="s">
-        <v>866</v>
       </c>
       <c r="F275" t="s">
         <v>5</v>
@@ -11191,13 +11191,13 @@
         <v>9</v>
       </c>
       <c r="C289" t="s">
+        <v>865</v>
+      </c>
+      <c r="D289" t="s">
+        <v>866</v>
+      </c>
+      <c r="E289" t="s">
         <v>867</v>
-      </c>
-      <c r="D289" t="s">
-        <v>868</v>
-      </c>
-      <c r="E289" t="s">
-        <v>869</v>
       </c>
       <c r="F289" t="s">
         <v>14</v>
@@ -11298,10 +11298,10 @@
         <v>441</v>
       </c>
       <c r="D293" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E293" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F293" t="s">
         <v>14</v>
@@ -11555,13 +11555,13 @@
         <v>9</v>
       </c>
       <c r="C303" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D303" t="s">
+        <v>871</v>
+      </c>
+      <c r="E303" t="s">
         <v>873</v>
-      </c>
-      <c r="E303" t="s">
-        <v>875</v>
       </c>
       <c r="F303" t="s">
         <v>726</v>
@@ -11587,7 +11587,7 @@
         <v>589</v>
       </c>
       <c r="E304" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F304" t="s">
         <v>13</v>
@@ -11685,13 +11685,13 @@
         <v>267</v>
       </c>
       <c r="C308" t="s">
+        <v>874</v>
+      </c>
+      <c r="D308" t="s">
+        <v>875</v>
+      </c>
+      <c r="E308" t="s">
         <v>876</v>
-      </c>
-      <c r="D308" t="s">
-        <v>877</v>
-      </c>
-      <c r="E308" t="s">
-        <v>878</v>
       </c>
       <c r="F308" t="s">
         <v>5</v>
@@ -11711,13 +11711,13 @@
         <v>267</v>
       </c>
       <c r="C309" t="s">
+        <v>877</v>
+      </c>
+      <c r="D309" t="s">
+        <v>878</v>
+      </c>
+      <c r="E309" t="s">
         <v>879</v>
-      </c>
-      <c r="D309" t="s">
-        <v>880</v>
-      </c>
-      <c r="E309" t="s">
-        <v>881</v>
       </c>
       <c r="F309" t="s">
         <v>5</v>
@@ -11740,10 +11740,10 @@
         <v>269</v>
       </c>
       <c r="D310" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E310" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F310" t="s">
         <v>5</v>
@@ -11766,10 +11766,10 @@
         <v>272</v>
       </c>
       <c r="D311" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E311" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F311" t="s">
         <v>5</v>
@@ -11792,10 +11792,10 @@
         <v>275</v>
       </c>
       <c r="D312" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E312" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F312" t="s">
         <v>5</v>
@@ -11893,13 +11893,13 @@
         <v>268</v>
       </c>
       <c r="C316" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D316" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E316" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F316" t="s">
         <v>5</v>
@@ -11919,13 +11919,13 @@
         <v>268</v>
       </c>
       <c r="C317" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D317" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E317" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F317" t="s">
         <v>5</v>
@@ -11948,10 +11948,10 @@
         <v>269</v>
       </c>
       <c r="D318" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E318" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F318" t="s">
         <v>5</v>
@@ -11974,10 +11974,10 @@
         <v>272</v>
       </c>
       <c r="D319" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E319" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F319" t="s">
         <v>5</v>
@@ -12078,10 +12078,10 @@
         <v>576</v>
       </c>
       <c r="D323" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E323" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F323" t="s">
         <v>14</v>
@@ -12153,13 +12153,13 @@
         <v>163</v>
       </c>
       <c r="C326" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D326" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E326" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F326" t="s">
         <v>5</v>
